--- a/SPPI Model.xlsx
+++ b/SPPI Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/WhiteSky/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE3E7EC-0532-6B43-89DD-AB406174A5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C447D967-127A-2D45-AA31-E0A586074EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{74B7601F-A485-1747-82A0-CB99B95E4172}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{74B7601F-A485-1747-82A0-CB99B95E4172}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="218">
   <si>
     <t>EBIT</t>
   </si>
@@ -138,9 +138,6 @@
     <t>4Q22</t>
   </si>
   <si>
-    <t>1Q23</t>
-  </si>
-  <si>
     <t>2Q23</t>
   </si>
   <si>
@@ -505,15 +502,6 @@
   </si>
   <si>
     <t>Basic Shares Outstanding</t>
-  </si>
-  <si>
-    <t>Legal Disclosure</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>research@whiteskycapital.com</t>
   </si>
   <si>
     <t>Interest Expense</t>
@@ -771,6 +759,9 @@
   </si>
   <si>
     <t>4Q22A</t>
+  </si>
+  <si>
+    <t>1Q23A</t>
   </si>
 </sst>
 </file>
@@ -1364,6 +1355,7 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1394,7 +1386,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1747,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B9C659-74D0-5E44-A487-A1B8CAC30901}">
   <dimension ref="B4:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1761,53 +1752,41 @@
     </row>
     <row r="6" spans="2:2" s="49" customFormat="1" ht="23">
       <c r="B6" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="10" t="s">
-        <v>140</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="51" t="s">
-        <v>141</v>
-      </c>
+      <c r="B20" s="51"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{992A64C4-11E3-7D40-8EC2-C73060391301}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1839,27 +1818,27 @@
     </row>
     <row r="2" spans="1:34" ht="18">
       <c r="A2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="W11" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1875,88 +1854,88 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="W12" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="16" customHeight="1">
       <c r="C13" s="17"/>
       <c r="D13" s="46" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P13" s="6"/>
       <c r="R13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S13" s="102">
+        <v>92</v>
+      </c>
+      <c r="S13" s="103">
         <v>44820</v>
       </c>
-      <c r="T13" s="102"/>
-      <c r="U13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="104"/>
       <c r="W13" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="X13" s="19" t="s">
+      <c r="Y13" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="Y13" s="30" t="s">
+      <c r="Z13" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Z13" s="30" t="s">
+      <c r="AA13" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB13" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AA13" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB13" s="30" t="s">
+      <c r="AC13" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD13" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AC13" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD13" s="30" t="s">
+      <c r="AE13" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF13" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG13" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH13" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="AE13" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF13" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG13" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH13" s="19" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="14" spans="1:34" ht="16" customHeight="1">
-      <c r="C14" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="104" t="s">
-        <v>42</v>
+      <c r="C14" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -1968,19 +1947,19 @@
       <c r="L14" s="20"/>
       <c r="M14" s="21"/>
       <c r="O14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P14" s="26">
         <v>0.45</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U14" s="31">
         <v>0.48</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X14" s="43"/>
       <c r="Y14" s="4"/>
@@ -2016,8 +1995,8 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="16" customHeight="1">
-      <c r="C15" s="107"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -2035,13 +2014,13 @@
         <v>175.566757</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X15" s="43"/>
       <c r="Y15" s="4"/>
@@ -2077,29 +2056,29 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="16" customHeight="1">
-      <c r="C16" s="107"/>
-      <c r="D16" s="104" t="s">
-        <v>43</v>
+      <c r="C16" s="108"/>
+      <c r="D16" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
       <c r="O16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P16" s="14">
         <f>P14*P15*1000</f>
         <v>79005.040649999995</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U16" s="78">
         <f>'rNPV &amp; DCF Valuation'!C22</f>
         <v>0.9652027203307999</v>
       </c>
       <c r="W16" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X16" s="75"/>
       <c r="Y16" s="76"/>
@@ -2135,26 +2114,26 @@
       </c>
     </row>
     <row r="17" spans="3:34" ht="16" customHeight="1">
-      <c r="C17" s="107"/>
-      <c r="D17" s="105"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="O17" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P17" s="14">
         <f>Model!L58+Model!L59</f>
         <v>100252</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X17" s="43">
         <f>Model!AA38</f>
@@ -2202,9 +2181,9 @@
       </c>
     </row>
     <row r="18" spans="3:34" ht="16" customHeight="1">
-      <c r="C18" s="107"/>
-      <c r="D18" s="104" t="s">
-        <v>44</v>
+      <c r="C18" s="108"/>
+      <c r="D18" s="105" t="s">
+        <v>43</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -2212,19 +2191,19 @@
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
       <c r="O18" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P18" s="14">
         <v>29000</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U18" s="31">
         <v>2.5299999999999998</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X18" s="43">
         <f>Model!AA37</f>
@@ -2272,22 +2251,22 @@
       </c>
     </row>
     <row r="19" spans="3:34">
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
       <c r="O19" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P19" s="15">
         <f>P16+P18-P17</f>
         <v>7753.0406499999954</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U19" s="31">
         <v>0.3</v>
@@ -2341,11 +2320,11 @@
       </c>
     </row>
     <row r="20" spans="3:34">
-      <c r="C20" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="104" t="s">
-        <v>46</v>
+      <c r="C20" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>45</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -2354,14 +2333,14 @@
       <c r="I20" s="22"/>
       <c r="J20" s="23"/>
       <c r="R20" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U20" s="33">
         <f>U21-100+30</f>
         <v>14.272043359999998</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X20" s="43">
         <f>Model!AA41+Model!AA44</f>
@@ -2409,8 +2388,8 @@
       </c>
     </row>
     <row r="21" spans="3:34">
-      <c r="C21" s="107"/>
-      <c r="D21" s="109"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="110"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
@@ -2418,18 +2397,18 @@
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="O21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P21" s="3"/>
       <c r="R21" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U21" s="33">
         <f>U22*U14</f>
         <v>84.272043359999998</v>
       </c>
       <c r="W21" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X21" s="75">
         <f t="shared" ref="X21:AH21" si="1">X19+X20</f>
@@ -2477,36 +2456,36 @@
       </c>
     </row>
     <row r="22" spans="3:34" ht="13" customHeight="1">
-      <c r="C22" s="107"/>
-      <c r="D22" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="110" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
       <c r="O22" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P22" s="27">
         <f>'rNPV &amp; DCF Valuation'!C22</f>
         <v>0.9652027203307999</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U22" s="41">
         <f>P15</f>
         <v>175.566757</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X22" s="43">
         <f>Model!AA48</f>
@@ -2554,31 +2533,31 @@
       </c>
     </row>
     <row r="23" spans="3:34">
-      <c r="C23" s="107"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
       <c r="O23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P23" s="28">
         <f>P22/P14-1</f>
         <v>1.1448949340684442</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U23" s="32">
         <v>3.79</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X23" s="43">
         <f>Model!AA50</f>
@@ -2626,9 +2605,9 @@
       </c>
     </row>
     <row r="24" spans="3:34">
-      <c r="C24" s="107"/>
-      <c r="D24" s="104" t="s">
-        <v>48</v>
+      <c r="C24" s="108"/>
+      <c r="D24" s="105" t="s">
+        <v>47</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -2637,14 +2616,14 @@
       <c r="I24" s="22"/>
       <c r="J24" s="23"/>
       <c r="O24" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P24" s="26" t="e">
         <f>'rNPV &amp; DCF Valuation'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
@@ -2652,7 +2631,7 @@
         <v>4.05</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X24" s="44">
         <f t="shared" ref="X24:AH24" si="2">X22/X23/1000</f>
@@ -2700,8 +2679,8 @@
       </c>
     </row>
     <row r="25" spans="3:34">
-      <c r="C25" s="107"/>
-      <c r="D25" s="105"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="106"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -2709,23 +2688,23 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
       <c r="O25" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P25" s="29" t="e">
         <f>P24/P14-1</f>
         <v>#REF!</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
       <c r="U25" s="6"/>
     </row>
     <row r="26" spans="3:34">
-      <c r="C26" s="107"/>
-      <c r="D26" s="109" t="s">
-        <v>49</v>
+      <c r="C26" s="108"/>
+      <c r="D26" s="110" t="s">
+        <v>48</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -2734,7 +2713,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="23"/>
       <c r="R26" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U26" s="14">
         <f>P17/1000</f>
@@ -2742,8 +2721,8 @@
       </c>
     </row>
     <row r="27" spans="3:34">
-      <c r="C27" s="107"/>
-      <c r="D27" s="109"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="110"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -2751,7 +2730,7 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="R27" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U27" s="37">
         <f>P18/1000</f>
@@ -2759,9 +2738,9 @@
       </c>
     </row>
     <row r="28" spans="3:34">
-      <c r="C28" s="107"/>
-      <c r="D28" s="104" t="s">
-        <v>50</v>
+      <c r="C28" s="108"/>
+      <c r="D28" s="105" t="s">
+        <v>49</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -2769,7 +2748,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="23"/>
       <c r="R28" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U28" s="37">
         <f>U26/U22</f>
@@ -2777,15 +2756,15 @@
       </c>
     </row>
     <row r="29" spans="3:34">
-      <c r="C29" s="107"/>
-      <c r="D29" s="109"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
       <c r="R29" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
@@ -2795,9 +2774,9 @@
       </c>
     </row>
     <row r="30" spans="3:34">
-      <c r="C30" s="107"/>
-      <c r="D30" s="104" t="s">
-        <v>54</v>
+      <c r="C30" s="108"/>
+      <c r="D30" s="105" t="s">
+        <v>53</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -2805,36 +2784,36 @@
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
       <c r="R30" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S30" s="42"/>
       <c r="T30" s="42"/>
       <c r="U30" s="6"/>
     </row>
     <row r="31" spans="3:34">
-      <c r="C31" s="108"/>
-      <c r="D31" s="105"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="106"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="R31" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="S31" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="T31" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="S31" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="T31" s="30" t="s">
+      <c r="U31" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="U31" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="32" spans="3:34">
       <c r="R32" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U32" s="14">
         <f>Model!N33/1000</f>
@@ -2843,7 +2822,7 @@
     </row>
     <row r="33" spans="18:21">
       <c r="R33" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U33" s="14">
         <f>Model!O33/1000</f>
@@ -2852,7 +2831,7 @@
     </row>
     <row r="34" spans="18:21">
       <c r="R34" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U34" s="14">
         <f>Model!P33/1000</f>
@@ -2861,7 +2840,7 @@
     </row>
     <row r="35" spans="18:21">
       <c r="R35" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T35" s="4">
         <f>Model!M33/1000</f>
@@ -2874,7 +2853,7 @@
     </row>
     <row r="36" spans="18:21">
       <c r="R36" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -2882,21 +2861,21 @@
     </row>
     <row r="37" spans="18:21">
       <c r="R37" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="S37" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="T37" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="S37" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="T37" s="30" t="s">
+      <c r="U37" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="U37" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="18:21">
       <c r="R38" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S38" s="38">
         <f>Model!F53</f>
@@ -2913,7 +2892,7 @@
     </row>
     <row r="39" spans="18:21">
       <c r="R39" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S39" s="38">
         <f>Model!G53</f>
@@ -2930,7 +2909,7 @@
     </row>
     <row r="40" spans="18:21">
       <c r="R40" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S40" s="38">
         <f>Model!H53</f>
@@ -2947,7 +2926,7 @@
     </row>
     <row r="41" spans="18:21">
       <c r="R41" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S41" s="39">
         <f>Model!I53</f>
@@ -2991,10 +2970,10 @@
   <dimension ref="A1:AP126"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M51" sqref="M51"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -3016,12 +2995,12 @@
     </row>
     <row r="2" spans="1:42" s="54" customFormat="1">
       <c r="A2" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -3029,77 +3008,77 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="G8" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="H8" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="I8" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8" s="55" t="s">
+      <c r="J8" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="N8" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="J8" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="N8" s="55" t="s">
+      <c r="O8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="55" t="s">
+      <c r="P8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="55" t="s">
+      <c r="Q8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="R8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="55" t="s">
+      <c r="S8" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" s="55" t="s">
+      <c r="U8" s="55" t="s">
         <v>21</v>
-      </c>
-      <c r="U8" s="55" t="s">
-        <v>22</v>
       </c>
       <c r="Y8" s="55" t="s">
         <v>13</v>
@@ -3111,54 +3090,54 @@
         <v>12</v>
       </c>
       <c r="AB8" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AC8" s="55" t="s">
+      <c r="AD8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="AD8" s="55" t="s">
+      <c r="AE8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="55" t="s">
+      <c r="AF8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="55" t="s">
+      <c r="AG8" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AG8" s="55" t="s">
+      <c r="AH8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AH8" s="55" t="s">
+      <c r="AI8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AI8" s="55" t="s">
+      <c r="AJ8" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AJ8" s="55" t="s">
+      <c r="AK8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AK8" s="55" t="s">
+      <c r="AL8" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AL8" s="55" t="s">
+      <c r="AM8" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="AM8" s="55" t="s">
+      <c r="AN8" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AN8" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO8" s="55" t="s">
-        <v>35</v>
-      </c>
       <c r="AP8" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="57">
         <v>43921</v>
@@ -3310,7 +3289,7 @@
     </row>
     <row r="10" spans="1:42" s="70" customFormat="1">
       <c r="A10" s="70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="73"/>
       <c r="C10" s="73"/>
@@ -3335,7 +3314,7 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="53" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -3382,7 +3361,7 @@
     </row>
     <row r="13" spans="1:42">
       <c r="A13" s="55" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
@@ -3407,7 +3386,7 @@
     </row>
     <row r="14" spans="1:42">
       <c r="A14" s="53" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B14" s="53">
         <v>609000</v>
@@ -3553,7 +3532,7 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="53" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K15" s="59">
         <f>K14*0.4/0.55</f>
@@ -3662,7 +3641,7 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="53" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B16" s="53">
         <f>B15+B14</f>
@@ -3819,7 +3798,7 @@
     </row>
     <row r="17" spans="1:42">
       <c r="A17" s="53" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F17" s="100">
         <f>F16/B16-1</f>
@@ -3968,7 +3947,7 @@
     </row>
     <row r="19" spans="1:42">
       <c r="A19" s="53" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B19" s="53">
         <v>6500</v>
@@ -4104,7 +4083,7 @@
     </row>
     <row r="20" spans="1:42">
       <c r="A20" s="53" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B20" s="99">
         <f t="shared" ref="B20:U20" si="42">B14/B19</f>
@@ -4261,7 +4240,7 @@
     </row>
     <row r="21" spans="1:42">
       <c r="A21" s="53" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B21" s="99">
         <f>B16/B19</f>
@@ -4443,14 +4422,14 @@
     </row>
     <row r="23" spans="1:42">
       <c r="A23" s="55" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:42" s="60" customFormat="1">
       <c r="A24" s="60" t="s">
-        <v>194</v>
-      </c>
-      <c r="M24" s="112">
+        <v>190</v>
+      </c>
+      <c r="M24" s="102">
         <f>(M27/(1-M26))/M16</f>
         <v>2.0355207295837327E-2</v>
       </c>
@@ -4530,7 +4509,7 @@
     </row>
     <row r="25" spans="1:42">
       <c r="A25" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M25" s="53">
         <v>5800</v>
@@ -4610,7 +4589,7 @@
     </row>
     <row r="26" spans="1:42" s="60" customFormat="1">
       <c r="A26" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M26" s="61">
         <v>0.05</v>
@@ -4690,7 +4669,7 @@
     </row>
     <row r="27" spans="1:42" s="55" customFormat="1">
       <c r="A27" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="65">
         <v>10114</v>
@@ -4790,7 +4769,7 @@
     </row>
     <row r="28" spans="1:42" s="60" customFormat="1">
       <c r="A28" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N28" s="66"/>
       <c r="O28" s="66"/>
@@ -4923,7 +4902,7 @@
     </row>
     <row r="31" spans="1:42" s="70" customFormat="1">
       <c r="A31" s="70" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M31" s="71"/>
       <c r="N31" s="71"/>
@@ -4954,7 +4933,7 @@
     </row>
     <row r="33" spans="1:42" s="55" customFormat="1">
       <c r="A33" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="65">
         <f>M27</f>
@@ -5055,7 +5034,7 @@
     </row>
     <row r="34" spans="1:42">
       <c r="A34" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M34" s="59">
         <v>1792</v>
@@ -5155,14 +5134,14 @@
     </row>
     <row r="35" spans="1:42">
       <c r="A35" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M35" s="59">
         <f>M33-M34</f>
         <v>8322</v>
       </c>
       <c r="N35" s="59">
-        <f t="shared" ref="M35:U35" si="58">N33-N34</f>
+        <f t="shared" ref="N35:U35" si="58">N33-N34</f>
         <v>17412.299725018358</v>
       </c>
       <c r="O35" s="59">
@@ -5256,7 +5235,7 @@
     </row>
     <row r="36" spans="1:42" s="60" customFormat="1">
       <c r="A36" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M36" s="61">
         <f>M35/M33</f>
@@ -5980,7 +5959,7 @@
         <v>615</v>
       </c>
       <c r="N41" s="59">
-        <f t="shared" ref="M41:U41" si="83">AVERAGE(J41:M41)</f>
+        <f t="shared" ref="N41:U41" si="83">AVERAGE(J41:M41)</f>
         <v>217.75</v>
       </c>
       <c r="O41" s="59">
@@ -6083,7 +6062,7 @@
     </row>
     <row r="42" spans="1:42">
       <c r="A42" s="53" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L42" s="59"/>
       <c r="M42" s="59">
@@ -6157,7 +6136,7 @@
     </row>
     <row r="43" spans="1:42">
       <c r="A43" s="53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L43" s="59"/>
       <c r="M43" s="68">
@@ -6358,7 +6337,7 @@
     </row>
     <row r="45" spans="1:42">
       <c r="A45" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="59">
         <f>B40+B41+B44</f>
@@ -6550,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="59">
-        <f t="shared" ref="M46:O46" si="107">AVERAGE(J46:M46)</f>
+        <f t="shared" ref="N46:O46" si="107">AVERAGE(J46:M46)</f>
         <v>-11.25</v>
       </c>
       <c r="O46" s="59">
@@ -6710,7 +6689,7 @@
     </row>
     <row r="48" spans="1:42" s="55" customFormat="1">
       <c r="A48" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" s="65">
         <f>B45+B46+B47</f>
@@ -6867,7 +6846,7 @@
     </row>
     <row r="50" spans="1:42">
       <c r="A50" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" s="59">
         <f>B52</f>
@@ -6917,7 +6896,7 @@
         <v>199.539109</v>
       </c>
       <c r="N50" s="59">
-        <f t="shared" ref="M50:U50" si="129">M50</f>
+        <f t="shared" ref="N50:U50" si="129">M50</f>
         <v>199.539109</v>
       </c>
       <c r="O50" s="59">
@@ -7022,7 +7001,7 @@
     </row>
     <row r="51" spans="1:42">
       <c r="A51" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" s="69">
         <f t="shared" ref="B51:U51" si="131">B48/B50/1000</f>
@@ -7179,7 +7158,7 @@
     </row>
     <row r="52" spans="1:42" s="59" customFormat="1">
       <c r="A52" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" s="59">
         <v>111.78057099999999</v>
@@ -7325,7 +7304,7 @@
     </row>
     <row r="53" spans="1:42" s="59" customFormat="1">
       <c r="A53" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="69">
         <f t="shared" ref="B53:U53" si="136">B48/B52/1000</f>
@@ -7498,7 +7477,7 @@
     </row>
     <row r="56" spans="1:42" s="70" customFormat="1">
       <c r="A56" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B56" s="71"/>
       <c r="C56" s="71"/>
@@ -7527,7 +7506,7 @@
     </row>
     <row r="58" spans="1:42">
       <c r="A58" s="53" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -7561,7 +7540,7 @@
     </row>
     <row r="59" spans="1:42">
       <c r="A59" s="53" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E59" s="53">
         <v>134016</v>
@@ -7614,7 +7593,7 @@
     </row>
     <row r="60" spans="1:42">
       <c r="A60" s="53" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E60" s="53">
         <v>67</v>
@@ -7650,7 +7629,7 @@
     </row>
     <row r="61" spans="1:42">
       <c r="A61" s="53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E61" s="53">
         <v>2394</v>
@@ -7703,7 +7682,7 @@
     </row>
     <row r="62" spans="1:42">
       <c r="A62" s="53" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I62" s="59"/>
       <c r="L62" s="59">
@@ -7736,7 +7715,7 @@
     </row>
     <row r="63" spans="1:42">
       <c r="A63" s="53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E63" s="53">
         <v>4161</v>
@@ -7789,7 +7768,7 @@
     </row>
     <row r="64" spans="1:42">
       <c r="A64" s="53" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E64" s="59">
         <f>E58+E59+E61+E62+E63</f>
@@ -7850,7 +7829,7 @@
     </row>
     <row r="65" spans="1:42">
       <c r="A65" s="53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E65" s="53">
         <v>3577</v>
@@ -7879,7 +7858,7 @@
     </row>
     <row r="66" spans="1:42">
       <c r="A66" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E66" s="53">
         <v>2247</v>
@@ -7931,7 +7910,7 @@
     </row>
     <row r="67" spans="1:42">
       <c r="A67" s="53" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E67" s="53">
         <v>4327</v>
@@ -7984,7 +7963,7 @@
     </row>
     <row r="68" spans="1:42" s="55" customFormat="1">
       <c r="A68" s="55" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E68" s="65">
         <f>E64+E65+E66+E67+E60</f>
@@ -8021,7 +8000,7 @@
     </row>
     <row r="70" spans="1:42">
       <c r="A70" s="53" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E70" s="53">
         <v>43771</v>
@@ -8050,7 +8029,7 @@
     </row>
     <row r="71" spans="1:42">
       <c r="A71" s="53" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E71" s="53">
         <v>9375</v>
@@ -8103,7 +8082,7 @@
     </row>
     <row r="72" spans="1:42">
       <c r="A72" s="53" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E72" s="59">
         <f>E70+E71</f>
@@ -8164,7 +8143,7 @@
     </row>
     <row r="73" spans="1:42">
       <c r="A73" s="53" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L73" s="59">
         <v>28488</v>
@@ -8223,7 +8202,7 @@
     </row>
     <row r="74" spans="1:42">
       <c r="A74" s="53" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E74" s="53">
         <v>9409</v>
@@ -8276,7 +8255,7 @@
     </row>
     <row r="75" spans="1:42" s="55" customFormat="1">
       <c r="A75" s="55" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E75" s="65">
         <f>E72+E73+E74</f>
@@ -8337,7 +8316,7 @@
     </row>
     <row r="77" spans="1:42">
       <c r="A77" s="53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E77" s="53">
         <v>146</v>
@@ -8366,7 +8345,7 @@
     </row>
     <row r="78" spans="1:42">
       <c r="A78" s="53" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E78" s="53">
         <v>1021221</v>
@@ -8395,7 +8374,7 @@
     </row>
     <row r="79" spans="1:42">
       <c r="A79" s="53" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E79" s="53">
         <v>-1829</v>
@@ -8424,7 +8403,7 @@
     </row>
     <row r="80" spans="1:42">
       <c r="A80" s="53" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E80" s="53">
         <v>-885295</v>
@@ -8459,7 +8438,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="53" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E81" s="53">
         <f>E77+E78+E79+E80</f>
@@ -8496,7 +8475,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E82" s="59">
         <f>E81+E75</f>
@@ -8533,7 +8512,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="53" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E84" s="59">
         <f>E68-E82</f>
@@ -8587,12 +8566,12 @@
     </row>
     <row r="87" spans="1:12" s="70" customFormat="1">
       <c r="A87" s="70" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F89" s="59">
         <f>F48</f>
@@ -8625,7 +8604,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F90" s="53">
         <v>65</v>
@@ -8652,7 +8631,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="53" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L91" s="53">
         <v>17</v>
@@ -8660,7 +8639,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F92" s="53">
         <v>4212</v>
@@ -8687,7 +8666,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H93" s="53">
         <v>3057</v>
@@ -8695,7 +8674,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="53" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F94" s="53">
         <v>401</v>
@@ -8722,7 +8701,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F95" s="53">
         <v>68</v>
@@ -8749,7 +8728,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="53" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J96" s="53">
         <v>3</v>
@@ -8765,7 +8744,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="53" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F97" s="53">
         <v>-2856</v>
@@ -8792,7 +8771,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="53" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F98" s="53">
         <v>4999</v>
@@ -8819,7 +8798,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="53" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G100" s="53">
         <v>68</v>
@@ -8830,7 +8809,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="53" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F101" s="53">
         <v>-324</v>
@@ -8853,7 +8832,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="53" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L102" s="53">
         <v>-9373</v>
@@ -8861,7 +8840,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F103" s="53">
         <v>670</v>
@@ -8884,7 +8863,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="53" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F104" s="53">
         <v>-36</v>
@@ -8907,7 +8886,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F105" s="53">
         <v>-1681</v>
@@ -8930,7 +8909,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="53" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F106" s="53">
         <v>-4408</v>
@@ -8953,7 +8932,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="53" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F107" s="53">
         <v>96</v>
@@ -8976,7 +8955,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="53" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F108" s="59">
         <f>F89+SUM(F90:F107)</f>
@@ -9001,7 +8980,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="53" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F110" s="53">
         <v>49823</v>
@@ -9020,7 +8999,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="53" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F111" s="53">
         <v>2858</v>
@@ -9039,7 +9018,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="53" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F112" s="53">
         <v>-15964</v>
@@ -9058,7 +9037,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="53" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F113" s="53">
         <v>-73</v>
@@ -9073,7 +9052,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="53" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F114" s="53">
         <f>F110+F111+F112+F113</f>
@@ -9094,7 +9073,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="53" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J116" s="53">
         <v>20000</v>
@@ -9102,7 +9081,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="53" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L117" s="53">
         <v>28852</v>
@@ -9110,7 +9089,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="53" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F118" s="53">
         <v>21357</v>
@@ -9125,7 +9104,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K119" s="53">
         <v>257</v>
@@ -9133,7 +9112,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="53" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F120" s="53">
         <f>F116+F118+F119</f>
@@ -9154,7 +9133,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="53" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F122" s="53">
         <v>2</v>
@@ -9291,37 +9270,37 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="101" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -9333,8 +9312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593C62CA-43C1-D64B-986F-BEEDC840D6C6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -9350,22 +9329,22 @@
     </row>
     <row r="2" spans="1:17" ht="19">
       <c r="A2" s="81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16">
       <c r="A5" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16">
       <c r="A6" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -9373,46 +9352,46 @@
         <v>15</v>
       </c>
       <c r="D8" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="F8" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="G8" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="H8" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="I8" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="J8" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="K8" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="L8" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="84" t="s">
+      <c r="M8" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="84" t="s">
+      <c r="N8" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="84" t="s">
+      <c r="O8" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="84" t="s">
-        <v>35</v>
-      </c>
       <c r="Q8" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9477,7 +9456,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="59">
         <f>Model!M48</f>
@@ -9595,13 +9574,13 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="91"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="93">
         <v>0.12</v>
@@ -9609,7 +9588,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="95">
         <v>-0.99</v>
@@ -9617,7 +9596,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="96">
         <f>NPV(C18,C10:Q10)+Q10/(C18-C19)</f>
@@ -9626,7 +9605,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="96">
         <f>C20+Main!P17-Main!P18</f>
@@ -9635,7 +9614,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="98">
         <f>C21/Main!P15/1000</f>

--- a/SPPI Model.xlsx
+++ b/SPPI Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C447D967-127A-2D45-AA31-E0A586074EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10565562-0B67-A642-A613-85E72D901255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{74B7601F-A485-1747-82A0-CB99B95E4172}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{74B7601F-A485-1747-82A0-CB99B95E4172}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="216">
   <si>
     <t>EBIT</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>4Q22</t>
-  </si>
-  <si>
-    <t>2Q23</t>
   </si>
   <si>
     <t>3Q23</t>
@@ -759,9 +756,6 @@
   </si>
   <si>
     <t>4Q22A</t>
-  </si>
-  <si>
-    <t>1Q23A</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B9C659-74D0-5E44-A487-A1B8CAC30901}">
   <dimension ref="B4:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1752,32 +1746,32 @@
     </row>
     <row r="6" spans="2:2" s="49" customFormat="1" ht="23">
       <c r="B6" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -1818,27 +1812,27 @@
     </row>
     <row r="2" spans="1:34" ht="18">
       <c r="A2" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="W11" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1854,39 +1848,39 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="W12" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="16" customHeight="1">
       <c r="C13" s="17"/>
       <c r="D13" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P13" s="6"/>
       <c r="R13" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S13" s="103">
         <v>44820</v>
@@ -1894,48 +1888,48 @@
       <c r="T13" s="103"/>
       <c r="U13" s="104"/>
       <c r="W13" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="X13" s="19" t="s">
+      <c r="Y13" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="Y13" s="30" t="s">
+      <c r="Z13" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="Z13" s="30" t="s">
+      <c r="AA13" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB13" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AA13" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB13" s="30" t="s">
+      <c r="AC13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD13" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AC13" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD13" s="30" t="s">
+      <c r="AE13" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF13" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG13" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH13" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="AE13" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF13" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG13" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH13" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="16" customHeight="1">
       <c r="C14" s="107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -1947,19 +1941,19 @@
       <c r="L14" s="20"/>
       <c r="M14" s="21"/>
       <c r="O14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P14" s="26">
         <v>0.45</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U14" s="31">
         <v>0.48</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X14" s="43"/>
       <c r="Y14" s="4"/>
@@ -1975,7 +1969,7 @@
       </c>
       <c r="AD14" s="4">
         <f>Model!N33</f>
-        <v>19346.999694464841</v>
+        <v>14510.24977084863</v>
       </c>
       <c r="AE14" s="4">
         <f>Model!O33</f>
@@ -1991,7 +1985,7 @@
       </c>
       <c r="AH14" s="43">
         <f>Model!AC33</f>
-        <v>88048.107169537136</v>
+        <v>83211.357245920924</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="16" customHeight="1">
@@ -2014,13 +2008,13 @@
         <v>175.566757</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X15" s="43"/>
       <c r="Y15" s="4"/>
@@ -2036,7 +2030,7 @@
       </c>
       <c r="AD15" s="4">
         <f>Model!N34</f>
-        <v>1934.6999694464837</v>
+        <v>1451.0249770848627</v>
       </c>
       <c r="AE15" s="4">
         <f>Model!O34</f>
@@ -2052,33 +2046,33 @@
       </c>
       <c r="AH15" s="43">
         <f>Model!AC34</f>
-        <v>8804.8107169537107</v>
+        <v>8321.1357245920899</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="16" customHeight="1">
       <c r="C16" s="108"/>
       <c r="D16" s="105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
       <c r="O16" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P16" s="14">
         <f>P14*P15*1000</f>
         <v>79005.040649999995</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U16" s="78">
         <f>'rNPV &amp; DCF Valuation'!C22</f>
-        <v>0.9652027203307999</v>
+        <v>0.88675204157384302</v>
       </c>
       <c r="W16" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X16" s="75"/>
       <c r="Y16" s="76"/>
@@ -2094,7 +2088,7 @@
       </c>
       <c r="AD16" s="76">
         <f>AD14-AD15</f>
-        <v>17412.299725018358</v>
+        <v>13059.224793763768</v>
       </c>
       <c r="AE16" s="76">
         <f>AE14-AE15</f>
@@ -2110,7 +2104,7 @@
       </c>
       <c r="AH16" s="77">
         <f>AH14-AH15</f>
-        <v>79243.296452583425</v>
+        <v>74890.221521328829</v>
       </c>
     </row>
     <row r="17" spans="3:34" ht="16" customHeight="1">
@@ -2120,20 +2114,20 @@
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="O17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P17" s="14">
         <f>Model!L58+Model!L59</f>
         <v>100252</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X17" s="43">
         <f>Model!AA38</f>
@@ -2183,7 +2177,7 @@
     <row r="18" spans="3:34" ht="16" customHeight="1">
       <c r="C18" s="108"/>
       <c r="D18" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -2191,19 +2185,19 @@
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
       <c r="O18" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P18" s="14">
         <v>29000</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U18" s="31">
         <v>2.5299999999999998</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X18" s="43">
         <f>Model!AA37</f>
@@ -2259,14 +2253,14 @@
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
       <c r="O19" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P19" s="15">
         <f>P16+P18-P17</f>
         <v>7753.0406499999954</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U19" s="31">
         <v>0.3</v>
@@ -2300,7 +2294,7 @@
       </c>
       <c r="AD19" s="76">
         <f t="shared" si="0"/>
-        <v>875.95972501835786</v>
+        <v>-3477.1152062362326</v>
       </c>
       <c r="AE19" s="76">
         <f t="shared" si="0"/>
@@ -2316,15 +2310,15 @@
       </c>
       <c r="AH19" s="77">
         <f t="shared" si="0"/>
-        <v>6660.630672003419</v>
+        <v>2307.5557407488232</v>
       </c>
     </row>
     <row r="20" spans="3:34">
       <c r="C20" s="107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -2333,14 +2327,14 @@
       <c r="I20" s="22"/>
       <c r="J20" s="23"/>
       <c r="R20" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U20" s="33">
         <f>U21-100+30</f>
         <v>14.272043359999998</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X20" s="43">
         <f>Model!AA41+Model!AA44</f>
@@ -2397,18 +2391,18 @@
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="O21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P21" s="3"/>
       <c r="R21" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U21" s="33">
         <f>U22*U14</f>
         <v>84.272043359999998</v>
       </c>
       <c r="W21" s="74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X21" s="75">
         <f t="shared" ref="X21:AH21" si="1">X19+X20</f>
@@ -2436,7 +2430,7 @@
       </c>
       <c r="AD21" s="76">
         <f t="shared" si="1"/>
-        <v>1289.6497250183579</v>
+        <v>-3063.4252062362325</v>
       </c>
       <c r="AE21" s="76">
         <f t="shared" si="1"/>
@@ -2452,16 +2446,16 @@
       </c>
       <c r="AH21" s="77">
         <f t="shared" si="1"/>
-        <v>8556.9895343734188</v>
+        <v>4203.9146031188229</v>
       </c>
     </row>
     <row r="22" spans="3:34" ht="13" customHeight="1">
       <c r="C22" s="108"/>
       <c r="D22" s="105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="112"/>
       <c r="G22" s="112"/>
@@ -2471,21 +2465,21 @@
       <c r="K22" s="112"/>
       <c r="L22" s="112"/>
       <c r="O22" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P22" s="27">
         <f>'rNPV &amp; DCF Valuation'!C22</f>
-        <v>0.9652027203307999</v>
+        <v>0.88675204157384302</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U22" s="41">
         <f>P15</f>
         <v>175.566757</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X22" s="43">
         <f>Model!AA48</f>
@@ -2513,7 +2507,7 @@
       </c>
       <c r="AD22" s="4">
         <f>Model!N48</f>
-        <v>1278.3997250183579</v>
+        <v>-3074.6752062362325</v>
       </c>
       <c r="AE22" s="4">
         <f>Model!O48</f>
@@ -2529,7 +2523,7 @@
       </c>
       <c r="AH22" s="43">
         <f>Model!AC48</f>
-        <v>7169.7796571211047</v>
+        <v>2816.7047258664943</v>
       </c>
     </row>
     <row r="23" spans="3:34">
@@ -2544,20 +2538,20 @@
       <c r="K23" s="112"/>
       <c r="L23" s="112"/>
       <c r="O23" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P23" s="28">
         <f>P22/P14-1</f>
-        <v>1.1448949340684442</v>
+        <v>0.9705600923863178</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U23" s="32">
         <v>3.79</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X23" s="43">
         <f>Model!AA50</f>
@@ -2607,7 +2601,7 @@
     <row r="24" spans="3:34">
       <c r="C24" s="108"/>
       <c r="D24" s="105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -2616,14 +2610,14 @@
       <c r="I24" s="22"/>
       <c r="J24" s="23"/>
       <c r="O24" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P24" s="26" t="e">
         <f>'rNPV &amp; DCF Valuation'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
@@ -2631,7 +2625,7 @@
         <v>4.05</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X24" s="44">
         <f t="shared" ref="X24:AH24" si="2">X22/X23/1000</f>
@@ -2659,7 +2653,7 @@
       </c>
       <c r="AD24" s="38">
         <f t="shared" si="2"/>
-        <v>6.4067627214791159E-3</v>
+        <v>-1.5408885113525452E-2</v>
       </c>
       <c r="AE24" s="38">
         <f t="shared" si="2"/>
@@ -2675,7 +2669,7 @@
       </c>
       <c r="AH24" s="44">
         <f t="shared" si="2"/>
-        <v>3.5931701274265516E-2</v>
+        <v>1.4116053439260843E-2</v>
       </c>
     </row>
     <row r="25" spans="3:34">
@@ -2688,14 +2682,14 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
       <c r="O25" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P25" s="29" t="e">
         <f>P24/P14-1</f>
         <v>#REF!</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
@@ -2704,7 +2698,7 @@
     <row r="26" spans="3:34">
       <c r="C26" s="108"/>
       <c r="D26" s="110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -2713,7 +2707,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="23"/>
       <c r="R26" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U26" s="14">
         <f>P17/1000</f>
@@ -2730,7 +2724,7 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="R27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U27" s="37">
         <f>P18/1000</f>
@@ -2740,7 +2734,7 @@
     <row r="28" spans="3:34">
       <c r="C28" s="108"/>
       <c r="D28" s="105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -2748,7 +2742,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="23"/>
       <c r="R28" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U28" s="37">
         <f>U26/U22</f>
@@ -2764,7 +2758,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
       <c r="R29" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
@@ -2776,7 +2770,7 @@
     <row r="30" spans="3:34">
       <c r="C30" s="108"/>
       <c r="D30" s="105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -2784,7 +2778,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
       <c r="R30" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S30" s="42"/>
       <c r="T30" s="42"/>
@@ -2799,30 +2793,30 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="R31" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="S31" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="T31" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="S31" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="T31" s="30" t="s">
+      <c r="U31" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="U31" s="18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="32" spans="3:34">
       <c r="R32" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U32" s="14">
         <f>Model!N33/1000</f>
-        <v>19.346999694464841</v>
+        <v>14.510249770848629</v>
       </c>
     </row>
     <row r="33" spans="18:21">
       <c r="R33" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U33" s="14">
         <f>Model!O33/1000</f>
@@ -2831,7 +2825,7 @@
     </row>
     <row r="34" spans="18:21">
       <c r="R34" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U34" s="14">
         <f>Model!P33/1000</f>
@@ -2840,7 +2834,7 @@
     </row>
     <row r="35" spans="18:21">
       <c r="R35" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T35" s="4">
         <f>Model!M33/1000</f>
@@ -2853,7 +2847,7 @@
     </row>
     <row r="36" spans="18:21">
       <c r="R36" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -2861,21 +2855,21 @@
     </row>
     <row r="37" spans="18:21">
       <c r="R37" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="S37" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="T37" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="S37" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="T37" s="30" t="s">
+      <c r="U37" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="U37" s="18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="18:21">
       <c r="R38" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S38" s="38">
         <f>Model!F53</f>
@@ -2887,12 +2881,12 @@
       </c>
       <c r="U38" s="37">
         <f>Model!N53</f>
-        <v>6.6636581187742901E-3</v>
+        <v>-1.6026743435302183E-2</v>
       </c>
     </row>
     <row r="39" spans="18:21">
       <c r="R39" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S39" s="38">
         <f>Model!G53</f>
@@ -2909,7 +2903,7 @@
     </row>
     <row r="40" spans="18:21">
       <c r="R40" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S40" s="38">
         <f>Model!H53</f>
@@ -2926,7 +2920,7 @@
     </row>
     <row r="41" spans="18:21">
       <c r="R41" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S41" s="39">
         <f>Model!I53</f>
@@ -2969,11 +2963,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC0AE67-9409-174E-A824-8F0542D19AD8}">
   <dimension ref="A1:AP126"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2995,12 +2989,12 @@
     </row>
     <row r="2" spans="1:42" s="54" customFormat="1">
       <c r="A2" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -3008,77 +3002,77 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="D8" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="E8" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="F8" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="G8" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="H8" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="I8" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="I8" s="55" t="s">
-        <v>213</v>
-      </c>
       <c r="J8" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="55" t="s">
-        <v>125</v>
-      </c>
       <c r="L8" s="55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M8" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N8" s="55" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="O8" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="55" t="s">
+      <c r="Q8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="R8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="55" t="s">
+      <c r="S8" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" s="55" t="s">
+      <c r="U8" s="55" t="s">
         <v>20</v>
-      </c>
-      <c r="U8" s="55" t="s">
-        <v>21</v>
       </c>
       <c r="Y8" s="55" t="s">
         <v>13</v>
@@ -3090,54 +3084,54 @@
         <v>12</v>
       </c>
       <c r="AB8" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AC8" s="55" t="s">
+      <c r="AD8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AD8" s="55" t="s">
+      <c r="AE8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="AE8" s="55" t="s">
+      <c r="AF8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="AF8" s="55" t="s">
+      <c r="AG8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AG8" s="55" t="s">
+      <c r="AH8" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AH8" s="55" t="s">
+      <c r="AI8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AI8" s="55" t="s">
+      <c r="AJ8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AJ8" s="55" t="s">
+      <c r="AK8" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AK8" s="55" t="s">
+      <c r="AL8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AL8" s="55" t="s">
+      <c r="AM8" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AM8" s="55" t="s">
+      <c r="AN8" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO8" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="AN8" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO8" s="55" t="s">
-        <v>34</v>
-      </c>
       <c r="AP8" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="57">
         <v>43921</v>
@@ -3289,7 +3283,7 @@
     </row>
     <row r="10" spans="1:42" s="70" customFormat="1">
       <c r="A10" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="73"/>
       <c r="C10" s="73"/>
@@ -3314,7 +3308,7 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -3361,7 +3355,7 @@
     </row>
     <row r="13" spans="1:42">
       <c r="A13" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
@@ -3386,7 +3380,7 @@
     </row>
     <row r="14" spans="1:42">
       <c r="A14" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="53">
         <v>609000</v>
@@ -3532,7 +3526,7 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K15" s="59">
         <f>K14*0.4/0.55</f>
@@ -3641,7 +3635,7 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16" s="53">
         <f>B15+B14</f>
@@ -3798,7 +3792,7 @@
     </row>
     <row r="17" spans="1:42">
       <c r="A17" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F17" s="100">
         <f>F16/B16-1</f>
@@ -3947,7 +3941,7 @@
     </row>
     <row r="19" spans="1:42">
       <c r="A19" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="53">
         <v>6500</v>
@@ -4083,7 +4077,7 @@
     </row>
     <row r="20" spans="1:42">
       <c r="A20" s="53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="99">
         <f t="shared" ref="B20:U20" si="42">B14/B19</f>
@@ -4240,7 +4234,7 @@
     </row>
     <row r="21" spans="1:42">
       <c r="A21" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="99">
         <f>B16/B19</f>
@@ -4422,19 +4416,19 @@
     </row>
     <row r="23" spans="1:42">
       <c r="A23" s="55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:42" s="60" customFormat="1">
       <c r="A24" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M24" s="102">
         <f>(M27/(1-M26))/M16</f>
         <v>2.0355207295837327E-2</v>
       </c>
       <c r="N24" s="62">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O24" s="62">
         <v>0.04</v>
@@ -4446,16 +4440,16 @@
         <v>0.05</v>
       </c>
       <c r="R24" s="62">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="S24" s="62">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="T24" s="62">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="U24" s="62">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Y24" s="61"/>
       <c r="AB24" s="63">
@@ -4464,11 +4458,11 @@
       </c>
       <c r="AC24" s="63">
         <f t="shared" ref="AC24:AD24" si="48">AC27/AC16</f>
-        <v>4.1357029173570259E-2</v>
+        <v>3.9085161962261632E-2</v>
       </c>
       <c r="AD24" s="63">
         <f t="shared" si="48"/>
-        <v>5.5099999999999989E-2</v>
+        <v>4.5916666666666661E-2</v>
       </c>
       <c r="AE24" s="62">
         <v>0.06</v>
@@ -4509,7 +4503,7 @@
     </row>
     <row r="25" spans="1:42">
       <c r="A25" s="53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M25" s="53">
         <v>5800</v>
@@ -4589,7 +4583,7 @@
     </row>
     <row r="26" spans="1:42" s="60" customFormat="1">
       <c r="A26" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M26" s="61">
         <v>0.05</v>
@@ -4669,14 +4663,14 @@
     </row>
     <row r="27" spans="1:42" s="55" customFormat="1">
       <c r="A27" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M27" s="65">
         <v>10114</v>
       </c>
       <c r="N27" s="65">
         <f t="shared" ref="N27:U27" si="50">N24*N21*N25*(1-N26)</f>
-        <v>19346.999694464841</v>
+        <v>14510.24977084863</v>
       </c>
       <c r="O27" s="65">
         <f t="shared" si="50"/>
@@ -4692,19 +4686,19 @@
       </c>
       <c r="R27" s="65">
         <f t="shared" si="50"/>
-        <v>29841.645441533623</v>
+        <v>24868.037867944688</v>
       </c>
       <c r="S27" s="65">
         <f t="shared" si="50"/>
-        <v>30050.536959624354</v>
+        <v>25042.114133020303</v>
       </c>
       <c r="T27" s="65">
         <f t="shared" si="50"/>
-        <v>30260.890718341732</v>
+        <v>25217.408931951442</v>
       </c>
       <c r="U27" s="65">
         <f t="shared" si="50"/>
-        <v>30472.716953370113</v>
+        <v>25393.930794475094</v>
       </c>
       <c r="AB27" s="65">
         <f>M27</f>
@@ -4712,11 +4706,11 @@
       </c>
       <c r="AC27" s="65">
         <f>SUM(N27:Q27)</f>
-        <v>88048.107169537136</v>
+        <v>83211.357245920924</v>
       </c>
       <c r="AD27" s="65">
         <f>SUM(R27:U27)</f>
-        <v>120625.79007286982</v>
+        <v>100521.49172739152</v>
       </c>
       <c r="AE27" s="65">
         <f t="shared" ref="AE27:AP27" si="51">AE24*AE21*AE25*(1-AE26)</f>
@@ -4769,7 +4763,7 @@
     </row>
     <row r="28" spans="1:42" s="60" customFormat="1">
       <c r="A28" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N28" s="66"/>
       <c r="O28" s="66"/>
@@ -4780,31 +4774,31 @@
       </c>
       <c r="R28" s="62">
         <f>R27/N27-1</f>
-        <v>0.54244306160149947</v>
+        <v>0.71382562400166627</v>
       </c>
       <c r="S28" s="62">
         <f t="shared" ref="S28:U28" si="52">S27/O27-1</f>
-        <v>0.54244306160149947</v>
+        <v>0.28536921800124992</v>
       </c>
       <c r="T28" s="62">
         <f t="shared" si="52"/>
-        <v>0.23395444928119979</v>
+        <v>2.8295374400999718E-2</v>
       </c>
       <c r="U28" s="62">
         <f t="shared" si="52"/>
-        <v>0.23395444928119957</v>
+        <v>2.8295374400999718E-2</v>
       </c>
       <c r="AC28" s="62">
         <f>AC27/AB27-1</f>
-        <v>7.705567250300291</v>
+        <v>7.2273440029583664</v>
       </c>
       <c r="AD28" s="62">
         <f>AD27/AC27-1</f>
-        <v>0.36999867402719011</v>
+        <v>0.20802610430103452</v>
       </c>
       <c r="AE28" s="61">
         <f>AE27/AD27-1</f>
-        <v>-7.6923076923076761E-2</v>
+        <v>0.10769230769230775</v>
       </c>
       <c r="AF28" s="61">
         <f t="shared" ref="AF28:AP28" si="53">AF27/AE27-1</f>
@@ -4902,7 +4896,7 @@
     </row>
     <row r="31" spans="1:42" s="70" customFormat="1">
       <c r="A31" s="70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M31" s="71"/>
       <c r="N31" s="71"/>
@@ -4933,7 +4927,7 @@
     </row>
     <row r="33" spans="1:42" s="55" customFormat="1">
       <c r="A33" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="65">
         <f>M27</f>
@@ -4941,7 +4935,7 @@
       </c>
       <c r="N33" s="65">
         <f t="shared" ref="N33:U33" si="54">N27</f>
-        <v>19346.999694464841</v>
+        <v>14510.24977084863</v>
       </c>
       <c r="O33" s="65">
         <f t="shared" si="54"/>
@@ -4957,19 +4951,19 @@
       </c>
       <c r="R33" s="65">
         <f t="shared" si="54"/>
-        <v>29841.645441533623</v>
+        <v>24868.037867944688</v>
       </c>
       <c r="S33" s="65">
         <f t="shared" si="54"/>
-        <v>30050.536959624354</v>
+        <v>25042.114133020303</v>
       </c>
       <c r="T33" s="65">
         <f t="shared" si="54"/>
-        <v>30260.890718341732</v>
+        <v>25217.408931951442</v>
       </c>
       <c r="U33" s="65">
         <f t="shared" si="54"/>
-        <v>30472.716953370113</v>
+        <v>25393.930794475094</v>
       </c>
       <c r="AB33" s="65">
         <f>AB27</f>
@@ -4977,11 +4971,11 @@
       </c>
       <c r="AC33" s="65">
         <f t="shared" ref="AC33:AO33" si="55">AC27</f>
-        <v>88048.107169537136</v>
+        <v>83211.357245920924</v>
       </c>
       <c r="AD33" s="65">
         <f t="shared" si="55"/>
-        <v>120625.79007286982</v>
+        <v>100521.49172739152</v>
       </c>
       <c r="AE33" s="65">
         <f t="shared" si="55"/>
@@ -5034,14 +5028,14 @@
     </row>
     <row r="34" spans="1:42">
       <c r="A34" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M34" s="59">
         <v>1792</v>
       </c>
       <c r="N34" s="59">
         <f t="shared" ref="N34:U34" si="56">N33*(1-N36)</f>
-        <v>1934.6999694464837</v>
+        <v>1451.0249770848627</v>
       </c>
       <c r="O34" s="59">
         <f t="shared" si="56"/>
@@ -5057,19 +5051,19 @@
       </c>
       <c r="R34" s="59">
         <f t="shared" si="56"/>
-        <v>2984.1645441533615</v>
+        <v>2486.8037867944681</v>
       </c>
       <c r="S34" s="59">
         <f t="shared" si="56"/>
-        <v>3005.0536959624346</v>
+        <v>2504.2114133020295</v>
       </c>
       <c r="T34" s="59">
         <f t="shared" si="56"/>
-        <v>3026.0890718341725</v>
+        <v>2521.7408931951436</v>
       </c>
       <c r="U34" s="59">
         <f t="shared" si="56"/>
-        <v>3047.2716953370104</v>
+        <v>2539.3930794475091</v>
       </c>
       <c r="AB34" s="59">
         <f>J34+K34+L34+M34</f>
@@ -5077,11 +5071,11 @@
       </c>
       <c r="AC34" s="59">
         <f>SUM(N34:Q34)</f>
-        <v>8804.8107169537107</v>
+        <v>8321.1357245920899</v>
       </c>
       <c r="AD34" s="59">
         <f>SUM(R34:U34)</f>
-        <v>12062.579007286979</v>
+        <v>10052.149172739149</v>
       </c>
       <c r="AE34" s="59">
         <f>0.13*AE33</f>
@@ -5134,7 +5128,7 @@
     </row>
     <row r="35" spans="1:42">
       <c r="A35" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M35" s="59">
         <f>M33-M34</f>
@@ -5142,7 +5136,7 @@
       </c>
       <c r="N35" s="59">
         <f t="shared" ref="N35:U35" si="58">N33-N34</f>
-        <v>17412.299725018358</v>
+        <v>13059.224793763768</v>
       </c>
       <c r="O35" s="59">
         <f t="shared" si="58"/>
@@ -5158,19 +5152,19 @@
       </c>
       <c r="R35" s="59">
         <f t="shared" si="58"/>
-        <v>26857.480897380261</v>
+        <v>22381.234081150218</v>
       </c>
       <c r="S35" s="59">
         <f t="shared" si="58"/>
-        <v>27045.483263661921</v>
+        <v>22537.902719718273</v>
       </c>
       <c r="T35" s="59">
         <f t="shared" si="58"/>
-        <v>27234.80164650756</v>
+        <v>22695.668038756299</v>
       </c>
       <c r="U35" s="59">
         <f t="shared" si="58"/>
-        <v>27425.445258033102</v>
+        <v>22854.537715027585</v>
       </c>
       <c r="AB35" s="59">
         <f>J35+K35+L35+M35</f>
@@ -5178,11 +5172,11 @@
       </c>
       <c r="AC35" s="59">
         <f>SUM(N35:Q35)</f>
-        <v>79243.296452583425</v>
+        <v>74890.221521328815</v>
       </c>
       <c r="AD35" s="59">
         <f>SUM(R35:U35)</f>
-        <v>108563.21106558284</v>
+        <v>90469.342554652379</v>
       </c>
       <c r="AE35" s="59">
         <f>AE33-AE34</f>
@@ -5235,7 +5229,7 @@
     </row>
     <row r="36" spans="1:42" s="60" customFormat="1">
       <c r="A36" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M36" s="61">
         <f>M35/M33</f>
@@ -5271,7 +5265,7 @@
       </c>
       <c r="AC36" s="62">
         <f t="shared" ref="AC36:AD36" si="60">AC35/AC33</f>
-        <v>0.9</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="AD36" s="62">
         <f t="shared" si="60"/>
@@ -5813,7 +5807,7 @@
       </c>
       <c r="N40" s="59">
         <f t="shared" si="68"/>
-        <v>875.95972501835786</v>
+        <v>-3477.1152062362326</v>
       </c>
       <c r="O40" s="59">
         <f t="shared" si="68"/>
@@ -5829,19 +5823,19 @@
       </c>
       <c r="R40" s="59">
         <f t="shared" si="68"/>
-        <v>6207.6383324512572</v>
+        <v>1731.3915162212143</v>
       </c>
       <c r="S40" s="59">
         <f t="shared" si="68"/>
-        <v>5543.5684937402657</v>
+        <v>1035.9879497966176</v>
       </c>
       <c r="T40" s="59">
         <f t="shared" si="68"/>
-        <v>4840.0152605761577</v>
+        <v>300.88165282489717</v>
       </c>
       <c r="U40" s="59">
         <f t="shared" si="68"/>
-        <v>4094.9659165163321</v>
+        <v>-475.94162648918427</v>
       </c>
       <c r="Y40" s="53">
         <f>Y36-Y39</f>
@@ -5861,11 +5855,11 @@
       </c>
       <c r="AC40" s="59">
         <f t="shared" ref="AC40:AD40" si="70">AC35-AC39</f>
-        <v>6660.630672003419</v>
+        <v>2307.5557407488086</v>
       </c>
       <c r="AD40" s="59">
         <f t="shared" si="70"/>
-        <v>20686.188003283998</v>
+        <v>2592.3194923535339</v>
       </c>
       <c r="AE40" s="59">
         <f t="shared" ref="AE40" si="71">AE35-AE39</f>
@@ -6062,7 +6056,7 @@
     </row>
     <row r="42" spans="1:42">
       <c r="A42" s="53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L42" s="59"/>
       <c r="M42" s="59">
@@ -6136,7 +6130,7 @@
     </row>
     <row r="43" spans="1:42">
       <c r="A43" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L43" s="59"/>
       <c r="M43" s="68">
@@ -6337,7 +6331,7 @@
     </row>
     <row r="45" spans="1:42">
       <c r="A45" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="59">
         <f>B40+B41+B44</f>
@@ -6389,7 +6383,7 @@
       </c>
       <c r="N45" s="59">
         <f>N40+N41+N44</f>
-        <v>1289.6497250183579</v>
+        <v>-3063.4252062362325</v>
       </c>
       <c r="O45" s="59">
         <f t="shared" si="90"/>
@@ -6405,19 +6399,19 @@
       </c>
       <c r="R45" s="59">
         <f t="shared" si="90"/>
-        <v>6667.8945978301572</v>
+        <v>2191.6477816001143</v>
       </c>
       <c r="S45" s="59">
         <f t="shared" si="90"/>
-        <v>6015.8813289702985</v>
+        <v>1508.3007850266506</v>
       </c>
       <c r="T45" s="59">
         <f t="shared" si="90"/>
-        <v>5315.9340330149143</v>
+        <v>776.80042526365423</v>
       </c>
       <c r="U45" s="59">
         <f t="shared" si="90"/>
-        <v>4567.2781536139573</v>
+        <v>-3.6293893915587319</v>
       </c>
       <c r="Y45" s="53">
         <f>Y40+Y41+Y44</f>
@@ -6437,11 +6431,11 @@
       </c>
       <c r="AC45" s="59">
         <f t="shared" ref="AC45" si="93">AC40+AC41+AC44</f>
-        <v>8556.9895343734188</v>
+        <v>4203.9146031188084</v>
       </c>
       <c r="AD45" s="59">
         <f t="shared" ref="AD45" si="94">AD40+AD41+AD44</f>
-        <v>22566.988113429314</v>
+        <v>4473.1196024988494</v>
       </c>
       <c r="AE45" s="59">
         <f t="shared" ref="AE45" si="95">AE40+AE41+AE44</f>
@@ -6546,19 +6540,19 @@
       </c>
       <c r="R46" s="59">
         <f t="shared" si="108"/>
-        <v>-1333.5789195660316</v>
+        <v>-438.3295563200229</v>
       </c>
       <c r="S46" s="59">
         <f t="shared" si="108"/>
-        <v>-1203.1762657940596</v>
+        <v>-301.66015700533012</v>
       </c>
       <c r="T46" s="59">
         <f t="shared" si="108"/>
-        <v>-1063.1868066029829</v>
+        <v>-155.36008505273085</v>
       </c>
       <c r="U46" s="59">
         <f t="shared" si="108"/>
-        <v>-913.45563072279151</v>
+        <v>0.72587787831174644</v>
       </c>
       <c r="Y46" s="53">
         <v>9208</v>
@@ -6579,7 +6573,7 @@
       </c>
       <c r="AD46" s="59">
         <f>SUM(R46:U46)</f>
-        <v>-4513.3976226858658</v>
+        <v>-894.62392049977211</v>
       </c>
       <c r="AE46" s="59">
         <f>-AE45*0.2</f>
@@ -6689,7 +6683,7 @@
     </row>
     <row r="48" spans="1:42" s="55" customFormat="1">
       <c r="A48" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="65">
         <f>B45+B46+B47</f>
@@ -6741,7 +6735,7 @@
       </c>
       <c r="N48" s="65">
         <f t="shared" si="110"/>
-        <v>1278.3997250183579</v>
+        <v>-3074.6752062362325</v>
       </c>
       <c r="O48" s="65">
         <f t="shared" si="110"/>
@@ -6757,19 +6751,19 @@
       </c>
       <c r="R48" s="65">
         <f t="shared" si="110"/>
-        <v>5334.3156782641254</v>
+        <v>1753.3182252800914</v>
       </c>
       <c r="S48" s="65">
         <f t="shared" si="110"/>
-        <v>4812.7050631762386</v>
+        <v>1206.6406280213205</v>
       </c>
       <c r="T48" s="65">
         <f t="shared" si="110"/>
-        <v>4252.7472264119315</v>
+        <v>621.44034021092341</v>
       </c>
       <c r="U48" s="65">
         <f t="shared" si="110"/>
-        <v>3653.822522891166</v>
+        <v>-2.9035115132469853</v>
       </c>
       <c r="Y48" s="65">
         <f t="shared" ref="Y48" si="111">Y45+Y46+Y47</f>
@@ -6789,11 +6783,11 @@
       </c>
       <c r="AC48" s="65">
         <f t="shared" ref="AC48" si="114">AC45+AC46+AC47</f>
-        <v>7169.7796571211047</v>
+        <v>2816.7047258664943</v>
       </c>
       <c r="AD48" s="65">
         <f t="shared" ref="AD48" si="115">AD45+AD46+AD47</f>
-        <v>18053.590490743449</v>
+        <v>3578.4956819990775</v>
       </c>
       <c r="AE48" s="65">
         <f t="shared" ref="AE48" si="116">AE45+AE46+AE47</f>
@@ -6846,7 +6840,7 @@
     </row>
     <row r="50" spans="1:42">
       <c r="A50" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="59">
         <f>B52</f>
@@ -7001,7 +6995,7 @@
     </row>
     <row r="51" spans="1:42">
       <c r="A51" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="69">
         <f t="shared" ref="B51:U51" si="131">B48/B50/1000</f>
@@ -7053,7 +7047,7 @@
       </c>
       <c r="N51" s="69">
         <f t="shared" si="131"/>
-        <v>6.4067627214791159E-3</v>
+        <v>-1.5408885113525452E-2</v>
       </c>
       <c r="O51" s="69">
         <f t="shared" si="131"/>
@@ -7069,19 +7063,19 @@
       </c>
       <c r="R51" s="69">
         <f t="shared" si="131"/>
-        <v>2.6733183810418466E-2</v>
+        <v>8.7868400037813717E-3</v>
       </c>
       <c r="S51" s="69">
         <f t="shared" si="131"/>
-        <v>2.4119106711939054E-2</v>
+        <v>6.0471384986555219E-3</v>
       </c>
       <c r="T51" s="69">
         <f t="shared" si="131"/>
-        <v>2.1312850637274981E-2</v>
+        <v>3.1143786464984339E-3</v>
       </c>
       <c r="U51" s="69">
         <f t="shared" si="131"/>
-        <v>1.8311310204813865E-2</v>
+        <v>-1.4551089898106066E-5</v>
       </c>
       <c r="Y51" s="69">
         <f>Y48/Y50/1000</f>
@@ -7101,11 +7095,11 @@
       </c>
       <c r="AC51" s="69">
         <f>SUM(N51:Q51)</f>
-        <v>3.5931701274265454E-2</v>
+        <v>1.4116053439260891E-2</v>
       </c>
       <c r="AD51" s="69">
         <f>SUM(R51:U51)</f>
-        <v>9.0476451364446375E-2</v>
+        <v>1.7933806059037223E-2</v>
       </c>
       <c r="AE51" s="69">
         <f t="shared" ref="AE51:AP51" si="132">AE48/AE50/1000</f>
@@ -7158,7 +7152,7 @@
     </row>
     <row r="52" spans="1:42" s="59" customFormat="1">
       <c r="A52" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="59">
         <v>111.78057099999999</v>
@@ -7304,7 +7298,7 @@
     </row>
     <row r="53" spans="1:42" s="59" customFormat="1">
       <c r="A53" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="69">
         <f t="shared" ref="B53:U53" si="136">B48/B52/1000</f>
@@ -7356,7 +7350,7 @@
       </c>
       <c r="N53" s="69">
         <f t="shared" si="136"/>
-        <v>6.6636581187742901E-3</v>
+        <v>-1.6026743435302183E-2</v>
       </c>
       <c r="O53" s="69">
         <f t="shared" si="136"/>
@@ -7372,19 +7366,19 @@
       </c>
       <c r="R53" s="69">
         <f t="shared" si="136"/>
-        <v>2.725589860226868E-2</v>
+        <v>8.958649365366193E-3</v>
       </c>
       <c r="S53" s="69">
         <f t="shared" si="136"/>
-        <v>2.4468366538590209E-2</v>
+        <v>6.1347048653954015E-3</v>
       </c>
       <c r="T53" s="69">
         <f t="shared" si="136"/>
-        <v>2.1513904588985191E-2</v>
+        <v>3.1437580169382238E-3</v>
       </c>
       <c r="U53" s="69">
         <f t="shared" si="136"/>
-        <v>1.8392088797024614E-2</v>
+        <v>-1.4615280638361891E-5</v>
       </c>
       <c r="Y53" s="69">
         <f t="shared" ref="Y53:AP53" si="137">Y48/Y52/1000</f>
@@ -7404,11 +7398,11 @@
       </c>
       <c r="AC53" s="69">
         <f t="shared" si="137"/>
-        <v>3.6817446344999123E-2</v>
+        <v>1.4464025405759197E-2</v>
       </c>
       <c r="AD53" s="69">
         <f t="shared" si="137"/>
-        <v>9.0875579569238696E-2</v>
+        <v>1.8012919327843498E-2</v>
       </c>
       <c r="AE53" s="69">
         <f t="shared" si="137"/>
@@ -7477,7 +7471,7 @@
     </row>
     <row r="56" spans="1:42" s="70" customFormat="1">
       <c r="A56" s="70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="71"/>
       <c r="C56" s="71"/>
@@ -7506,7 +7500,7 @@
     </row>
     <row r="58" spans="1:42">
       <c r="A58" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -7540,7 +7534,7 @@
     </row>
     <row r="59" spans="1:42">
       <c r="A59" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59" s="53">
         <v>134016</v>
@@ -7593,7 +7587,7 @@
     </row>
     <row r="60" spans="1:42">
       <c r="A60" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E60" s="53">
         <v>67</v>
@@ -7629,7 +7623,7 @@
     </row>
     <row r="61" spans="1:42">
       <c r="A61" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E61" s="53">
         <v>2394</v>
@@ -7682,7 +7676,7 @@
     </row>
     <row r="62" spans="1:42">
       <c r="A62" s="53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I62" s="59"/>
       <c r="L62" s="59">
@@ -7715,7 +7709,7 @@
     </row>
     <row r="63" spans="1:42">
       <c r="A63" s="53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" s="53">
         <v>4161</v>
@@ -7768,7 +7762,7 @@
     </row>
     <row r="64" spans="1:42">
       <c r="A64" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E64" s="59">
         <f>E58+E59+E61+E62+E63</f>
@@ -7829,7 +7823,7 @@
     </row>
     <row r="65" spans="1:42">
       <c r="A65" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" s="53">
         <v>3577</v>
@@ -7858,7 +7852,7 @@
     </row>
     <row r="66" spans="1:42">
       <c r="A66" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" s="53">
         <v>2247</v>
@@ -7910,7 +7904,7 @@
     </row>
     <row r="67" spans="1:42">
       <c r="A67" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E67" s="53">
         <v>4327</v>
@@ -7963,7 +7957,7 @@
     </row>
     <row r="68" spans="1:42" s="55" customFormat="1">
       <c r="A68" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E68" s="65">
         <f>E64+E65+E66+E67+E60</f>
@@ -8000,7 +7994,7 @@
     </row>
     <row r="70" spans="1:42">
       <c r="A70" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E70" s="53">
         <v>43771</v>
@@ -8029,7 +8023,7 @@
     </row>
     <row r="71" spans="1:42">
       <c r="A71" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E71" s="53">
         <v>9375</v>
@@ -8082,7 +8076,7 @@
     </row>
     <row r="72" spans="1:42">
       <c r="A72" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72" s="59">
         <f>E70+E71</f>
@@ -8143,7 +8137,7 @@
     </row>
     <row r="73" spans="1:42">
       <c r="A73" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L73" s="59">
         <v>28488</v>
@@ -8202,7 +8196,7 @@
     </row>
     <row r="74" spans="1:42">
       <c r="A74" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E74" s="53">
         <v>9409</v>
@@ -8255,7 +8249,7 @@
     </row>
     <row r="75" spans="1:42" s="55" customFormat="1">
       <c r="A75" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E75" s="65">
         <f>E72+E73+E74</f>
@@ -8316,7 +8310,7 @@
     </row>
     <row r="77" spans="1:42">
       <c r="A77" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E77" s="53">
         <v>146</v>
@@ -8345,7 +8339,7 @@
     </row>
     <row r="78" spans="1:42">
       <c r="A78" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E78" s="53">
         <v>1021221</v>
@@ -8374,7 +8368,7 @@
     </row>
     <row r="79" spans="1:42">
       <c r="A79" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E79" s="53">
         <v>-1829</v>
@@ -8403,7 +8397,7 @@
     </row>
     <row r="80" spans="1:42">
       <c r="A80" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E80" s="53">
         <v>-885295</v>
@@ -8438,7 +8432,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E81" s="53">
         <f>E77+E78+E79+E80</f>
@@ -8475,7 +8469,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E82" s="59">
         <f>E81+E75</f>
@@ -8512,7 +8506,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E84" s="59">
         <f>E68-E82</f>
@@ -8566,12 +8560,12 @@
     </row>
     <row r="87" spans="1:12" s="70" customFormat="1">
       <c r="A87" s="70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F89" s="59">
         <f>F48</f>
@@ -8604,7 +8598,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F90" s="53">
         <v>65</v>
@@ -8631,7 +8625,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L91" s="53">
         <v>17</v>
@@ -8639,7 +8633,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F92" s="53">
         <v>4212</v>
@@ -8666,7 +8660,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H93" s="53">
         <v>3057</v>
@@ -8674,7 +8668,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F94" s="53">
         <v>401</v>
@@ -8701,7 +8695,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F95" s="53">
         <v>68</v>
@@ -8728,7 +8722,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J96" s="53">
         <v>3</v>
@@ -8744,7 +8738,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F97" s="53">
         <v>-2856</v>
@@ -8771,7 +8765,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F98" s="53">
         <v>4999</v>
@@ -8798,7 +8792,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G100" s="53">
         <v>68</v>
@@ -8809,7 +8803,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F101" s="53">
         <v>-324</v>
@@ -8832,7 +8826,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L102" s="53">
         <v>-9373</v>
@@ -8840,7 +8834,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F103" s="53">
         <v>670</v>
@@ -8863,7 +8857,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F104" s="53">
         <v>-36</v>
@@ -8886,7 +8880,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F105" s="53">
         <v>-1681</v>
@@ -8909,7 +8903,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F106" s="53">
         <v>-4408</v>
@@ -8932,7 +8926,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F107" s="53">
         <v>96</v>
@@ -8955,7 +8949,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F108" s="59">
         <f>F89+SUM(F90:F107)</f>
@@ -8980,7 +8974,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F110" s="53">
         <v>49823</v>
@@ -8999,7 +8993,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F111" s="53">
         <v>2858</v>
@@ -9018,7 +9012,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F112" s="53">
         <v>-15964</v>
@@ -9037,7 +9031,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F113" s="53">
         <v>-73</v>
@@ -9052,7 +9046,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F114" s="53">
         <f>F110+F111+F112+F113</f>
@@ -9073,7 +9067,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J116" s="53">
         <v>20000</v>
@@ -9081,7 +9075,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L117" s="53">
         <v>28852</v>
@@ -9089,7 +9083,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F118" s="53">
         <v>21357</v>
@@ -9104,7 +9098,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K119" s="53">
         <v>257</v>
@@ -9112,7 +9106,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F120" s="53">
         <f>F116+F118+F119</f>
@@ -9133,7 +9127,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F122" s="53">
         <v>2</v>
@@ -9270,37 +9264,37 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -9329,22 +9323,22 @@
     </row>
     <row r="2" spans="1:17" ht="19">
       <c r="A2" s="81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16">
       <c r="A5" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16">
       <c r="A6" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -9352,46 +9346,46 @@
         <v>15</v>
       </c>
       <c r="D8" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="F8" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="G8" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="H8" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="I8" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="J8" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="K8" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="L8" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="84" t="s">
+      <c r="M8" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="84" t="s">
+      <c r="N8" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="84" t="s">
+      <c r="O8" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="84" t="s">
-        <v>34</v>
-      </c>
       <c r="Q8" s="82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9456,7 +9450,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="59">
         <f>Model!M48</f>
@@ -9464,11 +9458,11 @@
       </c>
       <c r="D10" s="59">
         <f>Model!AC48</f>
-        <v>7169.7796571211047</v>
+        <v>2816.7047258664943</v>
       </c>
       <c r="E10" s="59">
         <f>Model!AD48</f>
-        <v>18053.590490743449</v>
+        <v>3578.4956819990775</v>
       </c>
       <c r="F10" s="59">
         <f>Model!AE48</f>
@@ -9574,13 +9568,13 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="91"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="93">
         <v>0.12</v>
@@ -9588,7 +9582,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="95">
         <v>-0.99</v>
@@ -9596,29 +9590,29 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="96">
         <f>NPV(C18,C10:Q10)+Q10/(C18-C19)</f>
-        <v>98205.511456056483</v>
+        <v>84432.180202248812</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="96">
         <f>C20+Main!P17-Main!P18</f>
-        <v>169457.5114560565</v>
+        <v>155684.1802022488</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="98">
         <f>C21/Main!P15/1000</f>
-        <v>0.9652027203307999</v>
+        <v>0.88675204157384302</v>
       </c>
     </row>
   </sheetData>

--- a/SPPI Model.xlsx
+++ b/SPPI Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10565562-0B67-A642-A613-85E72D901255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F149C479-50BC-4A4D-88F9-52EBBC2FE659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{74B7601F-A485-1747-82A0-CB99B95E4172}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     1 Jan 22 Amendment to Licensing Agreement with Hanmi Pharmaceutical for mid-single digit royalty fee of net sales.</t>
       </text>
     </comment>
-    <comment ref="AF26" authorId="1" shapeId="0" xr:uid="{B7C882ED-C1B7-D44A-804C-193076E42D35}">
+    <comment ref="AH26" authorId="1" shapeId="0" xr:uid="{B7C882ED-C1B7-D44A-804C-193076E42D35}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
     Supplemental Royalty for mid-single digit fee of net sales terminating at a total of $10m</t>
       </text>
     </comment>
-    <comment ref="AO27" authorId="2" shapeId="0" xr:uid="{871FE465-6264-0A48-AA2B-74C17331640C}">
+    <comment ref="AQ27" authorId="2" shapeId="0" xr:uid="{871FE465-6264-0A48-AA2B-74C17331640C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -768,7 +768,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -900,6 +900,21 @@
       <i/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1224,7 +1239,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1380,6 +1395,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1712,10 +1730,10 @@
   <threadedComment ref="N26" dT="2022-09-15T03:56:24.07" personId="{6742FA5F-9945-2E44-A229-64009F45C2D3}" id="{B28B7AEB-E9FE-4F40-BCCF-CA29F7DD49A5}">
     <text>1 Jan 22 Amendment to Licensing Agreement with Hanmi Pharmaceutical for mid-single digit royalty fee of net sales.</text>
   </threadedComment>
-  <threadedComment ref="AF26" dT="2022-09-15T03:57:43.11" personId="{6742FA5F-9945-2E44-A229-64009F45C2D3}" id="{B7C882ED-C1B7-D44A-804C-193076E42D35}">
+  <threadedComment ref="AH26" dT="2022-09-15T03:57:43.11" personId="{6742FA5F-9945-2E44-A229-64009F45C2D3}" id="{B7C882ED-C1B7-D44A-804C-193076E42D35}">
     <text>Supplemental Royalty for mid-single digit fee of net sales terminating at a total of $10m</text>
   </threadedComment>
-  <threadedComment ref="AO27" dT="2022-09-15T04:28:02.85" personId="{6742FA5F-9945-2E44-A229-64009F45C2D3}" id="{871FE465-6264-0A48-AA2B-74C17331640C}">
+  <threadedComment ref="AQ27" dT="2022-09-15T04:28:02.85" personId="{6742FA5F-9945-2E44-A229-64009F45C2D3}" id="{871FE465-6264-0A48-AA2B-74C17331640C}">
     <text>Patents for Eflapegastim Expires through 2035. Extension thereafter possible.</text>
   </threadedComment>
   <threadedComment ref="M43" dT="2022-09-29T14:59:16.96" personId="{6742FA5F-9945-2E44-A229-64009F45C2D3}" id="{DDEE84BE-031D-054A-B47D-CADF3F953F3A}">
@@ -1969,23 +1987,23 @@
       </c>
       <c r="AD14" s="4">
         <f>Model!N33</f>
-        <v>14510.24977084863</v>
+        <v>15615</v>
       </c>
       <c r="AE14" s="4">
-        <f>Model!O33</f>
+        <f>Model!Q33</f>
         <v>19482.428692326092</v>
       </c>
       <c r="AF14" s="4">
-        <f>Model!P33</f>
+        <f>Model!R33</f>
         <v>24523.507116465469</v>
       </c>
       <c r="AG14" s="4">
-        <f>Model!Q33</f>
+        <f>Model!S33</f>
         <v>24695.171666280723</v>
       </c>
       <c r="AH14" s="43">
-        <f>Model!AC33</f>
-        <v>83211.357245920924</v>
+        <f>Model!AE33</f>
+        <v>84316.107475072291</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="16" customHeight="1">
@@ -2021,7 +2039,7 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4">
-        <f>Model!AB34</f>
+        <f>Model!AD34</f>
         <v>1792</v>
       </c>
       <c r="AC15" s="43">
@@ -2030,23 +2048,23 @@
       </c>
       <c r="AD15" s="4">
         <f>Model!N34</f>
-        <v>1451.0249770848627</v>
+        <v>1063</v>
       </c>
       <c r="AE15" s="4">
-        <f>Model!O34</f>
+        <f>Model!Q34</f>
         <v>1948.2428692326087</v>
       </c>
       <c r="AF15" s="4">
-        <f>Model!P34</f>
+        <f>Model!R34</f>
         <v>2452.3507116465462</v>
       </c>
       <c r="AG15" s="4">
-        <f>Model!Q34</f>
+        <f>Model!S34</f>
         <v>2469.5171666280717</v>
       </c>
       <c r="AH15" s="43">
-        <f>Model!AC34</f>
-        <v>8321.1357245920899</v>
+        <f>Model!AE34</f>
+        <v>7933.1107475072258</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="16" customHeight="1">
@@ -2069,7 +2087,7 @@
       </c>
       <c r="U16" s="78">
         <f>'rNPV &amp; DCF Valuation'!C22</f>
-        <v>0.88675204157384302</v>
+        <v>0.45292845759712264</v>
       </c>
       <c r="W16" s="74" t="s">
         <v>132</v>
@@ -2079,7 +2097,7 @@
       <c r="Z16" s="76"/>
       <c r="AA16" s="76"/>
       <c r="AB16" s="76">
-        <f>Model!AB35</f>
+        <f>Model!AD35</f>
         <v>8322</v>
       </c>
       <c r="AC16" s="75">
@@ -2088,7 +2106,7 @@
       </c>
       <c r="AD16" s="76">
         <f>AD14-AD15</f>
-        <v>13059.224793763768</v>
+        <v>14552</v>
       </c>
       <c r="AE16" s="76">
         <f>AE14-AE15</f>
@@ -2104,7 +2122,7 @@
       </c>
       <c r="AH16" s="77">
         <f>AH14-AH15</f>
-        <v>74890.221521328829</v>
+        <v>76382.996727565071</v>
       </c>
     </row>
     <row r="17" spans="3:34" ht="16" customHeight="1">
@@ -2130,7 +2148,7 @@
         <v>133</v>
       </c>
       <c r="X17" s="43">
-        <f>Model!AA38</f>
+        <f>Model!AC38</f>
         <v>87297</v>
       </c>
       <c r="Y17" s="4">
@@ -2150,28 +2168,28 @@
         <v>8669</v>
       </c>
       <c r="AC17" s="43">
-        <f>Model!AB38</f>
+        <f>Model!AD38</f>
         <v>42204</v>
       </c>
       <c r="AD17" s="4">
         <f>Model!N38</f>
-        <v>4334.5</v>
+        <v>5424</v>
       </c>
       <c r="AE17" s="4">
-        <f>Model!O38</f>
-        <v>4377.8450000000003</v>
+        <f>Model!Q38</f>
+        <v>5478.24</v>
       </c>
       <c r="AF17" s="4">
-        <f>Model!P38</f>
-        <v>4421.62345</v>
+        <f>Model!R38</f>
+        <v>5533.0223999999998</v>
       </c>
       <c r="AG17" s="4">
-        <f>Model!Q38</f>
-        <v>4465.8396844999997</v>
+        <f>Model!S38</f>
+        <v>5588.3526240000001</v>
       </c>
       <c r="AH17" s="43">
-        <f>Model!AC38</f>
-        <v>17599.808134499999</v>
+        <f>Model!AE38</f>
+        <v>22023.615023999999</v>
       </c>
     </row>
     <row r="18" spans="3:34" ht="16" customHeight="1">
@@ -2200,7 +2218,7 @@
         <v>134</v>
       </c>
       <c r="X18" s="43">
-        <f>Model!AA37</f>
+        <f>Model!AC37</f>
         <v>60406</v>
       </c>
       <c r="Y18" s="4">
@@ -2220,28 +2238,28 @@
         <v>11298</v>
       </c>
       <c r="AC18" s="43">
-        <f>Model!AB37</f>
+        <f>Model!AD37</f>
         <v>38816</v>
       </c>
       <c r="AD18" s="4">
         <f>Model!N37</f>
-        <v>12201.84</v>
+        <v>13998</v>
       </c>
       <c r="AE18" s="4">
-        <f>Model!O37</f>
-        <v>13177.987200000001</v>
+        <f>Model!Q37</f>
+        <v>15117.84</v>
       </c>
       <c r="AF18" s="4">
-        <f>Model!P37</f>
-        <v>14232.226176000002</v>
+        <f>Model!R37</f>
+        <v>16327.267200000002</v>
       </c>
       <c r="AG18" s="4">
-        <f>Model!Q37</f>
-        <v>15370.804270080003</v>
+        <f>Model!S37</f>
+        <v>17633.448576000003</v>
       </c>
       <c r="AH18" s="43">
-        <f>Model!AC37</f>
-        <v>54982.85764608001</v>
+        <f>Model!AE37</f>
+        <v>63076.555776000001</v>
       </c>
     </row>
     <row r="19" spans="3:34">
@@ -2294,23 +2312,23 @@
       </c>
       <c r="AD19" s="76">
         <f t="shared" si="0"/>
-        <v>-3477.1152062362326</v>
+        <v>-4870</v>
       </c>
       <c r="AE19" s="76">
         <f t="shared" si="0"/>
-        <v>-21.646376906521255</v>
+        <v>-3061.8941769065186</v>
       </c>
       <c r="AF19" s="76">
         <f t="shared" si="0"/>
-        <v>3417.3067788189237</v>
+        <v>210.86680481892108</v>
       </c>
       <c r="AG19" s="76">
         <f t="shared" si="0"/>
-        <v>2389.0105450726478</v>
+        <v>-996.14670034735173</v>
       </c>
       <c r="AH19" s="77">
         <f t="shared" si="0"/>
-        <v>2307.5557407488232</v>
+        <v>-8717.1740724349293</v>
       </c>
     </row>
     <row r="20" spans="3:34">
@@ -2337,7 +2355,7 @@
         <v>135</v>
       </c>
       <c r="X20" s="43">
-        <f>Model!AA41+Model!AA44</f>
+        <f>Model!AC41+Model!AC44</f>
         <v>-10729</v>
       </c>
       <c r="Y20" s="4">
@@ -2357,28 +2375,28 @@
         <v>817</v>
       </c>
       <c r="AC20" s="43">
-        <f>Model!AB41+Model!AB44</f>
+        <f>Model!AD41+Model!AD44</f>
         <v>-4461</v>
       </c>
       <c r="AD20" s="4">
         <f>Model!N41+Model!N44</f>
-        <v>413.69</v>
+        <v>807</v>
       </c>
       <c r="AE20" s="4">
-        <f>Model!O41+Model!O44</f>
-        <v>459.49930000000001</v>
+        <f>Model!Q41+Model!Q44</f>
+        <v>595.30999999999995</v>
       </c>
       <c r="AF20" s="4">
-        <f>Model!P41+Model!P44</f>
-        <v>491.90682100000004</v>
+        <f>Model!R41+Model!R44</f>
+        <v>647.53070000000002</v>
       </c>
       <c r="AG20" s="4">
-        <f>Model!Q41+Model!Q44</f>
-        <v>531.26274136999996</v>
+        <f>Model!S41+Model!S44</f>
+        <v>712.07727899999998</v>
       </c>
       <c r="AH20" s="43">
-        <f>Model!AC41+Model!AC44</f>
-        <v>1896.35886237</v>
+        <f>Model!AE41+Model!AE44</f>
+        <v>2761.9179789999998</v>
       </c>
     </row>
     <row r="21" spans="3:34">
@@ -2430,23 +2448,23 @@
       </c>
       <c r="AD21" s="76">
         <f t="shared" si="1"/>
-        <v>-3063.4252062362325</v>
+        <v>-4063</v>
       </c>
       <c r="AE21" s="76">
         <f t="shared" si="1"/>
-        <v>437.85292309347875</v>
+        <v>-2466.5841769065187</v>
       </c>
       <c r="AF21" s="76">
         <f t="shared" si="1"/>
-        <v>3909.2135998189237</v>
+        <v>858.39750481892111</v>
       </c>
       <c r="AG21" s="76">
         <f t="shared" si="1"/>
-        <v>2920.273286442648</v>
+        <v>-284.06942134735175</v>
       </c>
       <c r="AH21" s="77">
         <f t="shared" si="1"/>
-        <v>4203.9146031188229</v>
+        <v>-5955.2560934349294</v>
       </c>
     </row>
     <row r="22" spans="3:34" ht="13" customHeight="1">
@@ -2469,7 +2487,7 @@
       </c>
       <c r="P22" s="27">
         <f>'rNPV &amp; DCF Valuation'!C22</f>
-        <v>0.88675204157384302</v>
+        <v>0.45292845759712264</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>118</v>
@@ -2482,7 +2500,7 @@
         <v>66</v>
       </c>
       <c r="X22" s="43">
-        <f>Model!AA48</f>
+        <f>Model!AC48</f>
         <v>-158628</v>
       </c>
       <c r="Y22" s="4">
@@ -2502,28 +2520,28 @@
         <v>-8987</v>
       </c>
       <c r="AC22" s="43">
-        <f>Model!AB48</f>
+        <f>Model!AD48</f>
         <v>-74501</v>
       </c>
       <c r="AD22" s="4">
         <f>Model!N48</f>
-        <v>-3074.6752062362325</v>
+        <v>-5007</v>
       </c>
       <c r="AE22" s="4">
-        <f>Model!O48</f>
-        <v>427.79042309348057</v>
+        <f>Model!Q48</f>
+        <v>-2481.0841769065205</v>
       </c>
       <c r="AF22" s="4">
-        <f>Model!P48</f>
-        <v>3127.3708798551374</v>
+        <f>Model!R48</f>
+        <v>686.71800385513689</v>
       </c>
       <c r="AG22" s="4">
-        <f>Model!Q48</f>
-        <v>2336.2186291541184</v>
+        <f>Model!S48</f>
+        <v>-227.2555370778814</v>
       </c>
       <c r="AH22" s="43">
-        <f>Model!AC48</f>
-        <v>2816.7047258664943</v>
+        <f>Model!AE48</f>
+        <v>-6084.6217101292505</v>
       </c>
     </row>
     <row r="23" spans="3:34">
@@ -2542,7 +2560,7 @@
       </c>
       <c r="P23" s="28">
         <f>P22/P14-1</f>
-        <v>0.9705600923863178</v>
+        <v>6.5076835491613139E-3</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>103</v>
@@ -2554,7 +2572,7 @@
         <v>136</v>
       </c>
       <c r="X23" s="43">
-        <f>Model!AA50</f>
+        <f>Model!AC50</f>
         <v>154.861704</v>
       </c>
       <c r="Y23" s="4">
@@ -2574,28 +2592,28 @@
         <v>199.539109</v>
       </c>
       <c r="AC23" s="43">
-        <f>Model!AB50</f>
+        <f>Model!AD50</f>
         <v>199.539109</v>
       </c>
       <c r="AD23" s="4">
         <f>Model!N50</f>
-        <v>199.539109</v>
+        <v>201.91806600000001</v>
       </c>
       <c r="AE23" s="4">
-        <f>Model!O50</f>
-        <v>199.539109</v>
+        <f>Model!Q50</f>
+        <v>201.91806600000001</v>
       </c>
       <c r="AF23" s="4">
-        <f>Model!P50</f>
-        <v>199.539109</v>
+        <f>Model!R50</f>
+        <v>201.91806600000001</v>
       </c>
       <c r="AG23" s="4">
-        <f>Model!Q50</f>
-        <v>199.539109</v>
+        <f>Model!S50</f>
+        <v>201.91806600000001</v>
       </c>
       <c r="AH23" s="43">
-        <f>Model!AD50</f>
-        <v>199.539109</v>
+        <f>Model!AF50</f>
+        <v>201.91806600000001</v>
       </c>
     </row>
     <row r="24" spans="3:34">
@@ -2653,23 +2671,23 @@
       </c>
       <c r="AD24" s="38">
         <f t="shared" si="2"/>
-        <v>-1.5408885113525452E-2</v>
+        <v>-2.4797186795558947E-2</v>
       </c>
       <c r="AE24" s="38">
         <f t="shared" si="2"/>
-        <v>2.1438926195339507E-3</v>
+        <v>-1.2287578947524786E-2</v>
       </c>
       <c r="AF24" s="38">
         <f t="shared" si="2"/>
-        <v>1.5672972058099834E-2</v>
+        <v>3.4009735605091268E-3</v>
       </c>
       <c r="AG24" s="38">
         <f t="shared" si="2"/>
-        <v>1.1708073875152557E-2</v>
+        <v>-1.1254839231566399E-3</v>
       </c>
       <c r="AH24" s="44">
         <f t="shared" si="2"/>
-        <v>1.4116053439260843E-2</v>
+        <v>-3.0134112467822719E-2</v>
       </c>
     </row>
     <row r="25" spans="3:34">
@@ -2811,7 +2829,7 @@
       </c>
       <c r="U32" s="14">
         <f>Model!N33/1000</f>
-        <v>14.510249770848629</v>
+        <v>15.615</v>
       </c>
     </row>
     <row r="33" spans="18:21">
@@ -2819,7 +2837,7 @@
         <v>114</v>
       </c>
       <c r="U33" s="14">
-        <f>Model!O33/1000</f>
+        <f>Model!Q33/1000</f>
         <v>19.482428692326092</v>
       </c>
     </row>
@@ -2828,7 +2846,7 @@
         <v>115</v>
       </c>
       <c r="U34" s="14">
-        <f>Model!P33/1000</f>
+        <f>Model!R33/1000</f>
         <v>24.523507116465471</v>
       </c>
     </row>
@@ -2841,7 +2859,7 @@
         <v>10.114000000000001</v>
       </c>
       <c r="U35" s="14">
-        <f>Model!Q33/1000</f>
+        <f>Model!S33/1000</f>
         <v>24.695171666280721</v>
       </c>
     </row>
@@ -2881,7 +2899,7 @@
       </c>
       <c r="U38" s="37">
         <f>Model!N53</f>
-        <v>-1.6026743435302183E-2</v>
+        <v>-2.4797186795558947E-2</v>
       </c>
     </row>
     <row r="39" spans="18:21">
@@ -2897,8 +2915,8 @@
         <v>-0.16545273431233909</v>
       </c>
       <c r="U39" s="37">
-        <f>Model!O53</f>
-        <v>2.2187636124373581E-3</v>
+        <f>Model!Q53</f>
+        <v>-1.2226446713955013E-2</v>
       </c>
     </row>
     <row r="40" spans="18:21">
@@ -2914,8 +2932,8 @@
         <v>-0.12124395375709018</v>
       </c>
       <c r="U40" s="37">
-        <f>Model!P53</f>
-        <v>1.6139619925822572E-2</v>
+        <f>Model!R53</f>
+        <v>3.367217207998938E-3</v>
       </c>
     </row>
     <row r="41" spans="18:21">
@@ -2931,8 +2949,8 @@
         <v>-4.8250076381971617E-2</v>
       </c>
       <c r="U41" s="40">
-        <f>Model!Q53</f>
-        <v>1.1996687226453256E-2</v>
+        <f>Model!S53</f>
+        <v>-1.1087690905209017E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2961,13 +2979,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC0AE67-9409-174E-A824-8F0542D19AD8}">
-  <dimension ref="A1:AP126"/>
+  <dimension ref="A1:AR126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomRight" activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2976,41 +2994,41 @@
     <col min="2" max="9" width="10.83203125" style="53" customWidth="1" outlineLevel="2"/>
     <col min="10" max="11" width="10.83203125" style="53" customWidth="1" outlineLevel="1"/>
     <col min="12" max="13" width="10.83203125" style="53" customWidth="1" outlineLevel="2"/>
-    <col min="14" max="14" width="10.6640625" style="53" customWidth="1" outlineLevel="2"/>
-    <col min="15" max="15" width="10.83203125" style="53" customWidth="1" outlineLevel="2"/>
-    <col min="16" max="17" width="9.6640625" style="53" customWidth="1" outlineLevel="2"/>
-    <col min="18" max="21" width="10.83203125" style="53" customWidth="1" outlineLevel="2"/>
-    <col min="22" max="25" width="10.83203125" style="53" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="53"/>
+    <col min="14" max="16" width="10.6640625" style="53" customWidth="1" outlineLevel="2"/>
+    <col min="17" max="17" width="10.83203125" style="53" customWidth="1" outlineLevel="2"/>
+    <col min="18" max="19" width="9.6640625" style="53" customWidth="1" outlineLevel="2"/>
+    <col min="20" max="23" width="10.83203125" style="53" customWidth="1" outlineLevel="2"/>
+    <col min="24" max="27" width="10.83203125" style="53" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="33" customHeight="1">
+    <row r="1" spans="1:44" ht="33" customHeight="1">
       <c r="A1" s="52"/>
     </row>
-    <row r="2" spans="1:42" s="54" customFormat="1">
+    <row r="2" spans="1:44" s="54" customFormat="1">
       <c r="A2" s="54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:44">
       <c r="A3" s="53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:44">
       <c r="A4" s="55"/>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:44">
       <c r="A5" s="56" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:44">
       <c r="A6" s="56" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:44">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -3053,83 +3071,85 @@
       <c r="N8" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="55" t="s">
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="P8" s="55" t="s">
+      <c r="R8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="S8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="55" t="s">
+      <c r="T8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="55" t="s">
+      <c r="U8" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="T8" s="55" t="s">
+      <c r="V8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="55" t="s">
+      <c r="W8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Y8" s="55" t="s">
+      <c r="AA8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="Z8" s="55" t="s">
+      <c r="AB8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AA8" s="55" t="s">
+      <c r="AC8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="AB8" s="55" t="s">
+      <c r="AD8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AC8" s="55" t="s">
+      <c r="AE8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AD8" s="55" t="s">
+      <c r="AF8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AE8" s="55" t="s">
+      <c r="AG8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="55" t="s">
+      <c r="AH8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="AG8" s="55" t="s">
+      <c r="AI8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AH8" s="55" t="s">
+      <c r="AJ8" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AI8" s="55" t="s">
+      <c r="AK8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AJ8" s="55" t="s">
+      <c r="AL8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AK8" s="55" t="s">
+      <c r="AM8" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AL8" s="55" t="s">
+      <c r="AN8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AM8" s="55" t="s">
+      <c r="AO8" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AN8" s="55" t="s">
+      <c r="AP8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AO8" s="55" t="s">
+      <c r="AQ8" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="AP8" s="55" t="s">
+      <c r="AR8" s="55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:44">
       <c r="A9" s="53" t="s">
         <v>63</v>
       </c>
@@ -3150,7 +3170,7 @@
         <v>44286</v>
       </c>
       <c r="G9" s="57">
-        <f t="shared" ref="G9:Q9" si="0">C9+365</f>
+        <f t="shared" ref="G9:N9" si="0">C9+365</f>
         <v>44377</v>
       </c>
       <c r="H9" s="57">
@@ -3181,107 +3201,109 @@
         <f t="shared" si="0"/>
         <v>45016</v>
       </c>
-      <c r="O9" s="57">
-        <f t="shared" si="0"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57">
+        <f>K9+365</f>
         <v>45107</v>
       </c>
-      <c r="P9" s="57">
-        <f t="shared" si="0"/>
+      <c r="R9" s="57">
+        <f>L9+365</f>
         <v>45199</v>
       </c>
-      <c r="Q9" s="57">
-        <f t="shared" si="0"/>
+      <c r="S9" s="57">
+        <f>M9+365</f>
         <v>45291</v>
       </c>
-      <c r="R9" s="57">
+      <c r="T9" s="57">
         <f>N9+366</f>
         <v>45382</v>
       </c>
-      <c r="S9" s="57">
-        <f t="shared" ref="S9:U9" si="1">O9+366</f>
+      <c r="U9" s="57">
+        <f t="shared" ref="U9:W9" si="1">Q9+366</f>
         <v>45473</v>
       </c>
-      <c r="T9" s="57">
+      <c r="V9" s="57">
         <f t="shared" si="1"/>
         <v>45565</v>
       </c>
-      <c r="U9" s="57">
+      <c r="W9" s="57">
         <f t="shared" si="1"/>
         <v>45657</v>
       </c>
-      <c r="Y9" s="55">
+      <c r="AA9" s="55">
         <v>2019</v>
       </c>
-      <c r="Z9" s="55">
-        <f>Y9+1</f>
+      <c r="AB9" s="55">
+        <f>AA9+1</f>
         <v>2020</v>
       </c>
-      <c r="AA9" s="55">
-        <f t="shared" ref="AA9:AP9" si="2">Z9+1</f>
+      <c r="AC9" s="55">
+        <f t="shared" ref="AC9:AR9" si="2">AB9+1</f>
         <v>2021</v>
       </c>
-      <c r="AB9" s="55">
+      <c r="AD9" s="55">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="AC9" s="55">
+      <c r="AE9" s="55">
         <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="AD9" s="55">
+      <c r="AF9" s="55">
         <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="AE9" s="55">
+      <c r="AG9" s="55">
         <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="AF9" s="55">
+      <c r="AH9" s="55">
         <f t="shared" si="2"/>
         <v>2026</v>
       </c>
-      <c r="AG9" s="55">
+      <c r="AI9" s="55">
         <f t="shared" si="2"/>
         <v>2027</v>
       </c>
-      <c r="AH9" s="55">
+      <c r="AJ9" s="55">
         <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="AI9" s="55">
+      <c r="AK9" s="55">
         <f t="shared" si="2"/>
         <v>2029</v>
       </c>
-      <c r="AJ9" s="55">
+      <c r="AL9" s="55">
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
-      <c r="AK9" s="55">
+      <c r="AM9" s="55">
         <f t="shared" si="2"/>
         <v>2031</v>
       </c>
-      <c r="AL9" s="55">
+      <c r="AN9" s="55">
         <f t="shared" si="2"/>
         <v>2032</v>
       </c>
-      <c r="AM9" s="55">
+      <c r="AO9" s="55">
         <f t="shared" si="2"/>
         <v>2033</v>
       </c>
-      <c r="AN9" s="55">
+      <c r="AP9" s="55">
         <f t="shared" si="2"/>
         <v>2034</v>
       </c>
-      <c r="AO9" s="55">
+      <c r="AQ9" s="55">
         <f t="shared" si="2"/>
         <v>2035</v>
       </c>
-      <c r="AP9" s="55">
+      <c r="AR9" s="55">
         <f t="shared" si="2"/>
         <v>2036</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="70" customFormat="1">
+    <row r="10" spans="1:44" s="70" customFormat="1">
       <c r="A10" s="70" t="s">
         <v>54</v>
       </c>
@@ -3305,8 +3327,10 @@
       <c r="S10" s="73"/>
       <c r="T10" s="73"/>
       <c r="U10" s="73"/>
-    </row>
-    <row r="11" spans="1:42">
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" s="53" t="s">
         <v>188</v>
       </c>
@@ -3330,8 +3354,10 @@
       <c r="S11" s="58"/>
       <c r="T11" s="58"/>
       <c r="U11" s="58"/>
-    </row>
-    <row r="12" spans="1:42">
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+    </row>
+    <row r="12" spans="1:44">
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
@@ -3352,8 +3378,10 @@
       <c r="S12" s="58"/>
       <c r="T12" s="58"/>
       <c r="U12" s="58"/>
-    </row>
-    <row r="13" spans="1:42">
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+    </row>
+    <row r="13" spans="1:44">
       <c r="A13" s="55" t="s">
         <v>191</v>
       </c>
@@ -3377,8 +3405,10 @@
       <c r="S13" s="58"/>
       <c r="T13" s="58"/>
       <c r="U13" s="58"/>
-    </row>
-    <row r="14" spans="1:42">
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+    </row>
+    <row r="14" spans="1:44">
       <c r="A14" s="53" t="s">
         <v>190</v>
       </c>
@@ -3421,110 +3451,112 @@
         <v>302804.89999999997</v>
       </c>
       <c r="N14" s="59">
-        <f t="shared" ref="N14:U14" si="3">M14*(1.007)</f>
+        <f t="shared" ref="N14:W14" si="3">M14*(1.007)</f>
         <v>304924.53429999994</v>
       </c>
-      <c r="O14" s="59">
-        <f t="shared" si="3"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59">
+        <f>N14*(1.007)</f>
         <v>307059.00604009989</v>
       </c>
-      <c r="P14" s="59">
+      <c r="R14" s="59">
         <f t="shared" si="3"/>
         <v>309208.41908238054</v>
       </c>
-      <c r="Q14" s="59">
+      <c r="S14" s="59">
         <f t="shared" si="3"/>
         <v>311372.87801595719</v>
       </c>
-      <c r="R14" s="59">
+      <c r="T14" s="59">
         <f t="shared" si="3"/>
         <v>313552.48816206888</v>
       </c>
-      <c r="S14" s="59">
+      <c r="U14" s="59">
         <f t="shared" si="3"/>
         <v>315747.35557920334</v>
       </c>
-      <c r="T14" s="59">
+      <c r="V14" s="59">
         <f t="shared" si="3"/>
         <v>317957.58706825774</v>
       </c>
-      <c r="U14" s="59">
+      <c r="W14" s="59">
         <f t="shared" si="3"/>
         <v>320183.2901777355</v>
       </c>
-      <c r="Y14" s="53">
+      <c r="AA14" s="53">
         <v>3221000</v>
       </c>
-      <c r="Z14" s="53">
+      <c r="AB14" s="53">
         <f>SUM(B14:E14)</f>
         <v>2293000</v>
       </c>
-      <c r="AA14" s="53">
+      <c r="AC14" s="53">
         <f>SUM(F14:I14)</f>
         <v>1734000</v>
       </c>
-      <c r="AB14" s="53">
+      <c r="AD14" s="53">
         <f>SUM(J14:M14)</f>
         <v>1261504.8999999999</v>
       </c>
-      <c r="AC14" s="59">
-        <f>SUM(N14:Q14)</f>
+      <c r="AE14" s="59">
+        <f>SUM(N14:S14)</f>
         <v>1232564.8374384376</v>
       </c>
-      <c r="AD14" s="59">
-        <f>SUM(R14:U14)</f>
+      <c r="AF14" s="59">
+        <f>SUM(T14:W14)</f>
         <v>1267440.7209872655</v>
       </c>
-      <c r="AE14" s="59">
-        <f>AD14*0.99</f>
+      <c r="AG14" s="59">
+        <f>AF14*0.99</f>
         <v>1254766.3137773927</v>
       </c>
-      <c r="AF14" s="59">
-        <f t="shared" ref="AF14:AP14" si="4">AE14*0.99</f>
+      <c r="AH14" s="59">
+        <f t="shared" ref="AH14:AR14" si="4">AG14*0.99</f>
         <v>1242218.6506396187</v>
       </c>
-      <c r="AG14" s="59">
+      <c r="AI14" s="59">
         <f t="shared" si="4"/>
         <v>1229796.4641332226</v>
       </c>
-      <c r="AH14" s="59">
+      <c r="AJ14" s="59">
         <f t="shared" si="4"/>
         <v>1217498.4994918904</v>
       </c>
-      <c r="AI14" s="59">
+      <c r="AK14" s="59">
         <f t="shared" si="4"/>
         <v>1205323.5144969716</v>
       </c>
-      <c r="AJ14" s="59">
+      <c r="AL14" s="59">
         <f t="shared" si="4"/>
         <v>1193270.2793520018</v>
       </c>
-      <c r="AK14" s="59">
+      <c r="AM14" s="59">
         <f t="shared" si="4"/>
         <v>1181337.5765584819</v>
       </c>
-      <c r="AL14" s="59">
+      <c r="AN14" s="59">
         <f t="shared" si="4"/>
         <v>1169524.200792897</v>
       </c>
-      <c r="AM14" s="59">
+      <c r="AO14" s="59">
         <f t="shared" si="4"/>
         <v>1157828.9587849681</v>
       </c>
-      <c r="AN14" s="59">
+      <c r="AP14" s="59">
         <f t="shared" si="4"/>
         <v>1146250.6691971184</v>
       </c>
-      <c r="AO14" s="59">
+      <c r="AQ14" s="59">
         <f t="shared" si="4"/>
         <v>1134788.1625051473</v>
       </c>
-      <c r="AP14" s="59">
+      <c r="AR14" s="59">
         <f t="shared" si="4"/>
         <v>1123440.2808800959</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:44">
       <c r="A15" s="53" t="s">
         <v>192</v>
       </c>
@@ -3541,99 +3573,101 @@
         <v>220221.74545454542</v>
       </c>
       <c r="N15" s="59">
-        <f t="shared" ref="N15:R15" si="5">N14*0.4/0.55</f>
+        <f t="shared" ref="N15:T15" si="5">N14*0.4/0.55</f>
         <v>221763.2976727272</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59">
         <f t="shared" si="5"/>
         <v>223315.64075643627</v>
       </c>
-      <c r="P15" s="59">
+      <c r="R15" s="59">
         <f t="shared" si="5"/>
         <v>224878.8502417313</v>
       </c>
-      <c r="Q15" s="59">
+      <c r="S15" s="59">
         <f t="shared" si="5"/>
         <v>226453.0021934234</v>
       </c>
-      <c r="R15" s="59">
+      <c r="T15" s="59">
         <f t="shared" si="5"/>
         <v>228038.17320877739</v>
       </c>
-      <c r="S15" s="59">
-        <f t="shared" ref="S15:U15" si="6">S14*0.4/0.55</f>
+      <c r="U15" s="59">
+        <f t="shared" ref="U15:W15" si="6">U14*0.4/0.55</f>
         <v>229634.44042123877</v>
       </c>
-      <c r="T15" s="59">
+      <c r="V15" s="59">
         <f t="shared" si="6"/>
         <v>231241.88150418742</v>
       </c>
-      <c r="U15" s="59">
+      <c r="W15" s="59">
         <f t="shared" si="6"/>
         <v>232860.57467471671</v>
       </c>
-      <c r="AB15" s="53">
-        <f t="shared" ref="AB15" si="7">SUM(J15:M15)</f>
+      <c r="AD15" s="53">
+        <f t="shared" ref="AD15" si="7">SUM(J15:M15)</f>
         <v>664367.19999999995</v>
       </c>
-      <c r="AC15" s="59">
-        <f t="shared" ref="AC15" si="8">SUM(N15:Q15)</f>
+      <c r="AE15" s="59">
+        <f t="shared" ref="AE15" si="8">SUM(N15:S15)</f>
         <v>896410.79086431814</v>
       </c>
-      <c r="AD15" s="59">
-        <f t="shared" ref="AD15" si="9">SUM(R15:U15)</f>
+      <c r="AF15" s="59">
+        <f t="shared" ref="AF15" si="9">SUM(T15:W15)</f>
         <v>921775.06980892026</v>
       </c>
-      <c r="AE15" s="59">
-        <f>AD15*0.99</f>
+      <c r="AG15" s="59">
+        <f>AF15*0.99</f>
         <v>912557.31911083101</v>
       </c>
-      <c r="AF15" s="59">
-        <f t="shared" ref="AF15:AP15" si="10">AE15*0.99</f>
+      <c r="AH15" s="59">
+        <f t="shared" ref="AH15:AR15" si="10">AG15*0.99</f>
         <v>903431.74591972271</v>
       </c>
-      <c r="AG15" s="59">
+      <c r="AI15" s="59">
         <f t="shared" si="10"/>
         <v>894397.42846052547</v>
       </c>
-      <c r="AH15" s="59">
+      <c r="AJ15" s="59">
         <f t="shared" si="10"/>
         <v>885453.45417592023</v>
       </c>
-      <c r="AI15" s="59">
+      <c r="AK15" s="59">
         <f t="shared" si="10"/>
         <v>876598.91963416105</v>
       </c>
-      <c r="AJ15" s="59">
+      <c r="AL15" s="59">
         <f t="shared" si="10"/>
         <v>867832.93043781945</v>
       </c>
-      <c r="AK15" s="59">
+      <c r="AM15" s="59">
         <f t="shared" si="10"/>
         <v>859154.6011334412</v>
       </c>
-      <c r="AL15" s="59">
+      <c r="AN15" s="59">
         <f t="shared" si="10"/>
         <v>850563.0551221068</v>
       </c>
-      <c r="AM15" s="59">
+      <c r="AO15" s="59">
         <f t="shared" si="10"/>
         <v>842057.42457088572</v>
       </c>
-      <c r="AN15" s="59">
+      <c r="AP15" s="59">
         <f t="shared" si="10"/>
         <v>833636.85032517684</v>
       </c>
-      <c r="AO15" s="59">
+      <c r="AQ15" s="59">
         <f t="shared" si="10"/>
         <v>825300.48182192503</v>
       </c>
-      <c r="AP15" s="59">
+      <c r="AR15" s="59">
         <f t="shared" si="10"/>
         <v>817047.4770037058</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:44">
       <c r="A16" s="53" t="s">
         <v>193</v>
       </c>
@@ -3689,108 +3723,110 @@
         <f>N14+N15</f>
         <v>526687.83197272709</v>
       </c>
-      <c r="O16" s="59">
-        <f t="shared" ref="O16:U16" si="12">O14+O15</f>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59">
+        <f t="shared" ref="Q16:W16" si="12">Q14+Q15</f>
         <v>530374.64679653617</v>
       </c>
-      <c r="P16" s="59">
+      <c r="R16" s="59">
         <f t="shared" si="12"/>
         <v>534087.26932411187</v>
       </c>
-      <c r="Q16" s="59">
+      <c r="S16" s="59">
         <f t="shared" si="12"/>
         <v>537825.88020938053</v>
       </c>
-      <c r="R16" s="59">
+      <c r="T16" s="59">
         <f t="shared" si="12"/>
         <v>541590.66137084621</v>
       </c>
-      <c r="S16" s="59">
+      <c r="U16" s="59">
         <f t="shared" si="12"/>
         <v>545381.79600044212</v>
       </c>
-      <c r="T16" s="59">
+      <c r="V16" s="59">
         <f t="shared" si="12"/>
         <v>549199.46857244521</v>
       </c>
-      <c r="U16" s="59">
+      <c r="W16" s="59">
         <f t="shared" si="12"/>
         <v>553043.86485245219</v>
       </c>
-      <c r="Y16" s="59">
-        <f>Y15+Y14</f>
+      <c r="AA16" s="59">
+        <f>AA15+AA14</f>
         <v>3221000</v>
       </c>
-      <c r="Z16" s="59">
-        <f t="shared" ref="Z16:AD16" si="13">Z15+Z14</f>
+      <c r="AB16" s="59">
+        <f t="shared" ref="AB16:AF16" si="13">AB15+AB14</f>
         <v>2293000</v>
       </c>
-      <c r="AA16" s="59">
+      <c r="AC16" s="59">
         <f t="shared" si="13"/>
         <v>1734000</v>
       </c>
-      <c r="AB16" s="59">
+      <c r="AD16" s="59">
         <f t="shared" si="13"/>
         <v>1925872.0999999999</v>
       </c>
-      <c r="AC16" s="59">
+      <c r="AE16" s="59">
         <f t="shared" si="13"/>
         <v>2128975.6283027558</v>
       </c>
-      <c r="AD16" s="59">
+      <c r="AF16" s="59">
         <f t="shared" si="13"/>
         <v>2189215.7907961858</v>
       </c>
-      <c r="AE16" s="59">
-        <f t="shared" ref="AE16" si="14">AE15+AE14</f>
+      <c r="AG16" s="59">
+        <f t="shared" ref="AG16" si="14">AG15+AG14</f>
         <v>2167323.632888224</v>
       </c>
-      <c r="AF16" s="59">
-        <f t="shared" ref="AF16" si="15">AF15+AF14</f>
+      <c r="AH16" s="59">
+        <f t="shared" ref="AH16" si="15">AH15+AH14</f>
         <v>2145650.3965593413</v>
       </c>
-      <c r="AG16" s="59">
-        <f t="shared" ref="AG16" si="16">AG15+AG14</f>
+      <c r="AI16" s="59">
+        <f t="shared" ref="AI16" si="16">AI15+AI14</f>
         <v>2124193.8925937479</v>
       </c>
-      <c r="AH16" s="59">
-        <f t="shared" ref="AH16" si="17">AH15+AH14</f>
+      <c r="AJ16" s="59">
+        <f t="shared" ref="AJ16" si="17">AJ15+AJ14</f>
         <v>2102951.9536678107</v>
       </c>
-      <c r="AI16" s="59">
-        <f t="shared" ref="AI16" si="18">AI15+AI14</f>
+      <c r="AK16" s="59">
+        <f t="shared" ref="AK16" si="18">AK15+AK14</f>
         <v>2081922.4341311327</v>
       </c>
-      <c r="AJ16" s="59">
-        <f t="shared" ref="AJ16" si="19">AJ15+AJ14</f>
+      <c r="AL16" s="59">
+        <f t="shared" ref="AL16" si="19">AL15+AL14</f>
         <v>2061103.2097898214</v>
       </c>
-      <c r="AK16" s="59">
-        <f t="shared" ref="AK16" si="20">AK15+AK14</f>
+      <c r="AM16" s="59">
+        <f t="shared" ref="AM16" si="20">AM15+AM14</f>
         <v>2040492.177691923</v>
       </c>
-      <c r="AL16" s="59">
-        <f t="shared" ref="AL16" si="21">AL15+AL14</f>
+      <c r="AN16" s="59">
+        <f t="shared" ref="AN16" si="21">AN15+AN14</f>
         <v>2020087.2559150038</v>
       </c>
-      <c r="AM16" s="59">
-        <f t="shared" ref="AM16" si="22">AM15+AM14</f>
+      <c r="AO16" s="59">
+        <f t="shared" ref="AO16" si="22">AO15+AO14</f>
         <v>1999886.3833558538</v>
       </c>
-      <c r="AN16" s="59">
-        <f t="shared" ref="AN16" si="23">AN15+AN14</f>
+      <c r="AP16" s="59">
+        <f t="shared" ref="AP16" si="23">AP15+AP14</f>
         <v>1979887.5195222953</v>
       </c>
-      <c r="AO16" s="59">
-        <f t="shared" ref="AO16" si="24">AO15+AO14</f>
+      <c r="AQ16" s="59">
+        <f t="shared" ref="AQ16" si="24">AQ15+AQ14</f>
         <v>1960088.6443270724</v>
       </c>
-      <c r="AP16" s="59">
-        <f t="shared" ref="AP16" si="25">AP15+AP14</f>
+      <c r="AR16" s="59">
+        <f t="shared" ref="AR16" si="25">AR15+AR14</f>
         <v>1940487.7578838016</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:44">
       <c r="A17" s="53" t="s">
         <v>194</v>
       </c>
@@ -3799,7 +3835,7 @@
         <v>-0.20853858784893264</v>
       </c>
       <c r="G17" s="100">
-        <f t="shared" ref="G17:U17" si="26">G16/C16-1</f>
+        <f t="shared" ref="G17:W17" si="26">G16/C16-1</f>
         <v>-0.18043844856661051</v>
       </c>
       <c r="H17" s="100">
@@ -3830,104 +3866,106 @@
         <f t="shared" si="26"/>
         <v>0.51347078153082504</v>
       </c>
-      <c r="O17" s="100">
-        <f t="shared" si="26"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100">
+        <f>Q16/K16-1</f>
         <v>-9.487077290000312E-3</v>
       </c>
-      <c r="P17" s="100">
-        <f t="shared" si="26"/>
+      <c r="R17" s="100">
+        <f>R16/L16-1</f>
         <v>2.8295374400999496E-2</v>
       </c>
-      <c r="Q17" s="100">
-        <f t="shared" si="26"/>
+      <c r="S17" s="100">
+        <f>S16/M16-1</f>
         <v>2.8295374400999496E-2</v>
       </c>
-      <c r="R17" s="100">
-        <f t="shared" si="26"/>
-        <v>2.8295374400999718E-2</v>
-      </c>
-      <c r="S17" s="100">
-        <f t="shared" si="26"/>
-        <v>2.8295374400999718E-2</v>
-      </c>
       <c r="T17" s="100">
-        <f t="shared" si="26"/>
+        <f>T16/N16-1</f>
         <v>2.8295374400999718E-2</v>
       </c>
       <c r="U17" s="100">
         <f t="shared" si="26"/>
         <v>2.8295374400999718E-2</v>
       </c>
-      <c r="Z17" s="100">
-        <f>Z16/Y16-1</f>
+      <c r="V17" s="100">
+        <f t="shared" si="26"/>
+        <v>2.8295374400999718E-2</v>
+      </c>
+      <c r="W17" s="100">
+        <f t="shared" si="26"/>
+        <v>2.8295374400999718E-2</v>
+      </c>
+      <c r="AB17" s="100">
+        <f>AB16/AA16-1</f>
         <v>-0.28810928283141879</v>
       </c>
-      <c r="AA17" s="100">
-        <f t="shared" ref="AA17:AD17" si="27">AA16/Z16-1</f>
+      <c r="AC17" s="100">
+        <f t="shared" ref="AC17:AF17" si="27">AC16/AB16-1</f>
         <v>-0.24378543392935015</v>
       </c>
-      <c r="AB17" s="100">
+      <c r="AD17" s="100">
         <f t="shared" si="27"/>
         <v>0.11065288350634361</v>
       </c>
-      <c r="AC17" s="100">
+      <c r="AE17" s="100">
         <f t="shared" si="27"/>
         <v>0.10546054865364929</v>
       </c>
-      <c r="AD17" s="100">
+      <c r="AF17" s="100">
         <f t="shared" si="27"/>
         <v>2.8295374400999718E-2</v>
       </c>
-      <c r="AE17" s="100">
-        <f t="shared" ref="AE17" si="28">AE16/AD16-1</f>
+      <c r="AG17" s="100">
+        <f t="shared" ref="AG17" si="28">AG16/AF16-1</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="AF17" s="100">
-        <f t="shared" ref="AF17" si="29">AF16/AE16-1</f>
+      <c r="AH17" s="100">
+        <f t="shared" ref="AH17" si="29">AH16/AG16-1</f>
         <v>-1.0000000000000231E-2</v>
       </c>
-      <c r="AG17" s="100">
-        <f t="shared" ref="AG17" si="30">AG16/AF16-1</f>
+      <c r="AI17" s="100">
+        <f t="shared" ref="AI17" si="30">AI16/AH16-1</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="AH17" s="100">
-        <f t="shared" ref="AH17" si="31">AH16/AG16-1</f>
+      <c r="AJ17" s="100">
+        <f t="shared" ref="AJ17" si="31">AJ16/AI16-1</f>
         <v>-9.9999999999998979E-3</v>
       </c>
-      <c r="AI17" s="100">
-        <f t="shared" ref="AI17" si="32">AI16/AH16-1</f>
+      <c r="AK17" s="100">
+        <f t="shared" ref="AK17" si="32">AK16/AJ16-1</f>
         <v>-9.9999999999998979E-3</v>
       </c>
-      <c r="AJ17" s="100">
-        <f t="shared" ref="AJ17" si="33">AJ16/AI16-1</f>
+      <c r="AL17" s="100">
+        <f t="shared" ref="AL17" si="33">AL16/AK16-1</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="AK17" s="100">
-        <f t="shared" ref="AK17" si="34">AK16/AJ16-1</f>
+      <c r="AM17" s="100">
+        <f t="shared" ref="AM17" si="34">AM16/AL16-1</f>
         <v>-1.000000000000012E-2</v>
       </c>
-      <c r="AL17" s="100">
-        <f t="shared" ref="AL17" si="35">AL16/AK16-1</f>
+      <c r="AN17" s="100">
+        <f t="shared" ref="AN17" si="35">AN16/AM16-1</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="AM17" s="100">
-        <f t="shared" ref="AM17" si="36">AM16/AL16-1</f>
+      <c r="AO17" s="100">
+        <f t="shared" ref="AO17" si="36">AO16/AN16-1</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="AN17" s="100">
-        <f t="shared" ref="AN17" si="37">AN16/AM16-1</f>
+      <c r="AP17" s="100">
+        <f t="shared" ref="AP17" si="37">AP16/AO16-1</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="AO17" s="100">
-        <f t="shared" ref="AO17" si="38">AO16/AN16-1</f>
+      <c r="AQ17" s="100">
+        <f t="shared" ref="AQ17" si="38">AQ16/AP16-1</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="AP17" s="100">
-        <f t="shared" ref="AP17" si="39">AP16/AO16-1</f>
+      <c r="AR17" s="100">
+        <f t="shared" ref="AR17" si="39">AR16/AQ16-1</f>
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:44">
       <c r="N18" s="59"/>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
@@ -3936,10 +3974,12 @@
       <c r="S18" s="59"/>
       <c r="T18" s="59"/>
       <c r="U18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-    </row>
-    <row r="19" spans="1:42">
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+    </row>
+    <row r="19" spans="1:44">
       <c r="A19" s="53" t="s">
         <v>195</v>
       </c>
@@ -3982,12 +4022,6 @@
       <c r="N19" s="53">
         <v>6000</v>
       </c>
-      <c r="O19" s="53">
-        <v>6000</v>
-      </c>
-      <c r="P19" s="53">
-        <v>6000</v>
-      </c>
       <c r="Q19" s="53">
         <v>6000</v>
       </c>
@@ -4003,84 +4037,90 @@
       <c r="U19" s="53">
         <v>6000</v>
       </c>
-      <c r="Y19" s="53">
+      <c r="V19" s="53">
+        <v>6000</v>
+      </c>
+      <c r="W19" s="53">
+        <v>6000</v>
+      </c>
+      <c r="AA19" s="53">
         <v>6500</v>
       </c>
-      <c r="Z19" s="53">
-        <f>Y19</f>
+      <c r="AB19" s="53">
+        <f>AA19</f>
         <v>6500</v>
       </c>
-      <c r="AA19" s="53">
-        <f t="shared" ref="AA19:AD19" si="40">Z19</f>
-        <v>6500</v>
-      </c>
-      <c r="AB19" s="53">
-        <f t="shared" si="40"/>
-        <v>6500</v>
-      </c>
       <c r="AC19" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="AC19:AF19" si="40">AB19</f>
         <v>6500</v>
       </c>
       <c r="AD19" s="53">
         <f t="shared" si="40"/>
         <v>6500</v>
       </c>
-      <c r="AE19" s="59">
-        <f>AD19*0.99</f>
+      <c r="AE19" s="53">
+        <f t="shared" si="40"/>
+        <v>6500</v>
+      </c>
+      <c r="AF19" s="53">
+        <f t="shared" si="40"/>
+        <v>6500</v>
+      </c>
+      <c r="AG19" s="59">
+        <f>AF19*0.99</f>
         <v>6435</v>
       </c>
-      <c r="AF19" s="59">
-        <f t="shared" ref="AF19:AP19" si="41">AE19*0.99</f>
+      <c r="AH19" s="59">
+        <f t="shared" ref="AH19:AR19" si="41">AG19*0.99</f>
         <v>6370.65</v>
       </c>
-      <c r="AG19" s="59">
+      <c r="AI19" s="59">
         <f t="shared" si="41"/>
         <v>6306.9434999999994</v>
       </c>
-      <c r="AH19" s="59">
+      <c r="AJ19" s="59">
         <f t="shared" si="41"/>
         <v>6243.8740649999991</v>
       </c>
-      <c r="AI19" s="59">
+      <c r="AK19" s="59">
         <f t="shared" si="41"/>
         <v>6181.4353243499991</v>
       </c>
-      <c r="AJ19" s="59">
+      <c r="AL19" s="59">
         <f t="shared" si="41"/>
         <v>6119.6209711064994</v>
       </c>
-      <c r="AK19" s="59">
+      <c r="AM19" s="59">
         <f t="shared" si="41"/>
         <v>6058.424761395434</v>
       </c>
-      <c r="AL19" s="59">
+      <c r="AN19" s="59">
         <f t="shared" si="41"/>
         <v>5997.8405137814798</v>
       </c>
-      <c r="AM19" s="59">
+      <c r="AO19" s="59">
         <f t="shared" si="41"/>
         <v>5937.8621086436651</v>
       </c>
-      <c r="AN19" s="59">
+      <c r="AP19" s="59">
         <f t="shared" si="41"/>
         <v>5878.4834875572287</v>
       </c>
-      <c r="AO19" s="59">
+      <c r="AQ19" s="59">
         <f t="shared" si="41"/>
         <v>5819.6986526816563</v>
       </c>
-      <c r="AP19" s="59">
+      <c r="AR19" s="59">
         <f t="shared" si="41"/>
         <v>5761.5016661548398</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:44">
       <c r="A20" s="53" t="s">
         <v>186</v>
       </c>
       <c r="B20" s="99">
-        <f t="shared" ref="B20:U20" si="42">B14/B19</f>
+        <f t="shared" ref="B20:W20" si="42">B14/B19</f>
         <v>93.692307692307693</v>
       </c>
       <c r="C20" s="99">
@@ -4131,77 +4171,71 @@
         <f t="shared" si="42"/>
         <v>50.82075571666666</v>
       </c>
-      <c r="O20" s="99">
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99">
         <f t="shared" si="42"/>
         <v>51.176501006683317</v>
       </c>
-      <c r="P20" s="99">
+      <c r="R20" s="99">
         <f t="shared" si="42"/>
         <v>51.534736513730088</v>
       </c>
-      <c r="Q20" s="99">
+      <c r="S20" s="99">
         <f t="shared" si="42"/>
         <v>51.8954796693262</v>
       </c>
-      <c r="R20" s="99">
+      <c r="T20" s="99">
         <f t="shared" si="42"/>
         <v>52.258748027011478</v>
       </c>
-      <c r="S20" s="99">
+      <c r="U20" s="99">
         <f t="shared" si="42"/>
         <v>52.62455926320056</v>
       </c>
-      <c r="T20" s="99">
+      <c r="V20" s="99">
         <f t="shared" si="42"/>
         <v>52.992931178042959</v>
       </c>
-      <c r="U20" s="99">
+      <c r="W20" s="99">
         <f t="shared" si="42"/>
         <v>53.363881696289248</v>
       </c>
-      <c r="Y20" s="59">
-        <f t="shared" ref="Y20:AF20" si="43">Y14/Y19</f>
+      <c r="AA20" s="59">
+        <f t="shared" ref="AA20:AH20" si="43">AA14/AA19</f>
         <v>495.53846153846155</v>
       </c>
-      <c r="Z20" s="59">
+      <c r="AB20" s="59">
         <f t="shared" si="43"/>
         <v>352.76923076923077</v>
       </c>
-      <c r="AA20" s="59">
+      <c r="AC20" s="59">
         <f t="shared" si="43"/>
         <v>266.76923076923077</v>
       </c>
-      <c r="AB20" s="59">
+      <c r="AD20" s="59">
         <f t="shared" si="43"/>
         <v>194.07767692307692</v>
       </c>
-      <c r="AC20" s="59">
+      <c r="AE20" s="59">
         <f t="shared" si="43"/>
         <v>189.62535960591347</v>
-      </c>
-      <c r="AD20" s="59">
-        <f t="shared" si="43"/>
-        <v>194.99088015188698</v>
-      </c>
-      <c r="AE20" s="59">
-        <f t="shared" si="43"/>
-        <v>194.99088015188698</v>
       </c>
       <c r="AF20" s="59">
         <f t="shared" si="43"/>
         <v>194.99088015188698</v>
       </c>
       <c r="AG20" s="59">
-        <f t="shared" ref="AG20:AP20" si="44">AG14/AG19</f>
+        <f t="shared" si="43"/>
         <v>194.99088015188698</v>
       </c>
       <c r="AH20" s="59">
-        <f t="shared" si="44"/>
-        <v>194.99088015188701</v>
+        <f t="shared" si="43"/>
+        <v>194.99088015188698</v>
       </c>
       <c r="AI20" s="59">
-        <f t="shared" si="44"/>
-        <v>194.99088015188704</v>
+        <f t="shared" ref="AI20:AR20" si="44">AI14/AI19</f>
+        <v>194.99088015188698</v>
       </c>
       <c r="AJ20" s="59">
         <f t="shared" si="44"/>
@@ -4229,10 +4263,18 @@
       </c>
       <c r="AP20" s="59">
         <f t="shared" si="44"/>
+        <v>194.99088015188701</v>
+      </c>
+      <c r="AQ20" s="59">
+        <f t="shared" si="44"/>
         <v>194.99088015188704</v>
       </c>
-    </row>
-    <row r="21" spans="1:42">
+      <c r="AR20" s="59">
+        <f t="shared" si="44"/>
+        <v>194.99088015188704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -4285,85 +4327,79 @@
         <v>87.17110757575756</v>
       </c>
       <c r="N21" s="99">
-        <f t="shared" ref="N21:U21" si="46">N16/N19</f>
+        <f t="shared" ref="N21:W21" si="46">N16/N19</f>
         <v>87.781305328787852</v>
       </c>
-      <c r="O21" s="99">
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99">
         <f t="shared" si="46"/>
         <v>88.395774466089364</v>
       </c>
-      <c r="P21" s="99">
+      <c r="R21" s="99">
         <f t="shared" si="46"/>
         <v>89.014544887351974</v>
       </c>
-      <c r="Q21" s="99">
+      <c r="S21" s="99">
         <f t="shared" si="46"/>
         <v>89.637646701563426</v>
       </c>
-      <c r="R21" s="99">
+      <c r="T21" s="99">
         <f t="shared" si="46"/>
         <v>90.26511022847437</v>
       </c>
-      <c r="S21" s="99">
+      <c r="U21" s="99">
         <f t="shared" si="46"/>
         <v>90.896966000073689</v>
       </c>
-      <c r="T21" s="99">
+      <c r="V21" s="99">
         <f t="shared" si="46"/>
         <v>91.533244762074204</v>
       </c>
-      <c r="U21" s="99">
+      <c r="W21" s="99">
         <f t="shared" si="46"/>
         <v>92.173977475408691</v>
       </c>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="59">
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="59">
         <f>SUM(B21:E21)</f>
         <v>352.76923076923072</v>
       </c>
-      <c r="AA21" s="59">
+      <c r="AC21" s="59">
         <f>SUM(F21:I21)</f>
         <v>266.76923076923077</v>
       </c>
-      <c r="AB21" s="59">
+      <c r="AD21" s="59">
         <f>SUM(J21:M21)</f>
         <v>316.51714487179481</v>
       </c>
-      <c r="AC21" s="59">
-        <f>SUM(N21:Q21)</f>
+      <c r="AE21" s="59">
+        <f>SUM(N21:S21)</f>
         <v>354.82927138379262</v>
       </c>
-      <c r="AD21" s="59">
-        <f>SUM(R21:U21)</f>
+      <c r="AF21" s="59">
+        <f>SUM(T21:W21)</f>
         <v>364.86929846603095</v>
       </c>
-      <c r="AE21" s="59">
-        <f t="shared" ref="AE21:AP21" si="47">AE16/AE19</f>
+      <c r="AG21" s="59">
+        <f t="shared" ref="AG21:AR21" si="47">AG16/AG19</f>
         <v>336.80242935325936</v>
       </c>
-      <c r="AF21" s="59">
+      <c r="AH21" s="59">
         <f t="shared" si="47"/>
         <v>336.8024293532593</v>
       </c>
-      <c r="AG21" s="59">
+      <c r="AI21" s="59">
         <f t="shared" si="47"/>
         <v>336.80242935325936</v>
       </c>
-      <c r="AH21" s="59">
+      <c r="AJ21" s="59">
         <f t="shared" si="47"/>
         <v>336.80242935325936</v>
       </c>
-      <c r="AI21" s="59">
+      <c r="AK21" s="59">
         <f t="shared" si="47"/>
         <v>336.80242935325941</v>
-      </c>
-      <c r="AJ21" s="59">
-        <f t="shared" si="47"/>
-        <v>336.80242935325941</v>
-      </c>
-      <c r="AK21" s="59">
-        <f t="shared" si="47"/>
-        <v>336.80242935325936</v>
       </c>
       <c r="AL21" s="59">
         <f t="shared" si="47"/>
@@ -4371,11 +4407,11 @@
       </c>
       <c r="AM21" s="59">
         <f t="shared" si="47"/>
-        <v>336.80242935325941</v>
+        <v>336.80242935325936</v>
       </c>
       <c r="AN21" s="59">
         <f t="shared" si="47"/>
-        <v>336.80242935325936</v>
+        <v>336.80242935325941</v>
       </c>
       <c r="AO21" s="59">
         <f t="shared" si="47"/>
@@ -4385,8 +4421,16 @@
         <f t="shared" si="47"/>
         <v>336.80242935325936</v>
       </c>
-    </row>
-    <row r="22" spans="1:42">
+      <c r="AQ21" s="59">
+        <f t="shared" si="47"/>
+        <v>336.80242935325941</v>
+      </c>
+      <c r="AR21" s="59">
+        <f t="shared" si="47"/>
+        <v>336.80242935325936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
       <c r="B22" s="69"/>
       <c r="C22" s="69"/>
       <c r="D22" s="69"/>
@@ -4407,19 +4451,21 @@
       <c r="S22" s="69"/>
       <c r="T22" s="69"/>
       <c r="U22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
       <c r="AA22" s="69"/>
       <c r="AB22" s="69"/>
       <c r="AC22" s="69"/>
       <c r="AD22" s="69"/>
-    </row>
-    <row r="23" spans="1:42">
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+    </row>
+    <row r="23" spans="1:44">
       <c r="A23" s="55" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:42" s="60" customFormat="1">
+    <row r="24" spans="1:44" s="60" customFormat="1">
       <c r="A24" s="60" t="s">
         <v>189</v>
       </c>
@@ -4427,17 +4473,14 @@
         <f>(M27/(1-M26))/M16</f>
         <v>2.0355207295837327E-2</v>
       </c>
-      <c r="N24" s="62">
-        <v>0.03</v>
-      </c>
-      <c r="O24" s="62">
+      <c r="N24" s="102">
+        <f>(N27/(1-N26))/N16</f>
+        <v>3.120793970822985E-2</v>
+      </c>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62">
         <v>0.04</v>
-      </c>
-      <c r="P24" s="62">
-        <v>0.05</v>
-      </c>
-      <c r="Q24" s="62">
-        <v>0.05</v>
       </c>
       <c r="R24" s="62">
         <v>0.05</v>
@@ -4451,27 +4494,27 @@
       <c r="U24" s="62">
         <v>0.05</v>
       </c>
-      <c r="Y24" s="61"/>
-      <c r="AB24" s="63">
-        <f>AB27/AB16</f>
+      <c r="V24" s="62">
+        <v>0.05</v>
+      </c>
+      <c r="W24" s="62">
+        <v>0.05</v>
+      </c>
+      <c r="AA24" s="61"/>
+      <c r="AD24" s="63">
+        <f>AD27/AD16</f>
         <v>5.2516467734279966E-3</v>
       </c>
-      <c r="AC24" s="63">
-        <f t="shared" ref="AC24:AD24" si="48">AC27/AC16</f>
-        <v>3.9085161962261632E-2</v>
-      </c>
-      <c r="AD24" s="63">
+      <c r="AE24" s="63">
+        <f t="shared" ref="AE24:AF24" si="48">AE27/AE16</f>
+        <v>3.9604073599607187E-2</v>
+      </c>
+      <c r="AF24" s="63">
         <f t="shared" si="48"/>
         <v>4.5916666666666661E-2</v>
       </c>
-      <c r="AE24" s="62">
+      <c r="AG24" s="62">
         <v>0.06</v>
-      </c>
-      <c r="AF24" s="62">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AG24" s="62">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH24" s="62">
         <v>7.0000000000000007E-2</v>
@@ -4500,8 +4543,14 @@
       <c r="AP24" s="62">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:42">
+      <c r="AQ24" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR24" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44">
       <c r="A25" s="53" t="s">
         <v>56</v>
       </c>
@@ -4511,12 +4560,6 @@
       <c r="N25" s="53">
         <v>5800</v>
       </c>
-      <c r="O25" s="53">
-        <v>5800</v>
-      </c>
-      <c r="P25" s="53">
-        <v>5800</v>
-      </c>
       <c r="Q25" s="53">
         <v>5800</v>
       </c>
@@ -4532,22 +4575,22 @@
       <c r="U25" s="53">
         <v>5800</v>
       </c>
-      <c r="AB25" s="59">
-        <f t="shared" ref="AB25:AB26" si="49">M25</f>
+      <c r="V25" s="53">
         <v>5800</v>
       </c>
-      <c r="AC25" s="53">
-        <f>AVERAGE(N25:Q25)</f>
+      <c r="W25" s="53">
         <v>5800</v>
       </c>
-      <c r="AD25" s="64">
-        <f>AVERAGE(R25:U25)</f>
+      <c r="AD25" s="59">
+        <f t="shared" ref="AD25:AD26" si="49">M25</f>
         <v>5800</v>
       </c>
       <c r="AE25" s="53">
+        <f>AVERAGE(N25:S25)</f>
         <v>5800</v>
       </c>
-      <c r="AF25" s="53">
+      <c r="AF25" s="64">
+        <f>AVERAGE(T25:W25)</f>
         <v>5800</v>
       </c>
       <c r="AG25" s="53">
@@ -4580,8 +4623,14 @@
       <c r="AP25" s="53">
         <v>5800</v>
       </c>
-    </row>
-    <row r="26" spans="1:42" s="60" customFormat="1">
+      <c r="AQ25" s="53">
+        <v>5800</v>
+      </c>
+      <c r="AR25" s="53">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" s="60" customFormat="1">
       <c r="A26" s="60" t="s">
         <v>57</v>
       </c>
@@ -4591,12 +4640,8 @@
       <c r="N26" s="62">
         <v>0.05</v>
       </c>
-      <c r="O26" s="62">
-        <v>0.05</v>
-      </c>
-      <c r="P26" s="62">
-        <v>0.05</v>
-      </c>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
       <c r="Q26" s="62">
         <v>0.05</v>
       </c>
@@ -4612,29 +4657,29 @@
       <c r="U26" s="62">
         <v>0.05</v>
       </c>
-      <c r="AB26" s="63">
+      <c r="V26" s="62">
+        <v>0.05</v>
+      </c>
+      <c r="W26" s="62">
+        <v>0.05</v>
+      </c>
+      <c r="AD26" s="63">
         <f t="shared" si="49"/>
         <v>0.05</v>
       </c>
-      <c r="AC26" s="61">
-        <f>AVERAGE(N26:Q26)</f>
+      <c r="AE26" s="61">
+        <f>AVERAGE(N26:S26)</f>
         <v>0.05</v>
       </c>
-      <c r="AD26" s="61">
-        <f>AVERAGE(R26:U26)</f>
+      <c r="AF26" s="61">
+        <f>AVERAGE(T26:W26)</f>
         <v>0.05</v>
-      </c>
-      <c r="AE26" s="61">
-        <v>0.05</v>
-      </c>
-      <c r="AF26" s="61">
-        <v>0.1</v>
       </c>
       <c r="AG26" s="61">
         <v>0.05</v>
       </c>
       <c r="AH26" s="61">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AI26" s="61">
         <v>0.05</v>
@@ -4660,85 +4705,84 @@
       <c r="AP26" s="61">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="27" spans="1:42" s="55" customFormat="1">
+      <c r="AQ26" s="61">
+        <v>0.05</v>
+      </c>
+      <c r="AR26" s="61">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" s="55" customFormat="1">
       <c r="A27" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="65">
+      <c r="M27" s="113">
         <v>10114</v>
       </c>
-      <c r="N27" s="65">
-        <f t="shared" ref="N27:U27" si="50">N24*N21*N25*(1-N26)</f>
-        <v>14510.24977084863</v>
-      </c>
-      <c r="O27" s="65">
-        <f t="shared" si="50"/>
+      <c r="N27" s="113">
+        <v>15615</v>
+      </c>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65">
+        <f t="shared" ref="N27:W27" si="50">Q24*Q21*Q25*(1-Q26)</f>
         <v>19482.428692326092</v>
       </c>
-      <c r="P27" s="65">
+      <c r="R27" s="65">
         <f t="shared" si="50"/>
         <v>24523.507116465469</v>
       </c>
-      <c r="Q27" s="65">
+      <c r="S27" s="65">
         <f t="shared" si="50"/>
         <v>24695.171666280723</v>
       </c>
-      <c r="R27" s="65">
+      <c r="T27" s="65">
         <f t="shared" si="50"/>
         <v>24868.037867944688</v>
       </c>
-      <c r="S27" s="65">
+      <c r="U27" s="65">
         <f t="shared" si="50"/>
         <v>25042.114133020303</v>
       </c>
-      <c r="T27" s="65">
+      <c r="V27" s="65">
         <f t="shared" si="50"/>
         <v>25217.408931951442</v>
       </c>
-      <c r="U27" s="65">
+      <c r="W27" s="65">
         <f t="shared" si="50"/>
         <v>25393.930794475094</v>
       </c>
-      <c r="AB27" s="65">
+      <c r="AD27" s="65">
         <f>M27</f>
         <v>10114</v>
       </c>
-      <c r="AC27" s="65">
-        <f>SUM(N27:Q27)</f>
-        <v>83211.357245920924</v>
-      </c>
-      <c r="AD27" s="65">
-        <f>SUM(R27:U27)</f>
+      <c r="AE27" s="65">
+        <f>SUM(N27:S27)</f>
+        <v>84316.107475072291</v>
+      </c>
+      <c r="AF27" s="65">
+        <f>SUM(T27:W27)</f>
         <v>100521.49172739152</v>
       </c>
-      <c r="AE27" s="65">
-        <f t="shared" ref="AE27:AP27" si="51">AE24*AE21*AE25*(1-AE26)</f>
+      <c r="AG27" s="65">
+        <f t="shared" ref="AG27:AR27" si="51">AG24*AG21*AG25*(1-AG26)</f>
         <v>111346.88314418754</v>
       </c>
-      <c r="AF27" s="65">
+      <c r="AH27" s="65">
         <f t="shared" si="51"/>
         <v>123067.60768568095</v>
       </c>
-      <c r="AG27" s="65">
+      <c r="AI27" s="65">
         <f t="shared" si="51"/>
         <v>129904.69700155214</v>
       </c>
-      <c r="AH27" s="65">
+      <c r="AJ27" s="65">
         <f t="shared" si="51"/>
         <v>129904.69700155214</v>
       </c>
-      <c r="AI27" s="65">
+      <c r="AK27" s="65">
         <f t="shared" si="51"/>
         <v>129904.69700155217</v>
-      </c>
-      <c r="AJ27" s="65">
-        <f t="shared" si="51"/>
-        <v>129904.69700155217</v>
-      </c>
-      <c r="AK27" s="65">
-        <f t="shared" si="51"/>
-        <v>129904.69700155214</v>
       </c>
       <c r="AL27" s="65">
         <f t="shared" si="51"/>
@@ -4746,11 +4790,11 @@
       </c>
       <c r="AM27" s="65">
         <f t="shared" si="51"/>
-        <v>129904.69700155217</v>
+        <v>129904.69700155214</v>
       </c>
       <c r="AN27" s="65">
         <f t="shared" si="51"/>
-        <v>129904.69700155214</v>
+        <v>129904.69700155217</v>
       </c>
       <c r="AO27" s="65">
         <f t="shared" si="51"/>
@@ -4760,61 +4804,63 @@
         <f t="shared" si="51"/>
         <v>129904.69700155214</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" s="60" customFormat="1">
+      <c r="AQ27" s="65">
+        <f t="shared" si="51"/>
+        <v>129904.69700155217</v>
+      </c>
+      <c r="AR27" s="65">
+        <f t="shared" si="51"/>
+        <v>129904.69700155214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" s="60" customFormat="1">
       <c r="A28" s="60" t="s">
         <v>67</v>
       </c>
       <c r="N28" s="66"/>
       <c r="O28" s="66"/>
       <c r="P28" s="66"/>
-      <c r="Q28" s="62">
-        <f>Q27/M27-1</f>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="62">
+        <f>S27/M27-1</f>
         <v>1.4416819919201824</v>
       </c>
-      <c r="R28" s="62">
-        <f>R27/N27-1</f>
-        <v>0.71382562400166627</v>
-      </c>
-      <c r="S28" s="62">
-        <f t="shared" ref="S28:U28" si="52">S27/O27-1</f>
+      <c r="T28" s="62">
+        <f>T27/N27-1</f>
+        <v>0.5925736706977065</v>
+      </c>
+      <c r="U28" s="62">
+        <f t="shared" ref="U28:W28" si="52">U27/Q27-1</f>
         <v>0.28536921800124992</v>
       </c>
-      <c r="T28" s="62">
+      <c r="V28" s="62">
         <f t="shared" si="52"/>
         <v>2.8295374400999718E-2</v>
       </c>
-      <c r="U28" s="62">
+      <c r="W28" s="62">
         <f t="shared" si="52"/>
         <v>2.8295374400999718E-2</v>
       </c>
-      <c r="AC28" s="62">
-        <f>AC27/AB27-1</f>
-        <v>7.2273440029583664</v>
-      </c>
-      <c r="AD28" s="62">
-        <f>AD27/AC27-1</f>
-        <v>0.20802610430103452</v>
-      </c>
-      <c r="AE28" s="61">
+      <c r="AE28" s="62">
         <f>AE27/AD27-1</f>
+        <v>7.3365738061174905</v>
+      </c>
+      <c r="AF28" s="62">
+        <f>AF27/AE27-1</f>
+        <v>0.19219796474962125</v>
+      </c>
+      <c r="AG28" s="61">
+        <f>AG27/AF27-1</f>
         <v>0.10769230769230775</v>
       </c>
-      <c r="AF28" s="61">
-        <f t="shared" ref="AF28:AP28" si="53">AF27/AE27-1</f>
+      <c r="AH28" s="61">
+        <f t="shared" ref="AH28:AR28" si="53">AH27/AG27-1</f>
         <v>0.10526315789473673</v>
       </c>
-      <c r="AG28" s="61">
+      <c r="AI28" s="61">
         <f t="shared" si="53"/>
         <v>5.5555555555555802E-2</v>
-      </c>
-      <c r="AH28" s="61">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="61">
-        <f t="shared" si="53"/>
-        <v>0</v>
       </c>
       <c r="AJ28" s="61">
         <f t="shared" si="53"/>
@@ -4844,20 +4890,28 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:42">
+      <c r="AQ28" s="61">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="61">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
       <c r="N29" s="59"/>
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="59"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
       <c r="T29" s="63"/>
       <c r="U29" s="63"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="67"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="63"/>
       <c r="AG29" s="67"/>
       <c r="AH29" s="67"/>
       <c r="AI29" s="67"/>
@@ -4868,19 +4922,21 @@
       <c r="AN29" s="67"/>
       <c r="AO29" s="67"/>
       <c r="AP29" s="67"/>
-    </row>
-    <row r="30" spans="1:42" s="60" customFormat="1">
+      <c r="AQ29" s="67"/>
+      <c r="AR29" s="67"/>
+    </row>
+    <row r="30" spans="1:44" s="60" customFormat="1">
       <c r="M30" s="66"/>
       <c r="N30" s="66"/>
       <c r="O30" s="66"/>
       <c r="P30" s="66"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
       <c r="S30" s="62"/>
       <c r="T30" s="62"/>
       <c r="U30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
       <c r="AE30" s="62"/>
       <c r="AF30" s="62"/>
       <c r="AG30" s="62"/>
@@ -4893,8 +4949,10 @@
       <c r="AN30" s="62"/>
       <c r="AO30" s="62"/>
       <c r="AP30" s="62"/>
-    </row>
-    <row r="31" spans="1:42" s="70" customFormat="1">
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="62"/>
+    </row>
+    <row r="31" spans="1:44" s="70" customFormat="1">
       <c r="A31" s="70" t="s">
         <v>185</v>
       </c>
@@ -4902,13 +4960,13 @@
       <c r="N31" s="71"/>
       <c r="O31" s="71"/>
       <c r="P31" s="71"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
       <c r="S31" s="72"/>
       <c r="T31" s="72"/>
       <c r="U31" s="72"/>
-      <c r="AC31" s="72"/>
-      <c r="AD31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
       <c r="AE31" s="72"/>
       <c r="AF31" s="72"/>
       <c r="AG31" s="72"/>
@@ -4921,11 +4979,13 @@
       <c r="AN31" s="72"/>
       <c r="AO31" s="72"/>
       <c r="AP31" s="72"/>
-    </row>
-    <row r="32" spans="1:42">
+      <c r="AQ31" s="72"/>
+      <c r="AR31" s="72"/>
+    </row>
+    <row r="32" spans="1:44">
       <c r="M32" s="59"/>
     </row>
-    <row r="33" spans="1:42" s="55" customFormat="1">
+    <row r="33" spans="1:44" s="55" customFormat="1">
       <c r="A33" s="55" t="s">
         <v>59</v>
       </c>
@@ -4934,76 +4994,70 @@
         <v>10114</v>
       </c>
       <c r="N33" s="65">
-        <f t="shared" ref="N33:U33" si="54">N27</f>
-        <v>14510.24977084863</v>
-      </c>
-      <c r="O33" s="65">
+        <f t="shared" ref="N33:W33" si="54">N27</f>
+        <v>15615</v>
+      </c>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65">
         <f t="shared" si="54"/>
         <v>19482.428692326092</v>
       </c>
-      <c r="P33" s="65">
+      <c r="R33" s="65">
         <f t="shared" si="54"/>
         <v>24523.507116465469</v>
       </c>
-      <c r="Q33" s="65">
+      <c r="S33" s="65">
         <f t="shared" si="54"/>
         <v>24695.171666280723</v>
       </c>
-      <c r="R33" s="65">
+      <c r="T33" s="65">
         <f t="shared" si="54"/>
         <v>24868.037867944688</v>
       </c>
-      <c r="S33" s="65">
+      <c r="U33" s="65">
         <f t="shared" si="54"/>
         <v>25042.114133020303</v>
       </c>
-      <c r="T33" s="65">
+      <c r="V33" s="65">
         <f t="shared" si="54"/>
         <v>25217.408931951442</v>
       </c>
-      <c r="U33" s="65">
+      <c r="W33" s="65">
         <f t="shared" si="54"/>
         <v>25393.930794475094</v>
       </c>
-      <c r="AB33" s="65">
-        <f>AB27</f>
+      <c r="AD33" s="65">
+        <f>AD27</f>
         <v>10114</v>
       </c>
-      <c r="AC33" s="65">
-        <f t="shared" ref="AC33:AO33" si="55">AC27</f>
-        <v>83211.357245920924</v>
-      </c>
-      <c r="AD33" s="65">
+      <c r="AE33" s="65">
+        <f t="shared" ref="AE33:AQ33" si="55">AE27</f>
+        <v>84316.107475072291</v>
+      </c>
+      <c r="AF33" s="65">
         <f t="shared" si="55"/>
         <v>100521.49172739152</v>
       </c>
-      <c r="AE33" s="65">
+      <c r="AG33" s="65">
         <f t="shared" si="55"/>
         <v>111346.88314418754</v>
       </c>
-      <c r="AF33" s="65">
+      <c r="AH33" s="65">
         <f t="shared" si="55"/>
         <v>123067.60768568095</v>
       </c>
-      <c r="AG33" s="65">
+      <c r="AI33" s="65">
         <f t="shared" si="55"/>
         <v>129904.69700155214</v>
       </c>
-      <c r="AH33" s="65">
+      <c r="AJ33" s="65">
         <f t="shared" si="55"/>
         <v>129904.69700155214</v>
       </c>
-      <c r="AI33" s="65">
+      <c r="AK33" s="65">
         <f t="shared" si="55"/>
         <v>129904.69700155217</v>
-      </c>
-      <c r="AJ33" s="65">
-        <f t="shared" si="55"/>
-        <v>129904.69700155217</v>
-      </c>
-      <c r="AK33" s="65">
-        <f t="shared" si="55"/>
-        <v>129904.69700155214</v>
       </c>
       <c r="AL33" s="65">
         <f t="shared" si="55"/>
@@ -5011,99 +5065,100 @@
       </c>
       <c r="AM33" s="65">
         <f t="shared" si="55"/>
-        <v>129904.69700155217</v>
+        <v>129904.69700155214</v>
       </c>
       <c r="AN33" s="65">
         <f t="shared" si="55"/>
-        <v>129904.69700155214</v>
+        <v>129904.69700155217</v>
       </c>
       <c r="AO33" s="65">
         <f t="shared" si="55"/>
         <v>129904.69700155217</v>
       </c>
       <c r="AP33" s="65">
-        <f>AP27</f>
+        <f t="shared" si="55"/>
         <v>129904.69700155214</v>
       </c>
-    </row>
-    <row r="34" spans="1:42">
+      <c r="AQ33" s="65">
+        <f t="shared" si="55"/>
+        <v>129904.69700155217</v>
+      </c>
+      <c r="AR33" s="65">
+        <f>AR27</f>
+        <v>129904.69700155214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44">
       <c r="A34" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="M34" s="59">
+      <c r="M34" s="114">
         <v>1792</v>
       </c>
-      <c r="N34" s="59">
-        <f t="shared" ref="N34:U34" si="56">N33*(1-N36)</f>
-        <v>1451.0249770848627</v>
-      </c>
-      <c r="O34" s="59">
-        <f t="shared" si="56"/>
+      <c r="N34" s="114">
+        <v>1063</v>
+      </c>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59">
+        <f t="shared" ref="N34:W34" si="56">Q33*(1-Q36)</f>
         <v>1948.2428692326087</v>
       </c>
-      <c r="P34" s="59">
+      <c r="R34" s="59">
         <f t="shared" si="56"/>
         <v>2452.3507116465462</v>
       </c>
-      <c r="Q34" s="59">
+      <c r="S34" s="59">
         <f t="shared" si="56"/>
         <v>2469.5171666280717</v>
       </c>
-      <c r="R34" s="59">
+      <c r="T34" s="59">
         <f t="shared" si="56"/>
         <v>2486.8037867944681</v>
       </c>
-      <c r="S34" s="59">
+      <c r="U34" s="59">
         <f t="shared" si="56"/>
         <v>2504.2114133020295</v>
       </c>
-      <c r="T34" s="59">
+      <c r="V34" s="59">
         <f t="shared" si="56"/>
         <v>2521.7408931951436</v>
       </c>
-      <c r="U34" s="59">
+      <c r="W34" s="59">
         <f t="shared" si="56"/>
         <v>2539.3930794475091</v>
       </c>
-      <c r="AB34" s="59">
+      <c r="AD34" s="59">
         <f>J34+K34+L34+M34</f>
         <v>1792</v>
       </c>
-      <c r="AC34" s="59">
-        <f>SUM(N34:Q34)</f>
-        <v>8321.1357245920899</v>
-      </c>
-      <c r="AD34" s="59">
-        <f>SUM(R34:U34)</f>
+      <c r="AE34" s="59">
+        <f>SUM(N34:S34)</f>
+        <v>7933.1107475072258</v>
+      </c>
+      <c r="AF34" s="59">
+        <f>SUM(T34:W34)</f>
         <v>10052.149172739149</v>
       </c>
-      <c r="AE34" s="59">
-        <f>0.13*AE33</f>
+      <c r="AG34" s="59">
+        <f>0.13*AG33</f>
         <v>14475.094808744381</v>
       </c>
-      <c r="AF34" s="59">
-        <f t="shared" ref="AF34:AP34" si="57">0.13*AF33</f>
+      <c r="AH34" s="59">
+        <f t="shared" ref="AH34:AR34" si="57">0.13*AH33</f>
         <v>15998.788999138524</v>
       </c>
-      <c r="AG34" s="59">
+      <c r="AI34" s="59">
         <f t="shared" si="57"/>
         <v>16887.610610201777</v>
       </c>
-      <c r="AH34" s="59">
+      <c r="AJ34" s="59">
         <f t="shared" si="57"/>
         <v>16887.610610201777</v>
       </c>
-      <c r="AI34" s="59">
+      <c r="AK34" s="59">
         <f t="shared" si="57"/>
         <v>16887.610610201784</v>
-      </c>
-      <c r="AJ34" s="59">
-        <f t="shared" si="57"/>
-        <v>16887.610610201784</v>
-      </c>
-      <c r="AK34" s="59">
-        <f t="shared" si="57"/>
-        <v>16887.610610201777</v>
       </c>
       <c r="AL34" s="59">
         <f t="shared" si="57"/>
@@ -5111,11 +5166,11 @@
       </c>
       <c r="AM34" s="59">
         <f t="shared" si="57"/>
-        <v>16887.610610201784</v>
+        <v>16887.610610201777</v>
       </c>
       <c r="AN34" s="59">
         <f t="shared" si="57"/>
-        <v>16887.610610201777</v>
+        <v>16887.610610201784</v>
       </c>
       <c r="AO34" s="59">
         <f t="shared" si="57"/>
@@ -5125,8 +5180,16 @@
         <f t="shared" si="57"/>
         <v>16887.610610201777</v>
       </c>
-    </row>
-    <row r="35" spans="1:42">
+      <c r="AQ34" s="59">
+        <f t="shared" si="57"/>
+        <v>16887.610610201784</v>
+      </c>
+      <c r="AR34" s="59">
+        <f t="shared" si="57"/>
+        <v>16887.610610201777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44">
       <c r="A35" s="53" t="s">
         <v>61</v>
       </c>
@@ -5135,76 +5198,70 @@
         <v>8322</v>
       </c>
       <c r="N35" s="59">
-        <f t="shared" ref="N35:U35" si="58">N33-N34</f>
-        <v>13059.224793763768</v>
-      </c>
-      <c r="O35" s="59">
+        <f t="shared" ref="N35:W35" si="58">N33-N34</f>
+        <v>14552</v>
+      </c>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59">
         <f t="shared" si="58"/>
         <v>17534.185823093481</v>
       </c>
-      <c r="P35" s="59">
+      <c r="R35" s="59">
         <f t="shared" si="58"/>
         <v>22071.156404818925</v>
       </c>
-      <c r="Q35" s="59">
+      <c r="S35" s="59">
         <f t="shared" si="58"/>
         <v>22225.65449965265</v>
       </c>
-      <c r="R35" s="59">
+      <c r="T35" s="59">
         <f t="shared" si="58"/>
         <v>22381.234081150218</v>
       </c>
-      <c r="S35" s="59">
+      <c r="U35" s="59">
         <f t="shared" si="58"/>
         <v>22537.902719718273</v>
       </c>
-      <c r="T35" s="59">
+      <c r="V35" s="59">
         <f t="shared" si="58"/>
         <v>22695.668038756299</v>
       </c>
-      <c r="U35" s="59">
+      <c r="W35" s="59">
         <f t="shared" si="58"/>
         <v>22854.537715027585</v>
       </c>
-      <c r="AB35" s="59">
+      <c r="AD35" s="59">
         <f>J35+K35+L35+M35</f>
         <v>8322</v>
       </c>
-      <c r="AC35" s="59">
-        <f>SUM(N35:Q35)</f>
-        <v>74890.221521328815</v>
-      </c>
-      <c r="AD35" s="59">
-        <f>SUM(R35:U35)</f>
+      <c r="AE35" s="59">
+        <f>SUM(N35:S35)</f>
+        <v>76382.996727565056</v>
+      </c>
+      <c r="AF35" s="59">
+        <f>SUM(T35:W35)</f>
         <v>90469.342554652379</v>
       </c>
-      <c r="AE35" s="59">
-        <f>AE33-AE34</f>
+      <c r="AG35" s="59">
+        <f>AG33-AG34</f>
         <v>96871.788335443154</v>
       </c>
-      <c r="AF35" s="59">
-        <f t="shared" ref="AF35:AP35" si="59">AF33-AF34</f>
+      <c r="AH35" s="59">
+        <f t="shared" ref="AH35:AR35" si="59">AH33-AH34</f>
         <v>107068.81868654242</v>
       </c>
-      <c r="AG35" s="59">
+      <c r="AI35" s="59">
         <f t="shared" si="59"/>
         <v>113017.08639135036</v>
       </c>
-      <c r="AH35" s="59">
+      <c r="AJ35" s="59">
         <f t="shared" si="59"/>
         <v>113017.08639135036</v>
       </c>
-      <c r="AI35" s="59">
+      <c r="AK35" s="59">
         <f t="shared" si="59"/>
         <v>113017.08639135039</v>
-      </c>
-      <c r="AJ35" s="59">
-        <f t="shared" si="59"/>
-        <v>113017.08639135039</v>
-      </c>
-      <c r="AK35" s="59">
-        <f t="shared" si="59"/>
-        <v>113017.08639135036</v>
       </c>
       <c r="AL35" s="59">
         <f t="shared" si="59"/>
@@ -5212,11 +5269,11 @@
       </c>
       <c r="AM35" s="59">
         <f t="shared" si="59"/>
-        <v>113017.08639135039</v>
+        <v>113017.08639135036</v>
       </c>
       <c r="AN35" s="59">
         <f t="shared" si="59"/>
-        <v>113017.08639135036</v>
+        <v>113017.08639135039</v>
       </c>
       <c r="AO35" s="59">
         <f t="shared" si="59"/>
@@ -5226,8 +5283,16 @@
         <f t="shared" si="59"/>
         <v>113017.08639135036</v>
       </c>
-    </row>
-    <row r="36" spans="1:42" s="60" customFormat="1">
+      <c r="AQ35" s="59">
+        <f t="shared" si="59"/>
+        <v>113017.08639135039</v>
+      </c>
+      <c r="AR35" s="59">
+        <f t="shared" si="59"/>
+        <v>113017.08639135036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" s="60" customFormat="1">
       <c r="A36" s="60" t="s">
         <v>62</v>
       </c>
@@ -5236,14 +5301,11 @@
         <v>0.82281985366818267</v>
       </c>
       <c r="N36" s="61">
-        <v>0.9</v>
-      </c>
-      <c r="O36" s="61">
-        <v>0.9</v>
-      </c>
-      <c r="P36" s="61">
-        <v>0.9</v>
-      </c>
+        <f>N35/N33</f>
+        <v>0.93192443163624716</v>
+      </c>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
       <c r="Q36" s="61">
         <v>0.9</v>
       </c>
@@ -5259,24 +5321,24 @@
       <c r="U36" s="61">
         <v>0.9</v>
       </c>
-      <c r="AB36" s="62">
-        <f>AB35/AB33</f>
+      <c r="V36" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="W36" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="AD36" s="62">
+        <f>AD35/AD33</f>
         <v>0.82281985366818267</v>
       </c>
-      <c r="AC36" s="62">
-        <f t="shared" ref="AC36:AD36" si="60">AC35/AC33</f>
-        <v>0.8999999999999998</v>
-      </c>
-      <c r="AD36" s="62">
+      <c r="AE36" s="62">
+        <f t="shared" ref="AE36:AF36" si="60">AE35/AE33</f>
+        <v>0.90591227483013703</v>
+      </c>
+      <c r="AF36" s="62">
         <f t="shared" si="60"/>
         <v>0.90000000000000013</v>
       </c>
-      <c r="AE36" s="62">
-        <v>0.9</v>
-      </c>
-      <c r="AF36" s="62">
-        <v>0.9</v>
-      </c>
       <c r="AG36" s="62">
         <v>0.9</v>
       </c>
@@ -5307,8 +5369,14 @@
       <c r="AP36" s="62">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:42">
+      <c r="AQ36" s="62">
+        <v>0.9</v>
+      </c>
+      <c r="AR36" s="62">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44">
       <c r="A37" s="53" t="s">
         <v>1</v>
       </c>
@@ -5322,7 +5390,7 @@
         <v>15116</v>
       </c>
       <c r="E37" s="53">
-        <f>Z37-B37-C37-D37</f>
+        <f>AB37-B37-C37-D37</f>
         <v>15703</v>
       </c>
       <c r="F37" s="53">
@@ -5335,7 +5403,7 @@
         <v>12243</v>
       </c>
       <c r="I37" s="53">
-        <f>AA37-H37-G37-F37</f>
+        <f>AC37-H37-G37-F37</f>
         <v>18891</v>
       </c>
       <c r="J37" s="53">
@@ -5347,112 +5415,113 @@
       <c r="L37" s="59">
         <v>8263</v>
       </c>
-      <c r="M37" s="59">
+      <c r="M37" s="114">
         <v>11298</v>
       </c>
-      <c r="N37" s="59">
-        <f>M37*(1.08)</f>
-        <v>12201.84</v>
-      </c>
-      <c r="O37" s="59">
-        <f t="shared" ref="O37:Q37" si="61">N37*(1.08)</f>
-        <v>13177.987200000001</v>
-      </c>
-      <c r="P37" s="59">
+      <c r="N37" s="114">
+        <v>13998</v>
+      </c>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59">
+        <f>N37*(1.08)</f>
+        <v>15117.84</v>
+      </c>
+      <c r="R37" s="59">
+        <f t="shared" ref="R37:S37" si="61">Q37*(1.08)</f>
+        <v>16327.267200000002</v>
+      </c>
+      <c r="S37" s="59">
         <f t="shared" si="61"/>
-        <v>14232.226176000002</v>
-      </c>
-      <c r="Q37" s="59">
-        <f t="shared" si="61"/>
-        <v>15370.804270080003</v>
-      </c>
-      <c r="R37" s="59">
-        <f t="shared" ref="R37:U37" si="62">Q37*(1.05)</f>
-        <v>16139.344483584004</v>
-      </c>
-      <c r="S37" s="59">
-        <f t="shared" si="62"/>
-        <v>16946.311707763205</v>
+        <v>17633.448576000003</v>
       </c>
       <c r="T37" s="59">
-        <f t="shared" si="62"/>
-        <v>17793.627293151367</v>
+        <f t="shared" ref="T37:W37" si="62">S37*(1.05)</f>
+        <v>18515.121004800003</v>
       </c>
       <c r="U37" s="59">
         <f t="shared" si="62"/>
-        <v>18683.308657808935</v>
-      </c>
-      <c r="Y37" s="53">
+        <v>19440.877055040004</v>
+      </c>
+      <c r="V37" s="59">
+        <f t="shared" si="62"/>
+        <v>20412.920907792006</v>
+      </c>
+      <c r="W37" s="59">
+        <f t="shared" si="62"/>
+        <v>21433.566953181606</v>
+      </c>
+      <c r="AA37" s="53">
         <v>61373</v>
       </c>
-      <c r="Z37" s="53">
+      <c r="AB37" s="53">
         <v>60357</v>
       </c>
-      <c r="AA37" s="53">
+      <c r="AC37" s="53">
         <v>60406</v>
       </c>
-      <c r="AB37" s="59">
+      <c r="AD37" s="59">
         <f>J37+K37+L37+M37</f>
         <v>38816</v>
       </c>
-      <c r="AC37" s="59">
-        <f>SUM(N37:Q37)</f>
-        <v>54982.85764608001</v>
-      </c>
-      <c r="AD37" s="59">
-        <f>SUM(R37:U37)</f>
-        <v>69562.59214230752</v>
-      </c>
       <c r="AE37" s="59">
-        <f>AD37*1.01</f>
-        <v>70258.218063730601</v>
+        <f>SUM(N37:S37)</f>
+        <v>63076.555776000001</v>
       </c>
       <c r="AF37" s="59">
-        <f t="shared" ref="AF37:AP37" si="63">AE37*1.01</f>
-        <v>70960.800244367914</v>
+        <f>SUM(T37:W37)</f>
+        <v>79802.485920813619</v>
       </c>
       <c r="AG37" s="59">
-        <f t="shared" si="63"/>
-        <v>71670.408246811596</v>
+        <f>AF37*1.01</f>
+        <v>80600.510780021752</v>
       </c>
       <c r="AH37" s="59">
-        <f t="shared" si="63"/>
-        <v>72387.112329279713</v>
+        <f t="shared" ref="AH37:AR37" si="63">AG37*1.01</f>
+        <v>81406.515887821966</v>
       </c>
       <c r="AI37" s="59">
         <f t="shared" si="63"/>
-        <v>73110.983452572516</v>
+        <v>82220.581046700187</v>
       </c>
       <c r="AJ37" s="59">
         <f t="shared" si="63"/>
-        <v>73842.093287098236</v>
+        <v>83042.786857167186</v>
       </c>
       <c r="AK37" s="59">
         <f t="shared" si="63"/>
-        <v>74580.51421996922</v>
+        <v>83873.214725738857</v>
       </c>
       <c r="AL37" s="59">
         <f t="shared" si="63"/>
-        <v>75326.319362168913</v>
+        <v>84711.946872996239</v>
       </c>
       <c r="AM37" s="59">
         <f t="shared" si="63"/>
-        <v>76079.582555790606</v>
+        <v>85559.066341726197</v>
       </c>
       <c r="AN37" s="59">
         <f t="shared" si="63"/>
-        <v>76840.378381348506</v>
+        <v>86414.657005143454</v>
       </c>
       <c r="AO37" s="59">
         <f t="shared" si="63"/>
-        <v>77608.782165161989</v>
+        <v>87278.803575194892</v>
       </c>
       <c r="AP37" s="59">
         <f t="shared" si="63"/>
-        <v>78384.869986813603</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42">
+        <v>88151.591610946838</v>
+      </c>
+      <c r="AQ37" s="59">
+        <f t="shared" si="63"/>
+        <v>89033.107527056301</v>
+      </c>
+      <c r="AR37" s="59">
+        <f t="shared" si="63"/>
+        <v>89923.43860232686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44">
       <c r="A38" s="53" t="s">
         <v>2</v>
       </c>
@@ -5466,7 +5535,7 @@
         <v>24453</v>
       </c>
       <c r="E38" s="53">
-        <f>Z38-B38-C38-D38</f>
+        <f>AB38-B38-C38-D38</f>
         <v>47145</v>
       </c>
       <c r="F38" s="53">
@@ -5479,7 +5548,7 @@
         <v>20850</v>
       </c>
       <c r="I38" s="53">
-        <f>AA38-H38-G38-F38</f>
+        <f>AC38-H38-G38-F38</f>
         <v>17962</v>
       </c>
       <c r="J38" s="53">
@@ -5491,112 +5560,113 @@
       <c r="L38" s="59">
         <v>13335</v>
       </c>
-      <c r="M38" s="59">
+      <c r="M38" s="114">
         <v>8669</v>
       </c>
-      <c r="N38" s="59">
-        <f>M38*0.5</f>
-        <v>4334.5</v>
-      </c>
-      <c r="O38" s="59">
-        <f t="shared" ref="O38:U38" si="64">N38*1.01</f>
-        <v>4377.8450000000003</v>
-      </c>
-      <c r="P38" s="59">
-        <f t="shared" si="64"/>
-        <v>4421.62345</v>
-      </c>
+      <c r="N38" s="114">
+        <v>5424</v>
+      </c>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
       <c r="Q38" s="59">
-        <f t="shared" si="64"/>
-        <v>4465.8396844999997</v>
+        <f>N38*1.01</f>
+        <v>5478.24</v>
       </c>
       <c r="R38" s="59">
-        <f t="shared" si="64"/>
-        <v>4510.4980813450002</v>
+        <f t="shared" ref="R38:W38" si="64">Q38*1.01</f>
+        <v>5533.0223999999998</v>
       </c>
       <c r="S38" s="59">
         <f t="shared" si="64"/>
-        <v>4555.6030621584505</v>
+        <v>5588.3526240000001</v>
       </c>
       <c r="T38" s="59">
         <f t="shared" si="64"/>
-        <v>4601.1590927800353</v>
+        <v>5644.2361502399999</v>
       </c>
       <c r="U38" s="59">
         <f t="shared" si="64"/>
-        <v>4647.1706837078355</v>
-      </c>
-      <c r="Y38" s="53">
+        <v>5700.6785117423997</v>
+      </c>
+      <c r="V38" s="59">
+        <f t="shared" si="64"/>
+        <v>5757.6852968598241</v>
+      </c>
+      <c r="W38" s="59">
+        <f t="shared" si="64"/>
+        <v>5815.2621498284225</v>
+      </c>
+      <c r="AA38" s="53">
         <v>79325</v>
       </c>
-      <c r="Z38" s="53">
+      <c r="AB38" s="53">
         <v>109337</v>
       </c>
-      <c r="AA38" s="53">
+      <c r="AC38" s="53">
         <v>87297</v>
       </c>
-      <c r="AB38" s="59">
+      <c r="AD38" s="59">
         <f>J38+K38+L38+M38</f>
         <v>42204</v>
       </c>
-      <c r="AC38" s="59">
-        <f>SUM(N38:Q38)</f>
-        <v>17599.808134499999</v>
-      </c>
-      <c r="AD38" s="59">
-        <f>SUM(R38:U38)</f>
-        <v>18314.430919991322</v>
-      </c>
       <c r="AE38" s="59">
-        <f>AD38*0.98</f>
-        <v>17948.142301591495</v>
+        <f>SUM(N38:S38)</f>
+        <v>22023.615023999999</v>
       </c>
       <c r="AF38" s="59">
-        <f t="shared" ref="AF38:AP38" si="65">AE38*0.98</f>
-        <v>17589.179455559664</v>
+        <f>SUM(T38:W38)</f>
+        <v>22917.862108670648</v>
       </c>
       <c r="AG38" s="59">
-        <f t="shared" si="65"/>
-        <v>17237.395866448471</v>
+        <f>AF38*0.98</f>
+        <v>22459.504866497235</v>
       </c>
       <c r="AH38" s="59">
-        <f t="shared" si="65"/>
-        <v>16892.647949119502</v>
+        <f t="shared" ref="AH38:AR38" si="65">AG38*0.98</f>
+        <v>22010.314769167289</v>
       </c>
       <c r="AI38" s="59">
         <f t="shared" si="65"/>
-        <v>16554.79499013711</v>
+        <v>21570.108473783945</v>
       </c>
       <c r="AJ38" s="59">
         <f t="shared" si="65"/>
-        <v>16223.699090334369</v>
+        <v>21138.706304308267</v>
       </c>
       <c r="AK38" s="59">
         <f t="shared" si="65"/>
-        <v>15899.22510852768</v>
+        <v>20715.932178222101</v>
       </c>
       <c r="AL38" s="59">
         <f t="shared" si="65"/>
-        <v>15581.240606357127</v>
+        <v>20301.613534657659</v>
       </c>
       <c r="AM38" s="59">
         <f t="shared" si="65"/>
-        <v>15269.615794229985</v>
+        <v>19895.581263964505</v>
       </c>
       <c r="AN38" s="59">
         <f t="shared" si="65"/>
-        <v>14964.223478345386</v>
+        <v>19497.669638685213</v>
       </c>
       <c r="AO38" s="59">
         <f t="shared" si="65"/>
-        <v>14664.939008778478</v>
+        <v>19107.71624591151</v>
       </c>
       <c r="AP38" s="59">
         <f t="shared" si="65"/>
-        <v>14371.640228602908</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42">
+        <v>18725.561920993277</v>
+      </c>
+      <c r="AQ38" s="59">
+        <f t="shared" si="65"/>
+        <v>18351.050682573412</v>
+      </c>
+      <c r="AR38" s="59">
+        <f t="shared" si="65"/>
+        <v>17984.029668921943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44">
       <c r="A39" s="53" t="s">
         <v>14</v>
       </c>
@@ -5605,7 +5675,7 @@
         <v>30787</v>
       </c>
       <c r="C39" s="53">
-        <f t="shared" ref="C39:U39" si="66">C37+C38</f>
+        <f t="shared" ref="C39:W39" si="66">C37+C38</f>
         <v>36490</v>
       </c>
       <c r="D39" s="53">
@@ -5649,116 +5719,118 @@
         <v>19967</v>
       </c>
       <c r="N39" s="59">
-        <f t="shared" si="66"/>
-        <v>16536.34</v>
-      </c>
-      <c r="O39" s="59">
-        <f t="shared" si="66"/>
-        <v>17555.832200000001</v>
-      </c>
-      <c r="P39" s="59">
-        <f t="shared" si="66"/>
-        <v>18653.849626000003</v>
-      </c>
+        <f>N37+N38</f>
+        <v>19422</v>
+      </c>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
       <c r="Q39" s="59">
         <f t="shared" si="66"/>
-        <v>19836.643954580002</v>
+        <v>20596.080000000002</v>
       </c>
       <c r="R39" s="59">
         <f t="shared" si="66"/>
-        <v>20649.842564929004</v>
+        <v>21860.289600000004</v>
       </c>
       <c r="S39" s="59">
         <f t="shared" si="66"/>
-        <v>21501.914769921656</v>
+        <v>23221.801200000002</v>
       </c>
       <c r="T39" s="59">
         <f t="shared" si="66"/>
-        <v>22394.786385931402</v>
+        <v>24159.357155040001</v>
       </c>
       <c r="U39" s="59">
         <f t="shared" si="66"/>
-        <v>23330.47934151677</v>
-      </c>
-      <c r="Y39" s="53">
-        <f>Y37+Y38</f>
+        <v>25141.555566782405</v>
+      </c>
+      <c r="V39" s="59">
+        <f t="shared" si="66"/>
+        <v>26170.606204651831</v>
+      </c>
+      <c r="W39" s="59">
+        <f t="shared" si="66"/>
+        <v>27248.82910301003</v>
+      </c>
+      <c r="AA39" s="53">
+        <f>AA37+AA38</f>
         <v>140698</v>
       </c>
-      <c r="Z39" s="53">
+      <c r="AB39" s="53">
         <f>B39+C39+D39+E39</f>
         <v>169694</v>
       </c>
-      <c r="AA39" s="53">
+      <c r="AC39" s="53">
         <f>F39+G39+H39+I39</f>
         <v>147703</v>
       </c>
-      <c r="AB39" s="59">
+      <c r="AD39" s="59">
         <f>J39+K39+L39+M39</f>
         <v>81020</v>
       </c>
-      <c r="AC39" s="59">
-        <f>AC37+AC38</f>
-        <v>72582.665780580006</v>
-      </c>
-      <c r="AD39" s="59">
-        <f>AD37+AD38</f>
-        <v>87877.023062298846</v>
-      </c>
       <c r="AE39" s="59">
-        <f t="shared" ref="AE39:AP39" si="67">AE37+AE38</f>
-        <v>88206.360365322093</v>
+        <f>AE37+AE38</f>
+        <v>85100.170799999993</v>
       </c>
       <c r="AF39" s="59">
-        <f t="shared" si="67"/>
-        <v>88549.979699927586</v>
+        <f>AF37+AF38</f>
+        <v>102720.34802948427</v>
       </c>
       <c r="AG39" s="59">
-        <f t="shared" si="67"/>
-        <v>88907.804113260063</v>
+        <f t="shared" ref="AG39:AR39" si="67">AG37+AG38</f>
+        <v>103060.01564651899</v>
       </c>
       <c r="AH39" s="59">
         <f t="shared" si="67"/>
-        <v>89279.760278399219</v>
+        <v>103416.83065698926</v>
       </c>
       <c r="AI39" s="59">
         <f t="shared" si="67"/>
-        <v>89665.778442709619</v>
+        <v>103790.68952048413</v>
       </c>
       <c r="AJ39" s="59">
         <f t="shared" si="67"/>
-        <v>90065.792377432605</v>
+        <v>104181.49316147546</v>
       </c>
       <c r="AK39" s="59">
         <f t="shared" si="67"/>
-        <v>90479.7393284969</v>
+        <v>104589.14690396097</v>
       </c>
       <c r="AL39" s="59">
         <f t="shared" si="67"/>
-        <v>90907.559968526039</v>
+        <v>105013.5604076539</v>
       </c>
       <c r="AM39" s="59">
         <f t="shared" si="67"/>
-        <v>91349.198350020597</v>
+        <v>105454.6476056907</v>
       </c>
       <c r="AN39" s="59">
         <f t="shared" si="67"/>
-        <v>91804.601859693896</v>
+        <v>105912.32664382867</v>
       </c>
       <c r="AO39" s="59">
         <f t="shared" si="67"/>
-        <v>92273.721173940459</v>
+        <v>106386.5198211064</v>
       </c>
       <c r="AP39" s="59">
         <f t="shared" si="67"/>
-        <v>92756.510215416507</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42">
+        <v>106877.15353194012</v>
+      </c>
+      <c r="AQ39" s="59">
+        <f t="shared" si="67"/>
+        <v>107384.15820962971</v>
+      </c>
+      <c r="AR39" s="59">
+        <f t="shared" si="67"/>
+        <v>107907.4682712488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44">
       <c r="A40" s="53" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="59">
-        <f t="shared" ref="B40:U40" si="68">B35-B39</f>
+        <f t="shared" ref="B40:W40" si="68">B35-B39</f>
         <v>-30787</v>
       </c>
       <c r="C40" s="59">
@@ -5807,110 +5879,112 @@
       </c>
       <c r="N40" s="59">
         <f t="shared" si="68"/>
-        <v>-3477.1152062362326</v>
-      </c>
-      <c r="O40" s="59">
-        <f t="shared" si="68"/>
-        <v>-21.646376906519436</v>
-      </c>
-      <c r="P40" s="59">
-        <f t="shared" si="68"/>
-        <v>3417.3067788189219</v>
-      </c>
+        <v>-4870</v>
+      </c>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
       <c r="Q40" s="59">
         <f t="shared" si="68"/>
-        <v>2389.0105450726478</v>
+        <v>-3061.8941769065204</v>
       </c>
       <c r="R40" s="59">
         <f t="shared" si="68"/>
-        <v>1731.3915162212143</v>
+        <v>210.86680481892108</v>
       </c>
       <c r="S40" s="59">
         <f t="shared" si="68"/>
-        <v>1035.9879497966176</v>
+        <v>-996.14670034735173</v>
       </c>
       <c r="T40" s="59">
         <f t="shared" si="68"/>
-        <v>300.88165282489717</v>
+        <v>-1778.123073889783</v>
       </c>
       <c r="U40" s="59">
         <f t="shared" si="68"/>
-        <v>-475.94162648918427</v>
-      </c>
-      <c r="Y40" s="53">
-        <f>Y36-Y39</f>
+        <v>-2603.6528470641315</v>
+      </c>
+      <c r="V40" s="59">
+        <f t="shared" si="68"/>
+        <v>-3474.9381658955317</v>
+      </c>
+      <c r="W40" s="59">
+        <f t="shared" si="68"/>
+        <v>-4394.2913879824446</v>
+      </c>
+      <c r="AA40" s="53">
+        <f>AA36-AA39</f>
         <v>-140698</v>
       </c>
-      <c r="Z40" s="53">
-        <f t="shared" ref="Z40:AA40" si="69">Z36-Z39</f>
+      <c r="AB40" s="53">
+        <f t="shared" ref="AB40:AC40" si="69">AB36-AB39</f>
         <v>-169694</v>
       </c>
-      <c r="AA40" s="53">
+      <c r="AC40" s="53">
         <f t="shared" si="69"/>
         <v>-147703</v>
       </c>
-      <c r="AB40" s="59">
-        <f>AB35-AB39</f>
+      <c r="AD40" s="59">
+        <f>AD35-AD39</f>
         <v>-72698</v>
       </c>
-      <c r="AC40" s="59">
-        <f t="shared" ref="AC40:AD40" si="70">AC35-AC39</f>
-        <v>2307.5557407488086</v>
-      </c>
-      <c r="AD40" s="59">
+      <c r="AE40" s="59">
+        <f t="shared" ref="AE40:AF40" si="70">AE35-AE39</f>
+        <v>-8717.1740724349365</v>
+      </c>
+      <c r="AF40" s="59">
         <f t="shared" si="70"/>
-        <v>2592.3194923535339</v>
-      </c>
-      <c r="AE40" s="59">
-        <f t="shared" ref="AE40" si="71">AE35-AE39</f>
-        <v>8665.4279701210617</v>
-      </c>
-      <c r="AF40" s="59">
-        <f t="shared" ref="AF40" si="72">AF35-AF39</f>
-        <v>18518.838986614835</v>
+        <v>-12251.005474831894</v>
       </c>
       <c r="AG40" s="59">
-        <f t="shared" ref="AG40" si="73">AG35-AG39</f>
-        <v>24109.282278090293</v>
+        <f t="shared" ref="AG40" si="71">AG35-AG39</f>
+        <v>-6188.2273110758397</v>
       </c>
       <c r="AH40" s="59">
-        <f t="shared" ref="AH40" si="74">AH35-AH39</f>
-        <v>23737.326112951137</v>
+        <f t="shared" ref="AH40" si="72">AH35-AH39</f>
+        <v>3651.9880295531621</v>
       </c>
       <c r="AI40" s="59">
-        <f t="shared" ref="AI40" si="75">AI35-AI39</f>
-        <v>23351.307948640766</v>
+        <f t="shared" ref="AI40" si="73">AI35-AI39</f>
+        <v>9226.3968708662287</v>
       </c>
       <c r="AJ40" s="59">
-        <f t="shared" ref="AJ40" si="76">AJ35-AJ39</f>
-        <v>22951.294013917781</v>
+        <f t="shared" ref="AJ40" si="74">AJ35-AJ39</f>
+        <v>8835.5932298748958</v>
       </c>
       <c r="AK40" s="59">
-        <f t="shared" ref="AK40" si="77">AK35-AK39</f>
-        <v>22537.347062853456</v>
+        <f t="shared" ref="AK40" si="75">AK35-AK39</f>
+        <v>8427.9394873894198</v>
       </c>
       <c r="AL40" s="59">
-        <f t="shared" ref="AL40" si="78">AL35-AL39</f>
-        <v>22109.526422824347</v>
+        <f t="shared" ref="AL40" si="76">AL35-AL39</f>
+        <v>8003.5259836964833</v>
       </c>
       <c r="AM40" s="59">
-        <f t="shared" ref="AM40" si="79">AM35-AM39</f>
-        <v>21667.888041329788</v>
+        <f t="shared" ref="AM40" si="77">AM35-AM39</f>
+        <v>7562.4387856596586</v>
       </c>
       <c r="AN40" s="59">
-        <f t="shared" ref="AN40" si="80">AN35-AN39</f>
-        <v>21212.484531656461</v>
+        <f t="shared" ref="AN40" si="78">AN35-AN39</f>
+        <v>7104.759747521719</v>
       </c>
       <c r="AO40" s="59">
-        <f t="shared" ref="AO40" si="81">AO35-AO39</f>
-        <v>20743.365217409926</v>
+        <f t="shared" ref="AO40" si="79">AO35-AO39</f>
+        <v>6630.5665702439874</v>
       </c>
       <c r="AP40" s="59">
-        <f t="shared" ref="AP40" si="82">AP35-AP39</f>
-        <v>20260.576175933849</v>
-      </c>
-    </row>
-    <row r="41" spans="1:42">
+        <f t="shared" ref="AP40" si="80">AP35-AP39</f>
+        <v>6139.9328594102408</v>
+      </c>
+      <c r="AQ40" s="59">
+        <f t="shared" ref="AQ40" si="81">AQ35-AQ39</f>
+        <v>5632.9281817206793</v>
+      </c>
+      <c r="AR40" s="59">
+        <f t="shared" ref="AR40" si="82">AR35-AR39</f>
+        <v>5109.618120101557</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44">
       <c r="A41" s="53" t="s">
         <v>3</v>
       </c>
@@ -5924,7 +5998,7 @@
         <v>188</v>
       </c>
       <c r="E41" s="53">
-        <f>Z41-B41-C41-D41</f>
+        <f>AB41-B41-C41-D41</f>
         <v>125</v>
       </c>
       <c r="F41" s="53">
@@ -5937,7 +6011,7 @@
         <v>11</v>
       </c>
       <c r="I41" s="53">
-        <f>AA41-H41-G41-F41</f>
+        <f>AC41-H41-G41-F41</f>
         <v>42</v>
       </c>
       <c r="J41" s="53">
@@ -5949,177 +6023,177 @@
       <c r="L41" s="59">
         <v>128</v>
       </c>
-      <c r="M41" s="59">
+      <c r="M41" s="114">
         <v>615</v>
       </c>
-      <c r="N41" s="59">
-        <f t="shared" ref="N41:U41" si="83">AVERAGE(J41:M41)</f>
-        <v>217.75</v>
-      </c>
-      <c r="O41" s="59">
+      <c r="N41" s="114">
+        <v>559</v>
+      </c>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59">
+        <f>AVERAGE(K41:N41)</f>
+        <v>354.75</v>
+      </c>
+      <c r="R41" s="59">
+        <f>AVERAGE(L41:Q41)</f>
+        <v>414.1875</v>
+      </c>
+      <c r="S41" s="59">
+        <f>AVERAGE(M41:R41)</f>
+        <v>485.734375</v>
+      </c>
+      <c r="T41" s="59">
+        <f>AVERAGE(N41:S41)</f>
+        <v>453.41796875</v>
+      </c>
+      <c r="U41" s="59">
+        <f t="shared" ref="N41:W41" si="83">AVERAGE(Q41:T41)</f>
+        <v>427.0224609375</v>
+      </c>
+      <c r="V41" s="59">
         <f t="shared" si="83"/>
-        <v>269.4375</v>
-      </c>
-      <c r="P41" s="59">
+        <v>445.090576171875</v>
+      </c>
+      <c r="W41" s="59">
         <f t="shared" si="83"/>
-        <v>307.546875</v>
-      </c>
-      <c r="Q41" s="59">
-        <f t="shared" si="83"/>
-        <v>352.43359375</v>
-      </c>
-      <c r="R41" s="59">
-        <f t="shared" si="83"/>
-        <v>286.7919921875</v>
-      </c>
-      <c r="S41" s="59">
-        <f t="shared" si="83"/>
-        <v>304.052490234375</v>
-      </c>
-      <c r="T41" s="59">
-        <f t="shared" si="83"/>
-        <v>312.70623779296875</v>
-      </c>
-      <c r="U41" s="59">
-        <f t="shared" si="83"/>
-        <v>313.99607849121094</v>
-      </c>
-      <c r="Y41" s="53">
+        <v>452.81634521484375</v>
+      </c>
+      <c r="AA41" s="53">
         <v>4996</v>
       </c>
-      <c r="Z41" s="53">
+      <c r="AB41" s="53">
         <v>1342</v>
       </c>
-      <c r="AA41" s="53">
+      <c r="AC41" s="53">
         <v>163</v>
       </c>
-      <c r="AB41" s="59">
+      <c r="AD41" s="59">
         <f>J41+K41+L41+M41</f>
         <v>871</v>
       </c>
-      <c r="AC41" s="59">
-        <f>SUM(N41:Q41)</f>
-        <v>1147.16796875</v>
-      </c>
-      <c r="AD41" s="59">
-        <f>SUM(R41:U41)</f>
-        <v>1217.5467987060547</v>
-      </c>
       <c r="AE41" s="59">
-        <f>AD41</f>
-        <v>1217.5467987060547</v>
+        <f>SUM(N41:S41)</f>
+        <v>1813.671875</v>
       </c>
       <c r="AF41" s="59">
-        <f t="shared" ref="AF41:AP41" si="84">AE41</f>
-        <v>1217.5467987060547</v>
+        <f>SUM(T41:W41)</f>
+        <v>1778.3473510742188</v>
       </c>
       <c r="AG41" s="59">
-        <f t="shared" si="84"/>
-        <v>1217.5467987060547</v>
+        <f>AF41</f>
+        <v>1778.3473510742188</v>
       </c>
       <c r="AH41" s="59">
-        <f t="shared" si="84"/>
-        <v>1217.5467987060547</v>
+        <f t="shared" ref="AH41:AR41" si="84">AG41</f>
+        <v>1778.3473510742188</v>
       </c>
       <c r="AI41" s="59">
         <f t="shared" si="84"/>
-        <v>1217.5467987060547</v>
+        <v>1778.3473510742188</v>
       </c>
       <c r="AJ41" s="59">
         <f t="shared" si="84"/>
-        <v>1217.5467987060547</v>
+        <v>1778.3473510742188</v>
       </c>
       <c r="AK41" s="59">
         <f t="shared" si="84"/>
-        <v>1217.5467987060547</v>
+        <v>1778.3473510742188</v>
       </c>
       <c r="AL41" s="59">
         <f t="shared" si="84"/>
-        <v>1217.5467987060547</v>
+        <v>1778.3473510742188</v>
       </c>
       <c r="AM41" s="59">
         <f t="shared" si="84"/>
-        <v>1217.5467987060547</v>
+        <v>1778.3473510742188</v>
       </c>
       <c r="AN41" s="59">
         <f t="shared" si="84"/>
-        <v>1217.5467987060547</v>
+        <v>1778.3473510742188</v>
       </c>
       <c r="AO41" s="59">
         <f t="shared" si="84"/>
-        <v>1217.5467987060547</v>
+        <v>1778.3473510742188</v>
       </c>
       <c r="AP41" s="59">
         <f t="shared" si="84"/>
-        <v>1217.5467987060547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42">
+        <v>1778.3473510742188</v>
+      </c>
+      <c r="AQ41" s="59">
+        <f t="shared" si="84"/>
+        <v>1778.3473510742188</v>
+      </c>
+      <c r="AR41" s="59">
+        <f t="shared" si="84"/>
+        <v>1778.3473510742188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44">
       <c r="A42" s="53" t="s">
         <v>137</v>
       </c>
       <c r="L42" s="59"/>
-      <c r="M42" s="59">
+      <c r="M42" s="114">
         <v>-901</v>
       </c>
-      <c r="N42" s="59">
-        <f>-N43/4*N73</f>
-        <v>-726.44400000000007</v>
-      </c>
-      <c r="O42" s="59">
-        <f t="shared" ref="O42:U42" si="85">-O43/4*O73</f>
-        <v>-726.44400000000007</v>
-      </c>
-      <c r="P42" s="59">
-        <f t="shared" si="85"/>
-        <v>-726.44400000000007</v>
-      </c>
+      <c r="N42" s="114">
+        <v>-943</v>
+      </c>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
       <c r="Q42" s="59">
-        <f t="shared" si="85"/>
-        <v>-726.44400000000007</v>
+        <f t="shared" ref="Q42:W42" si="85">-Q43/4*Q73</f>
+        <v>-735.42000000000007</v>
       </c>
       <c r="R42" s="59">
         <f t="shared" si="85"/>
-        <v>-619.61399999999992</v>
+        <v>-735.42000000000007</v>
       </c>
       <c r="S42" s="59">
         <f t="shared" si="85"/>
-        <v>-619.61399999999992</v>
+        <v>-735.42000000000007</v>
       </c>
       <c r="T42" s="59">
         <f t="shared" si="85"/>
-        <v>-619.61399999999992</v>
+        <v>-627.27</v>
       </c>
       <c r="U42" s="59">
         <f t="shared" si="85"/>
-        <v>-619.61399999999992</v>
-      </c>
-      <c r="AB42" s="59">
+        <v>-627.27</v>
+      </c>
+      <c r="V42" s="59">
+        <f t="shared" si="85"/>
+        <v>-627.27</v>
+      </c>
+      <c r="W42" s="59">
+        <f t="shared" si="85"/>
+        <v>-627.27</v>
+      </c>
+      <c r="AD42" s="59">
         <f>J42+K42+L42+M42</f>
         <v>-901</v>
       </c>
-      <c r="AC42" s="59">
-        <f>SUM(N42:Q42)</f>
-        <v>-2905.7760000000003</v>
-      </c>
-      <c r="AD42" s="59">
-        <f>SUM(R42:U42)</f>
-        <v>-2478.4559999999997</v>
-      </c>
       <c r="AE42" s="59">
-        <f>AD42</f>
-        <v>-2478.4559999999997</v>
+        <f>SUM(N42:S42)</f>
+        <v>-3149.26</v>
       </c>
       <c r="AF42" s="59">
-        <f>AE42</f>
-        <v>-2478.4559999999997</v>
+        <f>SUM(T42:W42)</f>
+        <v>-2509.08</v>
       </c>
       <c r="AG42" s="59">
         <f>AF42</f>
-        <v>-2478.4559999999997</v>
-      </c>
-      <c r="AH42" s="59"/>
-      <c r="AI42" s="59"/>
+        <v>-2509.08</v>
+      </c>
+      <c r="AH42" s="59">
+        <f>AG42</f>
+        <v>-2509.08</v>
+      </c>
+      <c r="AI42" s="59">
+        <f>AH42</f>
+        <v>-2509.08</v>
+      </c>
       <c r="AJ42" s="59"/>
       <c r="AK42" s="59"/>
       <c r="AL42" s="59"/>
@@ -6127,8 +6201,10 @@
       <c r="AN42" s="59"/>
       <c r="AO42" s="59"/>
       <c r="AP42" s="59"/>
-    </row>
-    <row r="43" spans="1:42">
+      <c r="AQ42" s="59"/>
+      <c r="AR42" s="59"/>
+    </row>
+    <row r="43" spans="1:44">
       <c r="A43" s="53" t="s">
         <v>138</v>
       </c>
@@ -6141,36 +6217,36 @@
         <f>0.045+0.057</f>
         <v>0.10200000000000001</v>
       </c>
-      <c r="O43" s="68">
-        <f t="shared" ref="O43:Q43" si="86">0.045+0.057</f>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68">
+        <f t="shared" ref="Q43:S43" si="86">0.045+0.057</f>
         <v>0.10200000000000001</v>
       </c>
-      <c r="P43" s="68">
+      <c r="R43" s="68">
         <f t="shared" si="86"/>
         <v>0.10200000000000001</v>
       </c>
-      <c r="Q43" s="68">
+      <c r="S43" s="68">
         <f t="shared" si="86"/>
         <v>0.10200000000000001</v>
       </c>
-      <c r="R43" s="68">
-        <f t="shared" ref="R43:U43" si="87">0.03+0.057</f>
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="S43" s="68">
-        <f t="shared" si="87"/>
-        <v>8.6999999999999994E-2</v>
-      </c>
       <c r="T43" s="68">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="T43:W43" si="87">0.03+0.057</f>
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="U43" s="68">
         <f t="shared" si="87"/>
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="AB43" s="59"/>
-      <c r="AC43" s="59"/>
+      <c r="V43" s="68">
+        <f t="shared" si="87"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="W43" s="68">
+        <f t="shared" si="87"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
       <c r="AD43" s="59"/>
       <c r="AE43" s="59"/>
       <c r="AF43" s="59"/>
@@ -6184,8 +6260,10 @@
       <c r="AN43" s="59"/>
       <c r="AO43" s="59"/>
       <c r="AP43" s="59"/>
-    </row>
-    <row r="44" spans="1:42">
+      <c r="AQ43" s="59"/>
+      <c r="AR43" s="59"/>
+    </row>
+    <row r="44" spans="1:44">
       <c r="A44" s="53" t="s">
         <v>4</v>
       </c>
@@ -6199,7 +6277,7 @@
         <v>-9131</v>
       </c>
       <c r="E44" s="53">
-        <f>Z44-B44-C44-D44</f>
+        <f>AB44-B44-C44-D44</f>
         <v>12780</v>
       </c>
       <c r="F44" s="53">
@@ -6212,7 +6290,7 @@
         <v>9</v>
       </c>
       <c r="I44" s="53">
-        <f>AA44-H44-G44-F44</f>
+        <f>AC44-H44-G44-F44</f>
         <v>-2944</v>
       </c>
       <c r="J44" s="53">
@@ -6224,112 +6302,113 @@
       <c r="L44" s="59">
         <v>-443</v>
       </c>
-      <c r="M44" s="59">
+      <c r="M44" s="114">
         <v>202</v>
       </c>
       <c r="N44" s="59">
-        <f>M44*0.97</f>
-        <v>195.94</v>
-      </c>
-      <c r="O44" s="59">
-        <f t="shared" ref="O44:U44" si="88">N44*0.97</f>
-        <v>190.06180000000001</v>
-      </c>
-      <c r="P44" s="59">
-        <f t="shared" si="88"/>
-        <v>184.35994600000001</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
       <c r="Q44" s="59">
-        <f t="shared" si="88"/>
-        <v>178.82914762000001</v>
+        <f>N44*0.97</f>
+        <v>240.56</v>
       </c>
       <c r="R44" s="59">
-        <f t="shared" si="88"/>
-        <v>173.4642731914</v>
+        <f t="shared" ref="R44:W44" si="88">Q44*0.97</f>
+        <v>233.3432</v>
       </c>
       <c r="S44" s="59">
         <f t="shared" si="88"/>
-        <v>168.26034499565799</v>
+        <v>226.34290399999998</v>
       </c>
       <c r="T44" s="59">
         <f t="shared" si="88"/>
-        <v>163.21253464578825</v>
+        <v>219.55261687999996</v>
       </c>
       <c r="U44" s="59">
         <f t="shared" si="88"/>
-        <v>158.3161586064146</v>
-      </c>
-      <c r="Y44" s="53">
+        <v>212.96603837359996</v>
+      </c>
+      <c r="V44" s="59">
+        <f t="shared" si="88"/>
+        <v>206.57705722239194</v>
+      </c>
+      <c r="W44" s="59">
+        <f t="shared" si="88"/>
+        <v>200.37974550572017</v>
+      </c>
+      <c r="AA44" s="53">
         <v>-8892</v>
       </c>
-      <c r="Z44" s="53">
+      <c r="AB44" s="53">
         <v>-2940</v>
       </c>
-      <c r="AA44" s="53">
+      <c r="AC44" s="53">
         <v>-10892</v>
       </c>
-      <c r="AB44" s="59">
+      <c r="AD44" s="59">
         <f>J44+K44+L44+M44</f>
         <v>-5332</v>
       </c>
-      <c r="AC44" s="59">
-        <f>SUM(N44:Q44)</f>
-        <v>749.19089362</v>
-      </c>
-      <c r="AD44" s="59">
-        <f>SUM(R44:U44)</f>
-        <v>663.25331143926087</v>
-      </c>
       <c r="AE44" s="59">
-        <f>AVERAGE(AA44:AD44)*0.68</f>
-        <v>-2517.9644851399257</v>
+        <f>SUM(N44:S44)</f>
+        <v>948.24610399999995</v>
       </c>
       <c r="AF44" s="59">
-        <f t="shared" ref="AF44:AP44" si="89">AVERAGE(AB44:AE44)*0.68</f>
-        <v>-1094.3784476137132</v>
+        <f>SUM(T44:W44)</f>
+        <v>839.475457981712</v>
       </c>
       <c r="AG44" s="59">
-        <f t="shared" si="89"/>
-        <v>-373.98278370804428</v>
+        <f>AVERAGE(AC44:AF44)*0.68</f>
+        <v>-2454.167334463109</v>
       </c>
       <c r="AH44" s="59">
-        <f t="shared" si="89"/>
-        <v>-564.92230885381184</v>
+        <f t="shared" ref="AH44:AR44" si="89">AVERAGE(AD44:AG44)*0.68</f>
+        <v>-1019.7357813218376</v>
       </c>
       <c r="AI44" s="59">
         <f t="shared" si="89"/>
-        <v>-773.71216430363415</v>
+        <v>-286.65086414654991</v>
       </c>
       <c r="AJ44" s="59">
         <f t="shared" si="89"/>
-        <v>-477.18926976146463</v>
+        <v>-496.58334873146339</v>
       </c>
       <c r="AK44" s="59">
         <f t="shared" si="89"/>
-        <v>-372.26710952658237</v>
+        <v>-723.71334587270314</v>
       </c>
       <c r="AL44" s="59">
         <f t="shared" si="89"/>
-        <v>-371.97544491573387</v>
+        <v>-429.53616781233421</v>
       </c>
       <c r="AM44" s="59">
         <f t="shared" si="89"/>
-        <v>-339.17447804626062</v>
+        <v>-329.2022335157186</v>
       </c>
       <c r="AN44" s="59">
         <f t="shared" si="89"/>
-        <v>-265.30307138250703</v>
+        <v>-336.43596630847736</v>
       </c>
       <c r="AO44" s="59">
         <f t="shared" si="89"/>
-        <v>-229.28241765808431</v>
+        <v>-309.21091129656969</v>
       </c>
       <c r="AP44" s="59">
         <f t="shared" si="89"/>
-        <v>-204.97502004043957</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42">
+        <v>-238.745497418627</v>
+      </c>
+      <c r="AQ44" s="59">
+        <f t="shared" si="89"/>
+        <v>-206.31108345169676</v>
+      </c>
+      <c r="AR44" s="59">
+        <f t="shared" si="89"/>
+        <v>-185.41958794081305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44">
       <c r="A45" s="53" t="s">
         <v>65</v>
       </c>
@@ -6338,7 +6417,7 @@
         <v>-40617</v>
       </c>
       <c r="C45" s="59">
-        <f t="shared" ref="C45:U45" si="90">C40+C41+C44</f>
+        <f t="shared" ref="C45:W45" si="90">C40+C41+C44</f>
         <v>-32220</v>
       </c>
       <c r="D45" s="59">
@@ -6382,111 +6461,113 @@
         <v>-11729</v>
       </c>
       <c r="N45" s="59">
-        <f>N40+N41+N44</f>
-        <v>-3063.4252062362325</v>
-      </c>
-      <c r="O45" s="59">
-        <f t="shared" si="90"/>
-        <v>437.85292309348057</v>
-      </c>
-      <c r="P45" s="59">
-        <f t="shared" si="90"/>
-        <v>3909.2135998189219</v>
-      </c>
+        <f>N40+N41+N44+N42</f>
+        <v>-5006</v>
+      </c>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
       <c r="Q45" s="59">
         <f t="shared" si="90"/>
-        <v>2920.273286442648</v>
+        <v>-2466.5841769065205</v>
       </c>
       <c r="R45" s="59">
         <f t="shared" si="90"/>
-        <v>2191.6477816001143</v>
+        <v>858.39750481892111</v>
       </c>
       <c r="S45" s="59">
         <f t="shared" si="90"/>
-        <v>1508.3007850266506</v>
+        <v>-284.06942134735175</v>
       </c>
       <c r="T45" s="59">
         <f t="shared" si="90"/>
-        <v>776.80042526365423</v>
+        <v>-1105.152488259783</v>
       </c>
       <c r="U45" s="59">
         <f t="shared" si="90"/>
-        <v>-3.6293893915587319</v>
-      </c>
-      <c r="Y45" s="53">
-        <f>Y40+Y41+Y44</f>
+        <v>-1963.6643477530315</v>
+      </c>
+      <c r="V45" s="59">
+        <f t="shared" si="90"/>
+        <v>-2823.2705325012648</v>
+      </c>
+      <c r="W45" s="59">
+        <f t="shared" si="90"/>
+        <v>-3741.0952972618807</v>
+      </c>
+      <c r="AA45" s="53">
+        <f>AA40+AA41+AA44</f>
         <v>-144594</v>
       </c>
-      <c r="Z45" s="53">
-        <f t="shared" ref="Z45:AB45" si="92">Z40+Z41+Z44</f>
+      <c r="AB45" s="53">
+        <f t="shared" ref="AB45:AD45" si="92">AB40+AB41+AB44</f>
         <v>-171292</v>
       </c>
-      <c r="AA45" s="53">
+      <c r="AC45" s="53">
         <f t="shared" si="92"/>
         <v>-158432</v>
       </c>
-      <c r="AB45" s="59">
+      <c r="AD45" s="59">
         <f t="shared" si="92"/>
         <v>-77159</v>
       </c>
-      <c r="AC45" s="59">
-        <f t="shared" ref="AC45" si="93">AC40+AC41+AC44</f>
-        <v>4203.9146031188084</v>
-      </c>
-      <c r="AD45" s="59">
-        <f t="shared" ref="AD45" si="94">AD40+AD41+AD44</f>
-        <v>4473.1196024988494</v>
-      </c>
       <c r="AE45" s="59">
-        <f t="shared" ref="AE45" si="95">AE40+AE41+AE44</f>
-        <v>7365.0102836871902</v>
+        <f t="shared" ref="AE45" si="93">AE40+AE41+AE44</f>
+        <v>-5955.2560934349367</v>
       </c>
       <c r="AF45" s="59">
-        <f t="shared" ref="AF45" si="96">AF40+AF41+AF44</f>
-        <v>18642.007337707179</v>
+        <f t="shared" ref="AF45" si="94">AF40+AF41+AF44</f>
+        <v>-9633.182665775963</v>
       </c>
       <c r="AG45" s="59">
-        <f t="shared" ref="AG45" si="97">AG40+AG41+AG44</f>
-        <v>24952.846293088303</v>
+        <f t="shared" ref="AG45" si="95">AG40+AG41+AG44</f>
+        <v>-6864.0472944647299</v>
       </c>
       <c r="AH45" s="59">
-        <f t="shared" ref="AH45" si="98">AH40+AH41+AH44</f>
-        <v>24389.950602803379</v>
+        <f t="shared" ref="AH45" si="96">AH40+AH41+AH44</f>
+        <v>4410.5995993055431</v>
       </c>
       <c r="AI45" s="59">
-        <f t="shared" ref="AI45" si="99">AI40+AI41+AI44</f>
-        <v>23795.142583043187</v>
+        <f t="shared" ref="AI45" si="97">AI40+AI41+AI44</f>
+        <v>10718.093357793898</v>
       </c>
       <c r="AJ45" s="59">
-        <f t="shared" ref="AJ45" si="100">AJ40+AJ41+AJ44</f>
-        <v>23691.651542862372</v>
+        <f t="shared" ref="AJ45" si="98">AJ40+AJ41+AJ44</f>
+        <v>10117.357232217651</v>
       </c>
       <c r="AK45" s="59">
-        <f t="shared" ref="AK45" si="101">AK40+AK41+AK44</f>
-        <v>23382.626752032927</v>
+        <f t="shared" ref="AK45" si="99">AK40+AK41+AK44</f>
+        <v>9482.5734925909346</v>
       </c>
       <c r="AL45" s="59">
-        <f t="shared" ref="AL45" si="102">AL40+AL41+AL44</f>
-        <v>22955.097776614668</v>
+        <f t="shared" ref="AL45" si="100">AL40+AL41+AL44</f>
+        <v>9352.3371669583685</v>
       </c>
       <c r="AM45" s="59">
-        <f t="shared" ref="AM45" si="103">AM40+AM41+AM44</f>
-        <v>22546.260361989582</v>
+        <f t="shared" ref="AM45" si="101">AM40+AM41+AM44</f>
+        <v>9011.5839032181593</v>
       </c>
       <c r="AN45" s="59">
-        <f t="shared" ref="AN45" si="104">AN40+AN41+AN44</f>
-        <v>22164.728258980009</v>
+        <f t="shared" ref="AN45" si="102">AN40+AN41+AN44</f>
+        <v>8546.6711322874598</v>
       </c>
       <c r="AO45" s="59">
-        <f t="shared" ref="AO45" si="105">AO40+AO41+AO44</f>
-        <v>21731.629598457897</v>
+        <f t="shared" ref="AO45" si="103">AO40+AO41+AO44</f>
+        <v>8099.7030100216361</v>
       </c>
       <c r="AP45" s="59">
-        <f t="shared" ref="AP45" si="106">AP40+AP41+AP44</f>
-        <v>21273.147954599466</v>
-      </c>
-    </row>
-    <row r="46" spans="1:42">
+        <f t="shared" ref="AP45" si="104">AP40+AP41+AP44</f>
+        <v>7679.5347130658329</v>
+      </c>
+      <c r="AQ45" s="59">
+        <f t="shared" ref="AQ45" si="105">AQ40+AQ41+AQ44</f>
+        <v>7204.9644493432015</v>
+      </c>
+      <c r="AR45" s="59">
+        <f t="shared" ref="AR45" si="106">AR40+AR41+AR44</f>
+        <v>6702.5458832349623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44">
       <c r="A46" s="53" t="s">
         <v>5</v>
       </c>
@@ -6497,7 +6578,7 @@
         <v>-6</v>
       </c>
       <c r="E46" s="53">
-        <f>Z46-B46-C46-D46</f>
+        <f>AB46-B46-C46-D46</f>
         <v>75</v>
       </c>
       <c r="F46" s="53">
@@ -6507,7 +6588,7 @@
         <v>-16</v>
       </c>
       <c r="I46" s="53">
-        <f>AA46-H46-G46-F46</f>
+        <f>AC46-H46-G46-F46</f>
         <v>5</v>
       </c>
       <c r="J46" s="53">
@@ -6519,112 +6600,109 @@
       <c r="L46" s="59">
         <v>-16</v>
       </c>
-      <c r="M46" s="59">
-        <v>0</v>
-      </c>
-      <c r="N46" s="59">
-        <f t="shared" ref="N46:O46" si="107">AVERAGE(J46:M46)</f>
-        <v>-11.25</v>
-      </c>
-      <c r="O46" s="59">
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59">
+        <f>AVERAGE(K46:N46)</f>
+        <v>-14.5</v>
+      </c>
+      <c r="R46" s="59">
+        <f>-0.2*R45</f>
+        <v>-171.67950096378422</v>
+      </c>
+      <c r="S46" s="59">
+        <f t="shared" ref="S46:W46" si="107">-0.2*S45</f>
+        <v>56.81388426947035</v>
+      </c>
+      <c r="T46" s="59">
         <f t="shared" si="107"/>
-        <v>-10.0625</v>
-      </c>
-      <c r="P46" s="59">
-        <f>-0.2*P45</f>
-        <v>-781.84271996378448</v>
-      </c>
-      <c r="Q46" s="59">
-        <f t="shared" ref="Q46:U46" si="108">-0.2*Q45</f>
-        <v>-584.0546572885296</v>
-      </c>
-      <c r="R46" s="59">
-        <f t="shared" si="108"/>
-        <v>-438.3295563200229</v>
-      </c>
-      <c r="S46" s="59">
-        <f t="shared" si="108"/>
-        <v>-301.66015700533012</v>
-      </c>
-      <c r="T46" s="59">
-        <f t="shared" si="108"/>
-        <v>-155.36008505273085</v>
+        <v>221.03049765195661</v>
       </c>
       <c r="U46" s="59">
-        <f t="shared" si="108"/>
-        <v>0.72587787831174644</v>
-      </c>
-      <c r="Y46" s="53">
+        <f t="shared" si="107"/>
+        <v>392.73286955060632</v>
+      </c>
+      <c r="V46" s="59">
+        <f t="shared" si="107"/>
+        <v>564.65410650025296</v>
+      </c>
+      <c r="W46" s="59">
+        <f t="shared" si="107"/>
+        <v>748.2190594523762</v>
+      </c>
+      <c r="AA46" s="53">
         <v>9208</v>
       </c>
-      <c r="Z46" s="53">
+      <c r="AB46" s="53">
         <v>60</v>
       </c>
-      <c r="AA46" s="53">
+      <c r="AC46" s="53">
         <v>-4</v>
       </c>
-      <c r="AB46" s="59">
+      <c r="AD46" s="59">
         <f>J46+K46+L46+M46</f>
         <v>-45</v>
       </c>
-      <c r="AC46" s="59">
-        <f>SUM(N46:Q46)</f>
-        <v>-1387.2098772523141</v>
-      </c>
-      <c r="AD46" s="59">
-        <f>SUM(R46:U46)</f>
-        <v>-894.62392049977211</v>
-      </c>
       <c r="AE46" s="59">
-        <f>-AE45*0.2</f>
-        <v>-1473.0020567374381</v>
+        <f>SUM(N46:S46)</f>
+        <v>-129.36561669431387</v>
       </c>
       <c r="AF46" s="59">
-        <f t="shared" ref="AF46:AP46" si="109">-AF45*0.2</f>
-        <v>-3728.401467541436</v>
+        <f>SUM(T46:W46)</f>
+        <v>1926.636533155192</v>
       </c>
       <c r="AG46" s="59">
-        <f t="shared" si="109"/>
-        <v>-4990.569258617661</v>
+        <f>-AG45*0.2</f>
+        <v>1372.8094588929462</v>
       </c>
       <c r="AH46" s="59">
-        <f t="shared" si="109"/>
-        <v>-4877.9901205606757</v>
+        <f t="shared" ref="AH46:AR46" si="108">-AH45*0.2</f>
+        <v>-882.11991986110866</v>
       </c>
       <c r="AI46" s="59">
-        <f t="shared" si="109"/>
-        <v>-4759.0285166086378</v>
+        <f t="shared" si="108"/>
+        <v>-2143.6186715587796</v>
       </c>
       <c r="AJ46" s="59">
-        <f t="shared" si="109"/>
-        <v>-4738.3303085724747</v>
+        <f t="shared" si="108"/>
+        <v>-2023.4714464435303</v>
       </c>
       <c r="AK46" s="59">
-        <f t="shared" si="109"/>
-        <v>-4676.5253504065859</v>
+        <f t="shared" si="108"/>
+        <v>-1896.5146985181871</v>
       </c>
       <c r="AL46" s="59">
-        <f t="shared" si="109"/>
-        <v>-4591.0195553229341</v>
+        <f t="shared" si="108"/>
+        <v>-1870.4674333916737</v>
       </c>
       <c r="AM46" s="59">
-        <f t="shared" si="109"/>
-        <v>-4509.2520723979169</v>
+        <f t="shared" si="108"/>
+        <v>-1802.316780643632</v>
       </c>
       <c r="AN46" s="59">
-        <f t="shared" si="109"/>
-        <v>-4432.9456517960016</v>
+        <f t="shared" si="108"/>
+        <v>-1709.3342264574922</v>
       </c>
       <c r="AO46" s="59">
-        <f t="shared" si="109"/>
-        <v>-4346.3259196915797</v>
+        <f t="shared" si="108"/>
+        <v>-1619.9406020043273</v>
       </c>
       <c r="AP46" s="59">
-        <f t="shared" si="109"/>
-        <v>-4254.6295909198934</v>
-      </c>
-    </row>
-    <row r="47" spans="1:42">
+        <f t="shared" si="108"/>
+        <v>-1535.9069426131666</v>
+      </c>
+      <c r="AQ46" s="59">
+        <f t="shared" si="108"/>
+        <v>-1440.9928898686403</v>
+      </c>
+      <c r="AR46" s="59">
+        <f t="shared" si="108"/>
+        <v>-1340.5091766469925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44">
       <c r="A47" s="53" t="s">
         <v>6</v>
       </c>
@@ -6638,7 +6716,7 @@
         <v>66</v>
       </c>
       <c r="E47" s="53">
-        <f>Z47-B47-C47-D47</f>
+        <f>AB47-B47-C47-D47</f>
         <v>10149</v>
       </c>
       <c r="F47" s="53">
@@ -6662,26 +6740,29 @@
       <c r="L47" s="53">
         <v>4</v>
       </c>
-      <c r="M47" s="53">
+      <c r="M47" s="115">
         <v>2742</v>
       </c>
-      <c r="Y47" s="53">
+      <c r="N47" s="53">
+        <v>-1</v>
+      </c>
+      <c r="AA47" s="53">
         <v>22697</v>
       </c>
-      <c r="Z47" s="53">
+      <c r="AB47" s="53">
         <v>10404</v>
       </c>
-      <c r="AA47" s="53">
+      <c r="AC47" s="53">
         <v>-192</v>
       </c>
-      <c r="AB47" s="59">
+      <c r="AD47" s="59">
         <f>J47+K47+L47+M47</f>
         <v>2703</v>
       </c>
-      <c r="AC47" s="65"/>
-      <c r="AD47" s="65"/>
-    </row>
-    <row r="48" spans="1:42" s="55" customFormat="1">
+      <c r="AE47" s="65"/>
+      <c r="AF47" s="65"/>
+    </row>
+    <row r="48" spans="1:44" s="55" customFormat="1">
       <c r="A48" s="55" t="s">
         <v>66</v>
       </c>
@@ -6690,155 +6771,157 @@
         <v>-40572</v>
       </c>
       <c r="C48" s="65">
-        <f t="shared" ref="C48:U48" si="110">C45+C46+C47</f>
+        <f t="shared" ref="C48:W48" si="109">C45+C46+C47</f>
         <v>-32085</v>
       </c>
       <c r="D48" s="65">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-48452</v>
       </c>
       <c r="E48" s="65">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-39719</v>
       </c>
       <c r="F48" s="65">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-35697</v>
       </c>
       <c r="G48" s="65">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-50132</v>
       </c>
       <c r="H48" s="65">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-33084</v>
       </c>
       <c r="I48" s="65">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-39714</v>
       </c>
       <c r="J48" s="65">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-15442</v>
       </c>
       <c r="K48" s="65">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-29048</v>
       </c>
       <c r="L48" s="65">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-21925</v>
       </c>
       <c r="M48" s="65">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-8987</v>
       </c>
       <c r="N48" s="65">
-        <f t="shared" si="110"/>
-        <v>-3074.6752062362325</v>
-      </c>
-      <c r="O48" s="65">
-        <f t="shared" si="110"/>
-        <v>427.79042309348057</v>
-      </c>
-      <c r="P48" s="65">
-        <f t="shared" si="110"/>
-        <v>3127.3708798551374</v>
-      </c>
+        <f>N45+N46+N47</f>
+        <v>-5007</v>
+      </c>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
       <c r="Q48" s="65">
-        <f t="shared" si="110"/>
-        <v>2336.2186291541184</v>
+        <f t="shared" si="109"/>
+        <v>-2481.0841769065205</v>
       </c>
       <c r="R48" s="65">
-        <f t="shared" si="110"/>
-        <v>1753.3182252800914</v>
+        <f t="shared" si="109"/>
+        <v>686.71800385513689</v>
       </c>
       <c r="S48" s="65">
-        <f t="shared" si="110"/>
-        <v>1206.6406280213205</v>
+        <f t="shared" si="109"/>
+        <v>-227.2555370778814</v>
       </c>
       <c r="T48" s="65">
-        <f t="shared" si="110"/>
-        <v>621.44034021092341</v>
+        <f t="shared" si="109"/>
+        <v>-884.12199060782643</v>
       </c>
       <c r="U48" s="65">
-        <f t="shared" si="110"/>
-        <v>-2.9035115132469853</v>
-      </c>
-      <c r="Y48" s="65">
-        <f t="shared" ref="Y48" si="111">Y45+Y46+Y47</f>
+        <f t="shared" si="109"/>
+        <v>-1570.9314782024253</v>
+      </c>
+      <c r="V48" s="65">
+        <f t="shared" si="109"/>
+        <v>-2258.6164260010119</v>
+      </c>
+      <c r="W48" s="65">
+        <f t="shared" si="109"/>
+        <v>-2992.8762378095043</v>
+      </c>
+      <c r="AA48" s="65">
+        <f t="shared" ref="AA48" si="110">AA45+AA46+AA47</f>
         <v>-112689</v>
       </c>
-      <c r="Z48" s="65">
-        <f t="shared" ref="Z48" si="112">Z45+Z46+Z47</f>
+      <c r="AB48" s="65">
+        <f t="shared" ref="AB48" si="111">AB45+AB46+AB47</f>
         <v>-160828</v>
       </c>
-      <c r="AA48" s="65">
-        <f t="shared" ref="AA48:AB48" si="113">AA45+AA46+AA47</f>
+      <c r="AC48" s="65">
+        <f t="shared" ref="AC48:AD48" si="112">AC45+AC46+AC47</f>
         <v>-158628</v>
       </c>
-      <c r="AB48" s="65">
-        <f t="shared" si="113"/>
+      <c r="AD48" s="65">
+        <f t="shared" si="112"/>
         <v>-74501</v>
       </c>
-      <c r="AC48" s="65">
-        <f t="shared" ref="AC48" si="114">AC45+AC46+AC47</f>
-        <v>2816.7047258664943</v>
-      </c>
-      <c r="AD48" s="65">
-        <f t="shared" ref="AD48" si="115">AD45+AD46+AD47</f>
-        <v>3578.4956819990775</v>
-      </c>
       <c r="AE48" s="65">
-        <f t="shared" ref="AE48" si="116">AE45+AE46+AE47</f>
-        <v>5892.0082269497525</v>
+        <f t="shared" ref="AE48" si="113">AE45+AE46+AE47</f>
+        <v>-6084.6217101292505</v>
       </c>
       <c r="AF48" s="65">
-        <f t="shared" ref="AF48" si="117">AF45+AF46+AF47</f>
-        <v>14913.605870165742</v>
+        <f t="shared" ref="AF48" si="114">AF45+AF46+AF47</f>
+        <v>-7706.5461326207715</v>
       </c>
       <c r="AG48" s="65">
-        <f t="shared" ref="AG48" si="118">AG45+AG46+AG47</f>
-        <v>19962.277034470644</v>
+        <f t="shared" ref="AG48" si="115">AG45+AG46+AG47</f>
+        <v>-5491.2378355717838</v>
       </c>
       <c r="AH48" s="65">
-        <f t="shared" ref="AH48" si="119">AH45+AH46+AH47</f>
-        <v>19511.960482242703</v>
+        <f t="shared" ref="AH48" si="116">AH45+AH46+AH47</f>
+        <v>3528.4796794444346</v>
       </c>
       <c r="AI48" s="65">
-        <f t="shared" ref="AI48" si="120">AI45+AI46+AI47</f>
-        <v>19036.114066434551</v>
+        <f t="shared" ref="AI48" si="117">AI45+AI46+AI47</f>
+        <v>8574.4746862351185</v>
       </c>
       <c r="AJ48" s="65">
-        <f t="shared" ref="AJ48" si="121">AJ45+AJ46+AJ47</f>
-        <v>18953.321234289899</v>
+        <f t="shared" ref="AJ48" si="118">AJ45+AJ46+AJ47</f>
+        <v>8093.8857857741214</v>
       </c>
       <c r="AK48" s="65">
-        <f t="shared" ref="AK48" si="122">AK45+AK46+AK47</f>
-        <v>18706.101401626343</v>
+        <f t="shared" ref="AK48" si="119">AK45+AK46+AK47</f>
+        <v>7586.0587940727473</v>
       </c>
       <c r="AL48" s="65">
-        <f t="shared" ref="AL48" si="123">AL45+AL46+AL47</f>
-        <v>18364.078221291733</v>
+        <f t="shared" ref="AL48" si="120">AL45+AL46+AL47</f>
+        <v>7481.8697335666948</v>
       </c>
       <c r="AM48" s="65">
-        <f t="shared" ref="AM48" si="124">AM45+AM46+AM47</f>
-        <v>18037.008289591664</v>
+        <f t="shared" ref="AM48" si="121">AM45+AM46+AM47</f>
+        <v>7209.2671225745271</v>
       </c>
       <c r="AN48" s="65">
-        <f t="shared" ref="AN48" si="125">AN45+AN46+AN47</f>
-        <v>17731.782607184006</v>
+        <f t="shared" ref="AN48" si="122">AN45+AN46+AN47</f>
+        <v>6837.3369058299677</v>
       </c>
       <c r="AO48" s="65">
-        <f t="shared" ref="AO48" si="126">AO45+AO46+AO47</f>
-        <v>17385.303678766319</v>
+        <f t="shared" ref="AO48" si="123">AO45+AO46+AO47</f>
+        <v>6479.7624080173091</v>
       </c>
       <c r="AP48" s="65">
-        <f t="shared" ref="AP48" si="127">AP45+AP46+AP47</f>
-        <v>17018.518363679574</v>
-      </c>
-    </row>
-    <row r="50" spans="1:42">
+        <f t="shared" ref="AP48" si="124">AP45+AP46+AP47</f>
+        <v>6143.6277704526665</v>
+      </c>
+      <c r="AQ48" s="65">
+        <f t="shared" ref="AQ48" si="125">AQ45+AQ46+AQ47</f>
+        <v>5763.9715594745612</v>
+      </c>
+      <c r="AR48" s="65">
+        <f t="shared" ref="AR48" si="126">AR45+AR46+AR47</f>
+        <v>5362.03670658797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44">
       <c r="A50" s="53" t="s">
         <v>68</v>
       </c>
@@ -6847,39 +6930,39 @@
         <v>111.78057099999999</v>
       </c>
       <c r="C50" s="59">
-        <f t="shared" ref="C50:K50" si="128">C52</f>
+        <f t="shared" ref="C50:K50" si="127">C52</f>
         <v>112.61574400000001</v>
       </c>
       <c r="D50" s="59">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>131.455727</v>
       </c>
       <c r="E50" s="59">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>124.386545</v>
       </c>
       <c r="F50" s="59">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>145.371657</v>
       </c>
       <c r="G50" s="59">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>155.243402</v>
       </c>
       <c r="H50" s="59">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>159.26181800000001</v>
       </c>
       <c r="I50" s="59">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>154.861704</v>
       </c>
       <c r="J50" s="59">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>169.73501899999999</v>
       </c>
       <c r="K50" s="59">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>175.566757</v>
       </c>
       <c r="L50" s="59">
@@ -6890,267 +6973,270 @@
         <v>199.539109</v>
       </c>
       <c r="N50" s="59">
-        <f t="shared" ref="N50:U50" si="129">M50</f>
-        <v>199.539109</v>
-      </c>
-      <c r="O50" s="59">
-        <f t="shared" si="129"/>
-        <v>199.539109</v>
-      </c>
-      <c r="P50" s="59">
-        <f t="shared" si="129"/>
-        <v>199.539109</v>
-      </c>
+        <v>201.91806600000001</v>
+      </c>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
       <c r="Q50" s="59">
-        <f t="shared" si="129"/>
-        <v>199.539109</v>
+        <f>N50</f>
+        <v>201.91806600000001</v>
       </c>
       <c r="R50" s="59">
-        <f t="shared" si="129"/>
-        <v>199.539109</v>
+        <f t="shared" ref="N50:W50" si="128">Q50</f>
+        <v>201.91806600000001</v>
       </c>
       <c r="S50" s="59">
-        <f t="shared" si="129"/>
-        <v>199.539109</v>
+        <f t="shared" si="128"/>
+        <v>201.91806600000001</v>
       </c>
       <c r="T50" s="59">
-        <f t="shared" si="129"/>
-        <v>199.539109</v>
+        <f t="shared" si="128"/>
+        <v>201.91806600000001</v>
       </c>
       <c r="U50" s="59">
-        <f t="shared" si="129"/>
-        <v>199.539109</v>
-      </c>
-      <c r="Y50" s="53">
+        <f t="shared" si="128"/>
+        <v>201.91806600000001</v>
+      </c>
+      <c r="V50" s="59">
+        <f t="shared" si="128"/>
+        <v>201.91806600000001</v>
+      </c>
+      <c r="W50" s="59">
+        <f t="shared" si="128"/>
+        <v>201.91806600000001</v>
+      </c>
+      <c r="AA50" s="53">
         <v>111</v>
       </c>
-      <c r="Z50" s="59">
+      <c r="AB50" s="59">
         <f>E50</f>
         <v>124.386545</v>
       </c>
-      <c r="AA50" s="59">
+      <c r="AC50" s="59">
         <f>I50</f>
         <v>154.861704</v>
       </c>
-      <c r="AB50" s="59">
+      <c r="AD50" s="59">
         <f>M50</f>
         <v>199.539109</v>
       </c>
-      <c r="AC50" s="59">
-        <f>Q50</f>
-        <v>199.539109</v>
-      </c>
-      <c r="AD50" s="59">
-        <f>U50</f>
-        <v>199.539109</v>
-      </c>
       <c r="AE50" s="59">
-        <f>AD50</f>
-        <v>199.539109</v>
+        <f>S50</f>
+        <v>201.91806600000001</v>
       </c>
       <c r="AF50" s="59">
-        <f t="shared" ref="AF50:AP50" si="130">AE50</f>
-        <v>199.539109</v>
+        <f>W50</f>
+        <v>201.91806600000001</v>
       </c>
       <c r="AG50" s="59">
-        <f t="shared" si="130"/>
-        <v>199.539109</v>
+        <f>AF50</f>
+        <v>201.91806600000001</v>
       </c>
       <c r="AH50" s="59">
-        <f t="shared" si="130"/>
-        <v>199.539109</v>
+        <f t="shared" ref="AH50:AR50" si="129">AG50</f>
+        <v>201.91806600000001</v>
       </c>
       <c r="AI50" s="59">
-        <f t="shared" si="130"/>
-        <v>199.539109</v>
+        <f t="shared" si="129"/>
+        <v>201.91806600000001</v>
       </c>
       <c r="AJ50" s="59">
-        <f t="shared" si="130"/>
-        <v>199.539109</v>
+        <f t="shared" si="129"/>
+        <v>201.91806600000001</v>
       </c>
       <c r="AK50" s="59">
-        <f t="shared" si="130"/>
-        <v>199.539109</v>
+        <f t="shared" si="129"/>
+        <v>201.91806600000001</v>
       </c>
       <c r="AL50" s="59">
-        <f t="shared" si="130"/>
-        <v>199.539109</v>
+        <f t="shared" si="129"/>
+        <v>201.91806600000001</v>
       </c>
       <c r="AM50" s="59">
-        <f t="shared" si="130"/>
-        <v>199.539109</v>
+        <f t="shared" si="129"/>
+        <v>201.91806600000001</v>
       </c>
       <c r="AN50" s="59">
-        <f t="shared" si="130"/>
-        <v>199.539109</v>
+        <f t="shared" si="129"/>
+        <v>201.91806600000001</v>
       </c>
       <c r="AO50" s="59">
-        <f t="shared" si="130"/>
-        <v>199.539109</v>
+        <f t="shared" si="129"/>
+        <v>201.91806600000001</v>
       </c>
       <c r="AP50" s="59">
-        <f t="shared" si="130"/>
-        <v>199.539109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:42">
+        <f t="shared" si="129"/>
+        <v>201.91806600000001</v>
+      </c>
+      <c r="AQ50" s="59">
+        <f t="shared" si="129"/>
+        <v>201.91806600000001</v>
+      </c>
+      <c r="AR50" s="59">
+        <f t="shared" si="129"/>
+        <v>201.91806600000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44">
       <c r="A51" s="53" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="69">
-        <f t="shared" ref="B51:U51" si="131">B48/B50/1000</f>
+        <f t="shared" ref="B51:W51" si="130">B48/B50/1000</f>
         <v>-0.36296110886747929</v>
       </c>
       <c r="C51" s="69">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-0.28490687767422646</v>
       </c>
       <c r="D51" s="69">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-0.36858036622474422</v>
       </c>
       <c r="E51" s="69">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-0.31931910320364637</v>
       </c>
       <c r="F51" s="69">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-0.24555680754192685</v>
       </c>
       <c r="G51" s="69">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-0.32292515723148091</v>
       </c>
       <c r="H51" s="69">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-0.20773340663485332</v>
       </c>
       <c r="I51" s="69">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-0.25644816616508365</v>
       </c>
       <c r="J51" s="69">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-9.0977101195599472E-2</v>
       </c>
       <c r="K51" s="69">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-0.16545273431233909</v>
       </c>
       <c r="L51" s="69">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-0.1248812723698029</v>
       </c>
       <c r="M51" s="69">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-4.5038789864497192E-2</v>
       </c>
       <c r="N51" s="69">
-        <f t="shared" si="131"/>
-        <v>-1.5408885113525452E-2</v>
-      </c>
-      <c r="O51" s="69">
-        <f t="shared" si="131"/>
-        <v>2.1438926195339507E-3</v>
-      </c>
-      <c r="P51" s="69">
-        <f t="shared" si="131"/>
-        <v>1.5672972058099834E-2</v>
-      </c>
+        <f>N48/N50/1000</f>
+        <v>-2.4797186795558947E-2</v>
+      </c>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
       <c r="Q51" s="69">
-        <f t="shared" si="131"/>
-        <v>1.1708073875152557E-2</v>
+        <f t="shared" si="130"/>
+        <v>-1.2287578947524786E-2</v>
       </c>
       <c r="R51" s="69">
-        <f t="shared" si="131"/>
-        <v>8.7868400037813717E-3</v>
+        <f t="shared" si="130"/>
+        <v>3.4009735605091268E-3</v>
       </c>
       <c r="S51" s="69">
-        <f t="shared" si="131"/>
-        <v>6.0471384986555219E-3</v>
+        <f t="shared" si="130"/>
+        <v>-1.1254839231566399E-3</v>
       </c>
       <c r="T51" s="69">
-        <f t="shared" si="131"/>
-        <v>3.1143786464984339E-3</v>
+        <f t="shared" si="130"/>
+        <v>-4.3786175656408393E-3</v>
       </c>
       <c r="U51" s="69">
-        <f t="shared" si="131"/>
-        <v>-1.4551089898106066E-5</v>
-      </c>
-      <c r="Y51" s="69">
-        <f>Y48/Y50/1000</f>
+        <f t="shared" si="130"/>
+        <v>-7.7800441997222039E-3</v>
+      </c>
+      <c r="V51" s="69">
+        <f t="shared" si="130"/>
+        <v>-1.1185806553837593E-2</v>
+      </c>
+      <c r="W51" s="69">
+        <f t="shared" si="130"/>
+        <v>-1.4822231101448369E-2</v>
+      </c>
+      <c r="AA51" s="69">
+        <f>AA48/AA50/1000</f>
         <v>-1.0152162162162162</v>
       </c>
-      <c r="Z51" s="69">
+      <c r="AB51" s="69">
         <f>SUM(B51:E51)</f>
         <v>-1.3357674559700963</v>
       </c>
-      <c r="AA51" s="69">
+      <c r="AC51" s="69">
         <f>SUM(F51:I51)</f>
         <v>-1.0326635375733446</v>
       </c>
-      <c r="AB51" s="69">
+      <c r="AD51" s="69">
         <f>SUM(J51:M51)</f>
         <v>-0.42634989774223864</v>
       </c>
-      <c r="AC51" s="69">
-        <f>SUM(N51:Q51)</f>
-        <v>1.4116053439260891E-2</v>
-      </c>
-      <c r="AD51" s="69">
-        <f>SUM(R51:U51)</f>
-        <v>1.7933806059037223E-2</v>
-      </c>
       <c r="AE51" s="69">
-        <f t="shared" ref="AE51:AP51" si="132">AE48/AE50/1000</f>
-        <v>2.9528087283128807E-2</v>
+        <f>SUM(N51:S51)</f>
+        <v>-3.4809276105731243E-2</v>
       </c>
       <c r="AF51" s="69">
-        <f t="shared" si="132"/>
-        <v>7.4740264928043476E-2</v>
+        <f>SUM(T51:W51)</f>
+        <v>-3.8166699420649007E-2</v>
       </c>
       <c r="AG51" s="69">
-        <f t="shared" si="132"/>
-        <v>0.10004192729191069</v>
+        <f t="shared" ref="AG51:AR51" si="131">AG48/AG50/1000</f>
+        <v>-2.7195376542343584E-2</v>
       </c>
       <c r="AH51" s="69">
-        <f t="shared" si="132"/>
-        <v>9.7785143874941832E-2</v>
+        <f t="shared" si="131"/>
+        <v>1.7474809210209226E-2</v>
       </c>
       <c r="AI51" s="69">
-        <f t="shared" si="132"/>
-        <v>9.5400416298513951E-2</v>
+        <f t="shared" si="131"/>
+        <v>4.2465118927174736E-2</v>
       </c>
       <c r="AJ51" s="69">
-        <f t="shared" si="132"/>
-        <v>9.4985495972570971E-2</v>
+        <f t="shared" si="131"/>
+        <v>4.0085000545588237E-2</v>
       </c>
       <c r="AK51" s="69">
-        <f t="shared" si="132"/>
-        <v>9.3746541694873176E-2</v>
+        <f t="shared" si="131"/>
+        <v>3.7569985412165878E-2</v>
       </c>
       <c r="AL51" s="69">
-        <f t="shared" si="132"/>
-        <v>9.203247580549101E-2</v>
+        <f t="shared" si="131"/>
+        <v>3.7053988688494542E-2</v>
       </c>
       <c r="AM51" s="69">
-        <f t="shared" si="132"/>
-        <v>9.039334885268864E-2</v>
+        <f t="shared" si="131"/>
+        <v>3.5703923207022627E-2</v>
       </c>
       <c r="AN51" s="69">
-        <f t="shared" si="132"/>
-        <v>8.8863695423156405E-2</v>
+        <f t="shared" si="131"/>
+        <v>3.3861937375281558E-2</v>
       </c>
       <c r="AO51" s="69">
-        <f t="shared" si="132"/>
-        <v>8.7127299334419289E-2</v>
+        <f t="shared" si="131"/>
+        <v>3.2091048296873585E-2</v>
       </c>
       <c r="AP51" s="69">
-        <f t="shared" si="132"/>
-        <v>8.5289136796133411E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:42" s="59" customFormat="1">
+        <f t="shared" si="131"/>
+        <v>3.0426340208967069E-2</v>
+      </c>
+      <c r="AQ51" s="69">
+        <f t="shared" si="131"/>
+        <v>2.8546091361010564E-2</v>
+      </c>
+      <c r="AR51" s="69">
+        <f t="shared" si="131"/>
+        <v>2.6555507453146714E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" s="59" customFormat="1">
       <c r="A52" s="53" t="s">
         <v>71</v>
       </c>
@@ -7164,7 +7250,7 @@
         <v>131.455727</v>
       </c>
       <c r="E52" s="59">
-        <f>Z52</f>
+        <f>AB52</f>
         <v>124.386545</v>
       </c>
       <c r="F52" s="59">
@@ -7177,7 +7263,7 @@
         <v>159.26181800000001</v>
       </c>
       <c r="I52" s="59">
-        <f>AA52</f>
+        <f>AC52</f>
         <v>154.861704</v>
       </c>
       <c r="J52" s="59">
@@ -7191,272 +7277,273 @@
         <v>180.83375971000001</v>
       </c>
       <c r="M52" s="59">
-        <f t="shared" ref="M52:N52" si="133">L52*(1.03)</f>
+        <f t="shared" ref="M52:N52" si="132">L52*(1.03)</f>
         <v>186.2587725013</v>
       </c>
       <c r="N52" s="59">
+        <v>201.91806600000001</v>
+      </c>
+      <c r="Q52" s="59">
+        <f>N52*1.005</f>
+        <v>202.92765632999999</v>
+      </c>
+      <c r="R52" s="59">
+        <f t="shared" ref="R52:W52" si="133">Q52*1.005</f>
+        <v>203.94229461164997</v>
+      </c>
+      <c r="S52" s="59">
         <f t="shared" si="133"/>
-        <v>191.84653567633902</v>
-      </c>
-      <c r="O52" s="59">
-        <f>N52*1.005</f>
-        <v>192.8057683547207</v>
-      </c>
-      <c r="P52" s="59">
-        <f t="shared" ref="P52:U52" si="134">O52*1.005</f>
-        <v>193.76979719649427</v>
-      </c>
-      <c r="Q52" s="59">
-        <f t="shared" si="134"/>
-        <v>194.73864618247671</v>
-      </c>
-      <c r="R52" s="59">
-        <f t="shared" si="134"/>
-        <v>195.71233941338909</v>
-      </c>
-      <c r="S52" s="59">
-        <f t="shared" si="134"/>
-        <v>196.69090111045602</v>
+        <v>204.96200608470821</v>
       </c>
       <c r="T52" s="59">
-        <f t="shared" si="134"/>
-        <v>197.67435561600828</v>
+        <f t="shared" si="133"/>
+        <v>205.98681611513172</v>
       </c>
       <c r="U52" s="59">
-        <f t="shared" si="134"/>
-        <v>198.66272739408831</v>
-      </c>
-      <c r="Y52" s="59">
+        <f t="shared" si="133"/>
+        <v>207.01675019570735</v>
+      </c>
+      <c r="V52" s="59">
+        <f t="shared" si="133"/>
+        <v>208.05183394668586</v>
+      </c>
+      <c r="W52" s="59">
+        <f t="shared" si="133"/>
+        <v>209.09209311641928</v>
+      </c>
+      <c r="AA52" s="59">
         <v>110.585768</v>
       </c>
-      <c r="Z52" s="59">
+      <c r="AB52" s="59">
         <v>124.386545</v>
       </c>
-      <c r="AA52" s="59">
+      <c r="AC52" s="59">
         <v>154.861704</v>
       </c>
-      <c r="AB52" s="59">
+      <c r="AD52" s="59">
         <f>M52</f>
         <v>186.2587725013</v>
       </c>
-      <c r="AC52" s="59">
-        <f>Q52</f>
-        <v>194.73864618247671</v>
-      </c>
-      <c r="AD52" s="59">
-        <f>U52</f>
-        <v>198.66272739408831</v>
-      </c>
       <c r="AE52" s="59">
-        <f>AD52*(1.01)</f>
-        <v>200.64935466802919</v>
+        <f>S52</f>
+        <v>204.96200608470821</v>
       </c>
       <c r="AF52" s="59">
-        <f t="shared" ref="AF52:AP52" si="135">AE52*(1.01)</f>
-        <v>202.65584821470949</v>
+        <f>W52</f>
+        <v>209.09209311641928</v>
       </c>
       <c r="AG52" s="59">
-        <f t="shared" si="135"/>
-        <v>204.68240669685659</v>
+        <f>AF52*(1.01)</f>
+        <v>211.18301404758347</v>
       </c>
       <c r="AH52" s="59">
-        <f t="shared" si="135"/>
-        <v>206.72923076382514</v>
+        <f t="shared" ref="AH52:AR52" si="134">AG52*(1.01)</f>
+        <v>213.2948441880593</v>
       </c>
       <c r="AI52" s="59">
-        <f t="shared" si="135"/>
-        <v>208.79652307146338</v>
+        <f t="shared" si="134"/>
+        <v>215.42779262993989</v>
       </c>
       <c r="AJ52" s="59">
-        <f t="shared" si="135"/>
-        <v>210.88448830217803</v>
+        <f t="shared" si="134"/>
+        <v>217.5820705562393</v>
       </c>
       <c r="AK52" s="59">
-        <f t="shared" si="135"/>
-        <v>212.99333318519982</v>
+        <f t="shared" si="134"/>
+        <v>219.75789126180169</v>
       </c>
       <c r="AL52" s="59">
-        <f t="shared" si="135"/>
-        <v>215.1232665170518</v>
+        <f t="shared" si="134"/>
+        <v>221.9554701744197</v>
       </c>
       <c r="AM52" s="59">
-        <f t="shared" si="135"/>
-        <v>217.27449918222231</v>
+        <f t="shared" si="134"/>
+        <v>224.17502487616389</v>
       </c>
       <c r="AN52" s="59">
-        <f t="shared" si="135"/>
-        <v>219.44724417404453</v>
+        <f t="shared" si="134"/>
+        <v>226.41677512492552</v>
       </c>
       <c r="AO52" s="59">
-        <f t="shared" si="135"/>
-        <v>221.64171661578499</v>
+        <f t="shared" si="134"/>
+        <v>228.68094287617478</v>
       </c>
       <c r="AP52" s="59">
-        <f t="shared" si="135"/>
-        <v>223.85813378194283</v>
-      </c>
-    </row>
-    <row r="53" spans="1:42" s="59" customFormat="1">
+        <f t="shared" si="134"/>
+        <v>230.96775230493654</v>
+      </c>
+      <c r="AQ52" s="59">
+        <f t="shared" si="134"/>
+        <v>233.27742982798591</v>
+      </c>
+      <c r="AR52" s="59">
+        <f t="shared" si="134"/>
+        <v>235.61020412626578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" s="59" customFormat="1">
       <c r="A53" s="53" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="69">
-        <f t="shared" ref="B53:U53" si="136">B48/B52/1000</f>
+        <f t="shared" ref="B53:W53" si="135">B48/B52/1000</f>
         <v>-0.36296110886747929</v>
       </c>
       <c r="C53" s="69">
+        <f t="shared" si="135"/>
+        <v>-0.28490687767422646</v>
+      </c>
+      <c r="D53" s="69">
+        <f t="shared" si="135"/>
+        <v>-0.36858036622474422</v>
+      </c>
+      <c r="E53" s="69">
+        <f t="shared" si="135"/>
+        <v>-0.31931910320364637</v>
+      </c>
+      <c r="F53" s="69">
+        <f t="shared" si="135"/>
+        <v>-0.24555680754192685</v>
+      </c>
+      <c r="G53" s="69">
+        <f t="shared" si="135"/>
+        <v>-0.32292515723148091</v>
+      </c>
+      <c r="H53" s="69">
+        <f t="shared" si="135"/>
+        <v>-0.20773340663485332</v>
+      </c>
+      <c r="I53" s="69">
+        <f t="shared" si="135"/>
+        <v>-0.25644816616508365</v>
+      </c>
+      <c r="J53" s="69">
+        <f t="shared" si="135"/>
+        <v>-9.0977101195599472E-2</v>
+      </c>
+      <c r="K53" s="69">
+        <f t="shared" si="135"/>
+        <v>-0.16545273431233909</v>
+      </c>
+      <c r="L53" s="69">
+        <f t="shared" si="135"/>
+        <v>-0.12124395375709018</v>
+      </c>
+      <c r="M53" s="69">
+        <f t="shared" si="135"/>
+        <v>-4.8250076381971617E-2</v>
+      </c>
+      <c r="N53" s="69">
+        <f t="shared" si="135"/>
+        <v>-2.4797186795558947E-2</v>
+      </c>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69">
+        <f t="shared" si="135"/>
+        <v>-1.2226446713955013E-2</v>
+      </c>
+      <c r="R53" s="69">
+        <f t="shared" si="135"/>
+        <v>3.367217207998938E-3</v>
+      </c>
+      <c r="S53" s="69">
+        <f t="shared" si="135"/>
+        <v>-1.1087690905209017E-3</v>
+      </c>
+      <c r="T53" s="69">
+        <f t="shared" si="135"/>
+        <v>-4.2921290171972276E-3</v>
+      </c>
+      <c r="U53" s="69">
+        <f t="shared" si="135"/>
+        <v>-7.5884269109495464E-3</v>
+      </c>
+      <c r="V53" s="69">
+        <f t="shared" si="135"/>
+        <v>-1.0856027477170866E-2</v>
+      </c>
+      <c r="W53" s="69">
+        <f t="shared" si="135"/>
+        <v>-1.4313674865472395E-2</v>
+      </c>
+      <c r="AA53" s="69">
+        <f t="shared" ref="AA53:AR53" si="136">AA48/AA52/1000</f>
+        <v>-1.0190190115603301</v>
+      </c>
+      <c r="AB53" s="69">
         <f t="shared" si="136"/>
-        <v>-0.28490687767422646</v>
-      </c>
-      <c r="D53" s="69">
+        <v>-1.2929694284860151</v>
+      </c>
+      <c r="AC53" s="69">
         <f t="shared" si="136"/>
-        <v>-0.36858036622474422</v>
-      </c>
-      <c r="E53" s="69">
+        <v>-1.0243203833014778</v>
+      </c>
+      <c r="AD53" s="69">
         <f t="shared" si="136"/>
-        <v>-0.31931910320364637</v>
-      </c>
-      <c r="F53" s="69">
+        <v>-0.3999865294907386</v>
+      </c>
+      <c r="AE53" s="69">
         <f t="shared" si="136"/>
-        <v>-0.24555680754192685</v>
-      </c>
-      <c r="G53" s="69">
+        <v>-2.9686583510577826E-2</v>
+      </c>
+      <c r="AF53" s="69">
         <f t="shared" si="136"/>
-        <v>-0.32292515723148091</v>
-      </c>
-      <c r="H53" s="69">
+        <v>-3.685718583499896E-2</v>
+      </c>
+      <c r="AG53" s="69">
         <f t="shared" si="136"/>
-        <v>-0.20773340663485332</v>
-      </c>
-      <c r="I53" s="69">
+        <v>-2.6002270401986521E-2</v>
+      </c>
+      <c r="AH53" s="69">
         <f t="shared" si="136"/>
-        <v>-0.25644816616508365</v>
-      </c>
-      <c r="J53" s="69">
+        <v>1.6542733102040762E-2</v>
+      </c>
+      <c r="AI53" s="69">
         <f t="shared" si="136"/>
-        <v>-9.0977101195599472E-2</v>
-      </c>
-      <c r="K53" s="69">
+        <v>3.9802082087728959E-2</v>
+      </c>
+      <c r="AJ53" s="69">
         <f t="shared" si="136"/>
-        <v>-0.16545273431233909</v>
-      </c>
-      <c r="L53" s="69">
+        <v>3.7199231375464194E-2</v>
+      </c>
+      <c r="AK53" s="69">
         <f t="shared" si="136"/>
-        <v>-0.12124395375709018</v>
-      </c>
-      <c r="M53" s="69">
+        <v>3.452007457168095E-2</v>
+      </c>
+      <c r="AL53" s="69">
         <f t="shared" si="136"/>
-        <v>-4.8250076381971617E-2</v>
-      </c>
-      <c r="N53" s="69">
+        <v>3.3708877405396694E-2</v>
+      </c>
+      <c r="AM53" s="69">
         <f t="shared" si="136"/>
-        <v>-1.6026743435302183E-2</v>
-      </c>
-      <c r="O53" s="69">
+        <v>3.2159100357218584E-2</v>
+      </c>
+      <c r="AN53" s="69">
         <f t="shared" si="136"/>
-        <v>2.2187636124373581E-3</v>
-      </c>
-      <c r="P53" s="69">
+        <v>3.0198013826747E-2</v>
+      </c>
+      <c r="AO53" s="69">
         <f t="shared" si="136"/>
-        <v>1.6139619925822572E-2</v>
-      </c>
-      <c r="Q53" s="69">
+        <v>2.8335384341693675E-2</v>
+      </c>
+      <c r="AP53" s="69">
         <f t="shared" si="136"/>
-        <v>1.1996687226453256E-2</v>
-      </c>
-      <c r="R53" s="69">
+        <v>2.6599504515857717E-2</v>
+      </c>
+      <c r="AQ53" s="69">
         <f t="shared" si="136"/>
-        <v>8.958649365366193E-3</v>
-      </c>
-      <c r="S53" s="69">
+        <v>2.4708655113890778E-2</v>
+      </c>
+      <c r="AR53" s="69">
         <f t="shared" si="136"/>
-        <v>6.1347048653954015E-3</v>
-      </c>
-      <c r="T53" s="69">
-        <f t="shared" si="136"/>
-        <v>3.1437580169382238E-3</v>
-      </c>
-      <c r="U53" s="69">
-        <f t="shared" si="136"/>
-        <v>-1.4615280638361891E-5</v>
-      </c>
-      <c r="Y53" s="69">
-        <f t="shared" ref="Y53:AP53" si="137">Y48/Y52/1000</f>
-        <v>-1.0190190115603301</v>
-      </c>
-      <c r="Z53" s="69">
-        <f t="shared" si="137"/>
-        <v>-1.2929694284860151</v>
-      </c>
-      <c r="AA53" s="69">
-        <f t="shared" si="137"/>
-        <v>-1.0243203833014778</v>
-      </c>
-      <c r="AB53" s="69">
-        <f t="shared" si="137"/>
-        <v>-0.3999865294907386</v>
-      </c>
-      <c r="AC53" s="69">
-        <f t="shared" si="137"/>
-        <v>1.4464025405759197E-2</v>
-      </c>
-      <c r="AD53" s="69">
-        <f t="shared" si="137"/>
-        <v>1.8012919327843498E-2</v>
-      </c>
-      <c r="AE53" s="69">
-        <f t="shared" si="137"/>
-        <v>2.9364700607674397E-2</v>
-      </c>
-      <c r="AF53" s="69">
-        <f t="shared" si="137"/>
-        <v>7.3590799385000225E-2</v>
-      </c>
-      <c r="AG53" s="69">
-        <f t="shared" si="137"/>
-        <v>9.7528055081136655E-2</v>
-      </c>
-      <c r="AH53" s="69">
-        <f t="shared" si="137"/>
-        <v>9.438413914737516E-2</v>
-      </c>
-      <c r="AI53" s="69">
-        <f t="shared" si="137"/>
-        <v>9.117064684031731E-2</v>
-      </c>
-      <c r="AJ53" s="69">
-        <f t="shared" si="137"/>
-        <v>8.9875369150582279E-2</v>
-      </c>
-      <c r="AK53" s="69">
-        <f t="shared" si="137"/>
-        <v>8.7824821189878291E-2</v>
-      </c>
-      <c r="AL53" s="69">
-        <f t="shared" si="137"/>
-        <v>8.5365374552994241E-2</v>
-      </c>
-      <c r="AM53" s="69">
-        <f t="shared" si="137"/>
-        <v>8.3014842319183102E-2</v>
-      </c>
-      <c r="AN53" s="69">
-        <f t="shared" si="137"/>
-        <v>8.0802029088690025E-2</v>
-      </c>
-      <c r="AO53" s="69">
-        <f t="shared" si="137"/>
-        <v>7.8438770210860931E-2</v>
-      </c>
-      <c r="AP53" s="69">
-        <f t="shared" si="137"/>
-        <v>7.6023676585533773E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42" s="59" customFormat="1">
+        <v>2.2758083532385561E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" s="59" customFormat="1">
       <c r="A54" s="53"/>
     </row>
-    <row r="55" spans="1:42">
+    <row r="55" spans="1:44">
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
@@ -7469,7 +7556,7 @@
       <c r="K55" s="59"/>
       <c r="L55" s="59"/>
     </row>
-    <row r="56" spans="1:42" s="70" customFormat="1">
+    <row r="56" spans="1:44" s="70" customFormat="1">
       <c r="A56" s="70" t="s">
         <v>141</v>
       </c>
@@ -7485,7 +7572,7 @@
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
     </row>
-    <row r="57" spans="1:42">
+    <row r="57" spans="1:44">
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
@@ -7498,7 +7585,7 @@
       <c r="K57" s="59"/>
       <c r="L57" s="59"/>
     </row>
-    <row r="58" spans="1:42">
+    <row r="58" spans="1:44">
       <c r="A58" s="53" t="s">
         <v>142</v>
       </c>
@@ -7531,8 +7618,14 @@
         <f>L126</f>
         <v>56255</v>
       </c>
-    </row>
-    <row r="59" spans="1:42">
+      <c r="M58" s="53">
+        <v>40368</v>
+      </c>
+      <c r="N58" s="53">
+        <v>52373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44">
       <c r="A59" s="53" t="s">
         <v>143</v>
       </c>
@@ -7560,8 +7653,12 @@
       <c r="L59" s="59">
         <v>43997</v>
       </c>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
+      <c r="M59" s="59">
+        <v>34728</v>
+      </c>
+      <c r="N59" s="59">
+        <v>3763</v>
+      </c>
       <c r="O59" s="59"/>
       <c r="P59" s="59"/>
       <c r="Q59" s="59"/>
@@ -7569,8 +7666,8 @@
       <c r="S59" s="59"/>
       <c r="T59" s="59"/>
       <c r="U59" s="59"/>
-      <c r="AB59" s="59"/>
-      <c r="AC59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
       <c r="AD59" s="59"/>
       <c r="AE59" s="59"/>
       <c r="AF59" s="59"/>
@@ -7584,8 +7681,10 @@
       <c r="AN59" s="59"/>
       <c r="AO59" s="59"/>
       <c r="AP59" s="59"/>
-    </row>
-    <row r="60" spans="1:42">
+      <c r="AQ59" s="59"/>
+      <c r="AR59" s="59"/>
+    </row>
+    <row r="60" spans="1:44">
       <c r="A60" s="53" t="s">
         <v>202</v>
       </c>
@@ -7596,8 +7695,12 @@
         <v>64</v>
       </c>
       <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
+      <c r="M60" s="59">
+        <v>12996</v>
+      </c>
+      <c r="N60" s="59">
+        <v>32755</v>
+      </c>
       <c r="O60" s="59"/>
       <c r="P60" s="59"/>
       <c r="Q60" s="59"/>
@@ -7605,8 +7708,8 @@
       <c r="S60" s="59"/>
       <c r="T60" s="59"/>
       <c r="U60" s="59"/>
-      <c r="AB60" s="59"/>
-      <c r="AC60" s="59"/>
+      <c r="V60" s="59"/>
+      <c r="W60" s="59"/>
       <c r="AD60" s="59"/>
       <c r="AE60" s="59"/>
       <c r="AF60" s="59"/>
@@ -7620,8 +7723,10 @@
       <c r="AN60" s="59"/>
       <c r="AO60" s="59"/>
       <c r="AP60" s="59"/>
-    </row>
-    <row r="61" spans="1:42">
+      <c r="AQ60" s="59"/>
+      <c r="AR60" s="59"/>
+    </row>
+    <row r="61" spans="1:44">
       <c r="A61" s="53" t="s">
         <v>144</v>
       </c>
@@ -7649,8 +7754,12 @@
       <c r="L61" s="59">
         <v>586</v>
       </c>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
+      <c r="M61" s="59">
+        <v>617</v>
+      </c>
+      <c r="N61" s="59">
+        <v>883</v>
+      </c>
       <c r="O61" s="59"/>
       <c r="P61" s="59"/>
       <c r="Q61" s="59"/>
@@ -7658,8 +7767,8 @@
       <c r="S61" s="59"/>
       <c r="T61" s="59"/>
       <c r="U61" s="59"/>
-      <c r="AB61" s="59"/>
-      <c r="AC61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
       <c r="AD61" s="59"/>
       <c r="AE61" s="59"/>
       <c r="AF61" s="59"/>
@@ -7673,8 +7782,10 @@
       <c r="AN61" s="59"/>
       <c r="AO61" s="59"/>
       <c r="AP61" s="59"/>
-    </row>
-    <row r="62" spans="1:42">
+      <c r="AQ61" s="59"/>
+      <c r="AR61" s="59"/>
+    </row>
+    <row r="62" spans="1:44">
       <c r="A62" s="53" t="s">
         <v>145</v>
       </c>
@@ -7682,8 +7793,12 @@
       <c r="L62" s="59">
         <v>9373</v>
       </c>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
+      <c r="M62" s="59">
+        <v>9230</v>
+      </c>
+      <c r="N62" s="59">
+        <v>12862</v>
+      </c>
       <c r="O62" s="59"/>
       <c r="P62" s="59"/>
       <c r="Q62" s="59"/>
@@ -7691,8 +7806,8 @@
       <c r="S62" s="59"/>
       <c r="T62" s="59"/>
       <c r="U62" s="59"/>
-      <c r="AB62" s="59"/>
-      <c r="AC62" s="59"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="59"/>
       <c r="AD62" s="59"/>
       <c r="AE62" s="59"/>
       <c r="AF62" s="59"/>
@@ -7706,8 +7821,10 @@
       <c r="AN62" s="59"/>
       <c r="AO62" s="59"/>
       <c r="AP62" s="59"/>
-    </row>
-    <row r="63" spans="1:42">
+      <c r="AQ62" s="59"/>
+      <c r="AR62" s="59"/>
+    </row>
+    <row r="63" spans="1:44">
       <c r="A63" s="53" t="s">
         <v>146</v>
       </c>
@@ -7735,8 +7852,12 @@
       <c r="L63" s="59">
         <v>2769</v>
       </c>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
+      <c r="M63" s="59">
+        <v>3072</v>
+      </c>
+      <c r="N63" s="59">
+        <v>2742</v>
+      </c>
       <c r="O63" s="59"/>
       <c r="P63" s="59"/>
       <c r="Q63" s="59"/>
@@ -7744,8 +7865,8 @@
       <c r="S63" s="59"/>
       <c r="T63" s="59"/>
       <c r="U63" s="59"/>
-      <c r="AB63" s="59"/>
-      <c r="AC63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
       <c r="AD63" s="59"/>
       <c r="AE63" s="59"/>
       <c r="AF63" s="59"/>
@@ -7759,8 +7880,10 @@
       <c r="AN63" s="59"/>
       <c r="AO63" s="59"/>
       <c r="AP63" s="59"/>
-    </row>
-    <row r="64" spans="1:42">
+      <c r="AQ63" s="59"/>
+      <c r="AR63" s="59"/>
+    </row>
+    <row r="64" spans="1:44">
       <c r="A64" s="53" t="s">
         <v>147</v>
       </c>
@@ -7773,11 +7896,11 @@
         <v>169143</v>
       </c>
       <c r="G64" s="59">
-        <f t="shared" ref="G64:H64" si="138">G58+G59+G61+G62+G63</f>
+        <f t="shared" ref="G64:H64" si="137">G58+G59+G61+G62+G63</f>
         <v>165706</v>
       </c>
       <c r="H64" s="59">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>139998</v>
       </c>
       <c r="I64" s="59">
@@ -7796,8 +7919,14 @@
         <f>L58+L59+L61+L62+L63</f>
         <v>112980</v>
       </c>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
+      <c r="M64" s="59">
+        <f>M58+M59+M61+M62+M63+M60</f>
+        <v>101011</v>
+      </c>
+      <c r="N64" s="59">
+        <f>N58+N59+N61+N62+N63+N60</f>
+        <v>105378</v>
+      </c>
       <c r="O64" s="59"/>
       <c r="P64" s="59"/>
       <c r="Q64" s="59"/>
@@ -7805,8 +7934,8 @@
       <c r="S64" s="59"/>
       <c r="T64" s="59"/>
       <c r="U64" s="59"/>
-      <c r="AB64" s="59"/>
-      <c r="AC64" s="59"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
       <c r="AD64" s="59"/>
       <c r="AE64" s="59"/>
       <c r="AF64" s="59"/>
@@ -7820,8 +7949,10 @@
       <c r="AN64" s="59"/>
       <c r="AO64" s="59"/>
       <c r="AP64" s="59"/>
-    </row>
-    <row r="65" spans="1:42">
+      <c r="AQ64" s="59"/>
+      <c r="AR64" s="59"/>
+    </row>
+    <row r="65" spans="1:44">
       <c r="A65" s="53" t="s">
         <v>148</v>
       </c>
@@ -7849,8 +7980,14 @@
       <c r="L65" s="53">
         <v>422</v>
       </c>
-    </row>
-    <row r="66" spans="1:42">
+      <c r="M65" s="53">
+        <v>476</v>
+      </c>
+      <c r="N65" s="53">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="66" spans="1:44">
       <c r="A66" s="53" t="s">
         <v>149</v>
       </c>
@@ -7878,8 +8015,12 @@
       <c r="L66" s="59">
         <v>1869</v>
       </c>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
+      <c r="M66" s="59">
+        <v>1694</v>
+      </c>
+      <c r="N66" s="59">
+        <v>1518</v>
+      </c>
       <c r="O66" s="59"/>
       <c r="P66" s="59"/>
       <c r="Q66" s="59"/>
@@ -7887,8 +8028,8 @@
       <c r="S66" s="59"/>
       <c r="T66" s="59"/>
       <c r="U66" s="59"/>
-      <c r="AC66" s="59"/>
-      <c r="AD66" s="59"/>
+      <c r="V66" s="59"/>
+      <c r="W66" s="59"/>
       <c r="AE66" s="59"/>
       <c r="AF66" s="59"/>
       <c r="AG66" s="59"/>
@@ -7901,8 +8042,10 @@
       <c r="AN66" s="59"/>
       <c r="AO66" s="59"/>
       <c r="AP66" s="59"/>
-    </row>
-    <row r="67" spans="1:42">
+      <c r="AQ66" s="59"/>
+      <c r="AR66" s="59"/>
+    </row>
+    <row r="67" spans="1:44">
       <c r="A67" s="53" t="s">
         <v>150</v>
       </c>
@@ -7930,8 +8073,12 @@
       <c r="L67" s="59">
         <v>3658</v>
       </c>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
+      <c r="M67" s="59">
+        <v>157</v>
+      </c>
+      <c r="N67" s="59">
+        <v>245</v>
+      </c>
       <c r="O67" s="59"/>
       <c r="P67" s="59"/>
       <c r="Q67" s="59"/>
@@ -7939,8 +8086,8 @@
       <c r="S67" s="59"/>
       <c r="T67" s="59"/>
       <c r="U67" s="59"/>
-      <c r="AB67" s="59"/>
-      <c r="AC67" s="59"/>
+      <c r="V67" s="59"/>
+      <c r="W67" s="59"/>
       <c r="AD67" s="59"/>
       <c r="AE67" s="59"/>
       <c r="AF67" s="59"/>
@@ -7954,8 +8101,10 @@
       <c r="AN67" s="59"/>
       <c r="AO67" s="59"/>
       <c r="AP67" s="59"/>
-    </row>
-    <row r="68" spans="1:42" s="55" customFormat="1">
+      <c r="AQ67" s="59"/>
+      <c r="AR67" s="59"/>
+    </row>
+    <row r="68" spans="1:44" s="55" customFormat="1">
       <c r="A68" s="55" t="s">
         <v>151</v>
       </c>
@@ -7968,19 +8117,19 @@
         <v>179007</v>
       </c>
       <c r="G68" s="65">
-        <f t="shared" ref="G68:L68" si="139">G64+G65+G66+G67+G60</f>
+        <f t="shared" ref="G68:N68" si="138">G64+G65+G66+G67+G60</f>
         <v>175045</v>
       </c>
       <c r="H68" s="65">
-        <f t="shared" si="139"/>
+        <f>H64+H65+H66+H67</f>
         <v>147801</v>
       </c>
       <c r="I68" s="65">
-        <f t="shared" si="139"/>
+        <f>I64+I65+I66+I67</f>
         <v>111548</v>
       </c>
       <c r="J68" s="65">
-        <f t="shared" si="139"/>
+        <f t="shared" ref="I68:N68" si="139">J64+J65+J66+J67</f>
         <v>100054</v>
       </c>
       <c r="K68" s="65">
@@ -7991,8 +8140,16 @@
         <f t="shared" si="139"/>
         <v>118929</v>
       </c>
-    </row>
-    <row r="70" spans="1:42">
+      <c r="M68" s="65">
+        <f t="shared" si="139"/>
+        <v>103338</v>
+      </c>
+      <c r="N68" s="65">
+        <f t="shared" si="139"/>
+        <v>107675</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44">
       <c r="A70" s="53" t="s">
         <v>152</v>
       </c>
@@ -8020,8 +8177,14 @@
       <c r="L70" s="53">
         <v>42011</v>
       </c>
-    </row>
-    <row r="71" spans="1:42">
+      <c r="M70" s="53">
+        <v>38105</v>
+      </c>
+      <c r="N70" s="53">
+        <v>35379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44">
       <c r="A71" s="53" t="s">
         <v>153</v>
       </c>
@@ -8049,8 +8212,12 @@
       <c r="L71" s="59">
         <v>7613</v>
       </c>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
+      <c r="M71" s="59">
+        <v>4580</v>
+      </c>
+      <c r="N71" s="59">
+        <v>3502</v>
+      </c>
       <c r="O71" s="59"/>
       <c r="P71" s="59"/>
       <c r="Q71" s="59"/>
@@ -8058,8 +8225,8 @@
       <c r="S71" s="59"/>
       <c r="T71" s="59"/>
       <c r="U71" s="59"/>
-      <c r="AB71" s="59"/>
-      <c r="AC71" s="59"/>
+      <c r="V71" s="59"/>
+      <c r="W71" s="59"/>
       <c r="AD71" s="59"/>
       <c r="AE71" s="59"/>
       <c r="AF71" s="59"/>
@@ -8073,8 +8240,10 @@
       <c r="AN71" s="59"/>
       <c r="AO71" s="59"/>
       <c r="AP71" s="59"/>
-    </row>
-    <row r="72" spans="1:42">
+      <c r="AQ71" s="59"/>
+      <c r="AR71" s="59"/>
+    </row>
+    <row r="72" spans="1:44">
       <c r="A72" s="53" t="s">
         <v>154</v>
       </c>
@@ -8110,8 +8279,14 @@
         <f>L70+L71</f>
         <v>49624</v>
       </c>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
+      <c r="M72" s="59">
+        <f>M70+M71</f>
+        <v>42685</v>
+      </c>
+      <c r="N72" s="59">
+        <f>N70+N71</f>
+        <v>38881</v>
+      </c>
       <c r="O72" s="59"/>
       <c r="P72" s="59"/>
       <c r="Q72" s="59"/>
@@ -8119,8 +8294,8 @@
       <c r="S72" s="59"/>
       <c r="T72" s="59"/>
       <c r="U72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
       <c r="AD72" s="59"/>
       <c r="AE72" s="59"/>
       <c r="AF72" s="59"/>
@@ -8134,8 +8309,10 @@
       <c r="AN72" s="59"/>
       <c r="AO72" s="59"/>
       <c r="AP72" s="59"/>
-    </row>
-    <row r="73" spans="1:42">
+      <c r="AQ72" s="59"/>
+      <c r="AR72" s="59"/>
+    </row>
+    <row r="73" spans="1:44">
       <c r="A73" s="53" t="s">
         <v>155</v>
       </c>
@@ -8143,43 +8320,41 @@
         <v>28488</v>
       </c>
       <c r="M73" s="59">
-        <f>L73</f>
-        <v>28488</v>
+        <v>28666</v>
       </c>
       <c r="N73" s="59">
-        <f>M73</f>
-        <v>28488</v>
-      </c>
-      <c r="O73" s="59">
-        <f t="shared" ref="O73:U73" si="141">N73</f>
-        <v>28488</v>
-      </c>
-      <c r="P73" s="59">
-        <f t="shared" si="141"/>
-        <v>28488</v>
-      </c>
+        <v>28840</v>
+      </c>
+      <c r="O73" s="59"/>
+      <c r="P73" s="59"/>
       <c r="Q73" s="59">
-        <f t="shared" si="141"/>
-        <v>28488</v>
+        <f>N73</f>
+        <v>28840</v>
       </c>
       <c r="R73" s="59">
-        <f t="shared" si="141"/>
-        <v>28488</v>
+        <f t="shared" ref="R73:W73" si="141">Q73</f>
+        <v>28840</v>
       </c>
       <c r="S73" s="59">
         <f t="shared" si="141"/>
-        <v>28488</v>
+        <v>28840</v>
       </c>
       <c r="T73" s="59">
         <f t="shared" si="141"/>
-        <v>28488</v>
+        <v>28840</v>
       </c>
       <c r="U73" s="59">
         <f t="shared" si="141"/>
-        <v>28488</v>
-      </c>
-      <c r="AB73" s="59"/>
-      <c r="AC73" s="59"/>
+        <v>28840</v>
+      </c>
+      <c r="V73" s="59">
+        <f t="shared" si="141"/>
+        <v>28840</v>
+      </c>
+      <c r="W73" s="59">
+        <f t="shared" si="141"/>
+        <v>28840</v>
+      </c>
       <c r="AD73" s="59"/>
       <c r="AE73" s="59"/>
       <c r="AF73" s="59"/>
@@ -8193,8 +8368,10 @@
       <c r="AN73" s="59"/>
       <c r="AO73" s="59"/>
       <c r="AP73" s="59"/>
-    </row>
-    <row r="74" spans="1:42">
+      <c r="AQ73" s="59"/>
+      <c r="AR73" s="59"/>
+    </row>
+    <row r="74" spans="1:44">
       <c r="A74" s="53" t="s">
         <v>156</v>
       </c>
@@ -8222,8 +8399,12 @@
       <c r="L74" s="59">
         <v>4965</v>
       </c>
-      <c r="M74" s="59"/>
-      <c r="N74" s="59"/>
+      <c r="M74" s="59">
+        <v>4099</v>
+      </c>
+      <c r="N74" s="59">
+        <v>13149</v>
+      </c>
       <c r="O74" s="59"/>
       <c r="P74" s="59"/>
       <c r="Q74" s="59"/>
@@ -8231,8 +8412,8 @@
       <c r="S74" s="59"/>
       <c r="T74" s="59"/>
       <c r="U74" s="59"/>
-      <c r="AB74" s="59"/>
-      <c r="AC74" s="59"/>
+      <c r="V74" s="59"/>
+      <c r="W74" s="59"/>
       <c r="AD74" s="59"/>
       <c r="AE74" s="59"/>
       <c r="AF74" s="59"/>
@@ -8246,8 +8427,10 @@
       <c r="AN74" s="59"/>
       <c r="AO74" s="59"/>
       <c r="AP74" s="59"/>
-    </row>
-    <row r="75" spans="1:42" s="55" customFormat="1">
+      <c r="AQ74" s="59"/>
+      <c r="AR74" s="59"/>
+    </row>
+    <row r="75" spans="1:44" s="55" customFormat="1">
       <c r="A75" s="55" t="s">
         <v>157</v>
       </c>
@@ -8283,8 +8466,14 @@
         <f>L72+L73+L74</f>
         <v>83077</v>
       </c>
-      <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
+      <c r="M75" s="65">
+        <f>M72+M73+M74</f>
+        <v>75450</v>
+      </c>
+      <c r="N75" s="65">
+        <f>N72+N73+N74</f>
+        <v>80870</v>
+      </c>
       <c r="O75" s="65"/>
       <c r="P75" s="65"/>
       <c r="Q75" s="65"/>
@@ -8292,8 +8481,8 @@
       <c r="S75" s="65"/>
       <c r="T75" s="65"/>
       <c r="U75" s="65"/>
-      <c r="AB75" s="65"/>
-      <c r="AC75" s="65"/>
+      <c r="V75" s="65"/>
+      <c r="W75" s="65"/>
       <c r="AD75" s="65"/>
       <c r="AE75" s="65"/>
       <c r="AF75" s="65"/>
@@ -8307,8 +8496,10 @@
       <c r="AN75" s="65"/>
       <c r="AO75" s="65"/>
       <c r="AP75" s="65"/>
-    </row>
-    <row r="77" spans="1:42">
+      <c r="AQ75" s="65"/>
+      <c r="AR75" s="65"/>
+    </row>
+    <row r="77" spans="1:44">
       <c r="A77" s="53" t="s">
         <v>158</v>
       </c>
@@ -8336,8 +8527,14 @@
       <c r="L77" s="53">
         <v>203</v>
       </c>
-    </row>
-    <row r="78" spans="1:42">
+      <c r="M77" s="53">
+        <v>203</v>
+      </c>
+      <c r="N77" s="53">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:44">
       <c r="A78" s="53" t="s">
         <v>159</v>
       </c>
@@ -8365,8 +8562,14 @@
       <c r="L78" s="53">
         <v>1148996</v>
       </c>
-    </row>
-    <row r="79" spans="1:42">
+      <c r="M78" s="53">
+        <v>1149926</v>
+      </c>
+      <c r="N78" s="53">
+        <v>1153818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44">
       <c r="A79" s="53" t="s">
         <v>160</v>
       </c>
@@ -8394,8 +8597,14 @@
       <c r="L79" s="53">
         <v>-3009</v>
       </c>
-    </row>
-    <row r="80" spans="1:42">
+      <c r="M79" s="53">
+        <v>-2917</v>
+      </c>
+      <c r="N79" s="53">
+        <v>-2887</v>
+      </c>
+    </row>
+    <row r="80" spans="1:44">
       <c r="A80" s="53" t="s">
         <v>161</v>
       </c>
@@ -8429,8 +8638,14 @@
         <f t="shared" si="143"/>
         <v>-1110337</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" s="53">
+        <v>-1119324</v>
+      </c>
+      <c r="N80" s="53">
+        <v>-1124331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="53" t="s">
         <v>162</v>
       </c>
@@ -8466,8 +8681,14 @@
         <f>L77+L78+L79+L80</f>
         <v>35853</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81" s="53">
+        <v>27888</v>
+      </c>
+      <c r="N81" s="53">
+        <v>26805</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="53" t="s">
         <v>163</v>
       </c>
@@ -8503,8 +8724,19 @@
         <f>L81+L75</f>
         <v>118930</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M82" s="59">
+        <f>M81+M75</f>
+        <v>103338</v>
+      </c>
+      <c r="N82" s="59">
+        <f>N81+N75</f>
+        <v>107675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="N83" s="59"/>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="53" t="s">
         <v>164</v>
       </c>
@@ -8540,8 +8772,16 @@
         <f>L68-L82</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M84" s="59">
+        <f>M68-M82</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="59">
+        <f>N68-N82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="53" t="s">
         <v>10</v>
       </c>
@@ -8558,12 +8798,12 @@
         <v>163957900</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="70" customFormat="1">
+    <row r="87" spans="1:14" s="70" customFormat="1">
       <c r="A87" s="70" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:14">
       <c r="A89" s="53" t="s">
         <v>66</v>
       </c>
@@ -8596,7 +8836,7 @@
         <v>-21925</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:14">
       <c r="A90" s="53" t="s">
         <v>139</v>
       </c>
@@ -8623,7 +8863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:14">
       <c r="A91" s="53" t="s">
         <v>183</v>
       </c>
@@ -8631,7 +8871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:14">
       <c r="A92" s="53" t="s">
         <v>140</v>
       </c>
@@ -8658,7 +8898,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:14">
       <c r="A93" s="53" t="s">
         <v>203</v>
       </c>
@@ -8666,7 +8906,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:14">
       <c r="A94" s="53" t="s">
         <v>166</v>
       </c>
@@ -8693,7 +8933,7 @@
         <v>-185</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:14">
       <c r="A95" s="53" t="s">
         <v>167</v>
       </c>
@@ -8720,7 +8960,7 @@
         <v>-95</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:14">
       <c r="A96" s="53" t="s">
         <v>168</v>
       </c>
@@ -9457,60 +9697,60 @@
         <v>-8987</v>
       </c>
       <c r="D10" s="59">
-        <f>Model!AC48</f>
-        <v>2816.7047258664943</v>
+        <f>Model!AE48</f>
+        <v>-6084.6217101292505</v>
       </c>
       <c r="E10" s="59">
-        <f>Model!AD48</f>
-        <v>3578.4956819990775</v>
+        <f>Model!AF48</f>
+        <v>-7706.5461326207715</v>
       </c>
       <c r="F10" s="59">
-        <f>Model!AE48</f>
-        <v>5892.0082269497525</v>
+        <f>Model!AG48</f>
+        <v>-5491.2378355717838</v>
       </c>
       <c r="G10" s="59">
-        <f>Model!AF48</f>
-        <v>14913.605870165742</v>
+        <f>Model!AH48</f>
+        <v>3528.4796794444346</v>
       </c>
       <c r="H10" s="59">
-        <f>Model!AG48</f>
-        <v>19962.277034470644</v>
+        <f>Model!AI48</f>
+        <v>8574.4746862351185</v>
       </c>
       <c r="I10" s="59">
-        <f>Model!AH48</f>
-        <v>19511.960482242703</v>
+        <f>Model!AJ48</f>
+        <v>8093.8857857741214</v>
       </c>
       <c r="J10" s="59">
-        <f>Model!AI48</f>
-        <v>19036.114066434551</v>
+        <f>Model!AK48</f>
+        <v>7586.0587940727473</v>
       </c>
       <c r="K10" s="59">
-        <f>Model!AJ48</f>
-        <v>18953.321234289899</v>
+        <f>Model!AL48</f>
+        <v>7481.8697335666948</v>
       </c>
       <c r="L10" s="59">
-        <f>Model!AK48</f>
-        <v>18706.101401626343</v>
+        <f>Model!AM48</f>
+        <v>7209.2671225745271</v>
       </c>
       <c r="M10" s="59">
-        <f>Model!AL48</f>
-        <v>18364.078221291733</v>
+        <f>Model!AN48</f>
+        <v>6837.3369058299677</v>
       </c>
       <c r="N10" s="59">
-        <f>Model!AM48</f>
-        <v>18037.008289591664</v>
+        <f>Model!AO48</f>
+        <v>6479.7624080173091</v>
       </c>
       <c r="O10" s="59">
-        <f>Model!AN48</f>
-        <v>17731.782607184006</v>
+        <f>Model!AP48</f>
+        <v>6143.6277704526665</v>
       </c>
       <c r="P10" s="59">
-        <f>Model!AO48</f>
-        <v>17385.303678766319</v>
+        <f>Model!AQ48</f>
+        <v>5763.9715594745612</v>
       </c>
       <c r="Q10" s="59">
-        <f>Model!AP48</f>
-        <v>17018.518363679574</v>
+        <f>Model!AR48</f>
+        <v>5362.03670658797</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -9594,7 +9834,7 @@
       </c>
       <c r="C20" s="96">
         <f>NPV(C18,C10:Q10)+Q10/(C18-C19)</f>
-        <v>84432.180202248812</v>
+        <v>8267.1804533388422</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -9603,7 +9843,7 @@
       </c>
       <c r="C21" s="96">
         <f>C20+Main!P17-Main!P18</f>
-        <v>155684.1802022488</v>
+        <v>79519.180453338835</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -9612,7 +9852,7 @@
       </c>
       <c r="C22" s="98">
         <f>C21/Main!P15/1000</f>
-        <v>0.88675204157384302</v>
+        <v>0.45292845759712264</v>
       </c>
     </row>
   </sheetData>

--- a/SPPI Model.xlsx
+++ b/SPPI Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F149C479-50BC-4A4D-88F9-52EBBC2FE659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A4EB9B-D215-844F-9E97-2BEB3C8A51E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{74B7601F-A485-1747-82A0-CB99B95E4172}"/>
   </bookViews>
@@ -1365,6 +1365,9 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1395,9 +1398,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1900,11 +1900,11 @@
       <c r="R13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="S13" s="103">
+      <c r="S13" s="106">
         <v>44820</v>
       </c>
-      <c r="T13" s="103"/>
-      <c r="U13" s="104"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="107"/>
       <c r="W13" s="17" t="s">
         <v>121</v>
       </c>
@@ -1943,10 +1943,10 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="16" customHeight="1">
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="108" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="20"/>
@@ -2007,8 +2007,8 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="16" customHeight="1">
-      <c r="C15" s="108"/>
-      <c r="D15" s="106"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -2068,8 +2068,8 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="16" customHeight="1">
-      <c r="C16" s="108"/>
-      <c r="D16" s="105" t="s">
+      <c r="C16" s="111"/>
+      <c r="D16" s="108" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="20"/>
@@ -2126,8 +2126,8 @@
       </c>
     </row>
     <row r="17" spans="3:34" ht="16" customHeight="1">
-      <c r="C17" s="108"/>
-      <c r="D17" s="106"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
@@ -2193,8 +2193,8 @@
       </c>
     </row>
     <row r="18" spans="3:34" ht="16" customHeight="1">
-      <c r="C18" s="108"/>
-      <c r="D18" s="105" t="s">
+      <c r="C18" s="111"/>
+      <c r="D18" s="108" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="22"/>
@@ -2263,8 +2263,8 @@
       </c>
     </row>
     <row r="19" spans="3:34">
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
@@ -2332,10 +2332,10 @@
       </c>
     </row>
     <row r="20" spans="3:34">
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="108" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="22"/>
@@ -2400,8 +2400,8 @@
       </c>
     </row>
     <row r="21" spans="3:34">
-      <c r="C21" s="108"/>
-      <c r="D21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="113"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
@@ -2468,20 +2468,20 @@
       </c>
     </row>
     <row r="22" spans="3:34" ht="13" customHeight="1">
-      <c r="C22" s="108"/>
-      <c r="D22" s="105" t="s">
+      <c r="C22" s="111"/>
+      <c r="D22" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
       <c r="O22" s="7" t="s">
         <v>84</v>
       </c>
@@ -2545,16 +2545,16 @@
       </c>
     </row>
     <row r="23" spans="3:34">
-      <c r="C23" s="108"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
       <c r="O23" s="8" t="s">
         <v>90</v>
       </c>
@@ -2617,8 +2617,8 @@
       </c>
     </row>
     <row r="24" spans="3:34">
-      <c r="C24" s="108"/>
-      <c r="D24" s="105" t="s">
+      <c r="C24" s="111"/>
+      <c r="D24" s="108" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="22"/>
@@ -2691,8 +2691,8 @@
       </c>
     </row>
     <row r="25" spans="3:34">
-      <c r="C25" s="108"/>
-      <c r="D25" s="106"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -2714,8 +2714,8 @@
       <c r="U25" s="6"/>
     </row>
     <row r="26" spans="3:34">
-      <c r="C26" s="108"/>
-      <c r="D26" s="110" t="s">
+      <c r="C26" s="111"/>
+      <c r="D26" s="113" t="s">
         <v>47</v>
       </c>
       <c r="E26" s="22"/>
@@ -2733,8 +2733,8 @@
       </c>
     </row>
     <row r="27" spans="3:34">
-      <c r="C27" s="108"/>
-      <c r="D27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="113"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -2750,8 +2750,8 @@
       </c>
     </row>
     <row r="28" spans="3:34">
-      <c r="C28" s="108"/>
-      <c r="D28" s="105" t="s">
+      <c r="C28" s="111"/>
+      <c r="D28" s="108" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="22"/>
@@ -2768,8 +2768,8 @@
       </c>
     </row>
     <row r="29" spans="3:34">
-      <c r="C29" s="108"/>
-      <c r="D29" s="110"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="113"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
@@ -2786,8 +2786,8 @@
       </c>
     </row>
     <row r="30" spans="3:34">
-      <c r="C30" s="108"/>
-      <c r="D30" s="105" t="s">
+      <c r="C30" s="111"/>
+      <c r="D30" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="22"/>
@@ -2803,8 +2803,8 @@
       <c r="U30" s="6"/>
     </row>
     <row r="31" spans="3:34">
-      <c r="C31" s="109"/>
-      <c r="D31" s="106"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="109"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
@@ -2981,11 +2981,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC0AE67-9409-174E-A824-8F0542D19AD8}">
   <dimension ref="A1:AR126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N73" sqref="N73"/>
+      <selection pane="bottomRight" activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -4716,16 +4716,16 @@
       <c r="A27" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="113">
+      <c r="M27" s="103">
         <v>10114</v>
       </c>
-      <c r="N27" s="113">
+      <c r="N27" s="103">
         <v>15615</v>
       </c>
       <c r="O27" s="65"/>
       <c r="P27" s="65"/>
       <c r="Q27" s="65">
-        <f t="shared" ref="N27:W27" si="50">Q24*Q21*Q25*(1-Q26)</f>
+        <f t="shared" ref="Q27:W27" si="50">Q24*Q21*Q25*(1-Q26)</f>
         <v>19482.428692326092</v>
       </c>
       <c r="R27" s="65">
@@ -5092,16 +5092,16 @@
       <c r="A34" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="M34" s="114">
+      <c r="M34" s="104">
         <v>1792</v>
       </c>
-      <c r="N34" s="114">
+      <c r="N34" s="104">
         <v>1063</v>
       </c>
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="59">
-        <f t="shared" ref="N34:W34" si="56">Q33*(1-Q36)</f>
+        <f t="shared" ref="Q34:W34" si="56">Q33*(1-Q36)</f>
         <v>1948.2428692326087</v>
       </c>
       <c r="R34" s="59">
@@ -5415,10 +5415,10 @@
       <c r="L37" s="59">
         <v>8263</v>
       </c>
-      <c r="M37" s="114">
+      <c r="M37" s="104">
         <v>11298</v>
       </c>
-      <c r="N37" s="114">
+      <c r="N37" s="104">
         <v>13998</v>
       </c>
       <c r="O37" s="59"/>
@@ -5560,10 +5560,10 @@
       <c r="L38" s="59">
         <v>13335</v>
       </c>
-      <c r="M38" s="114">
+      <c r="M38" s="104">
         <v>8669</v>
       </c>
-      <c r="N38" s="114">
+      <c r="N38" s="104">
         <v>5424</v>
       </c>
       <c r="O38" s="59"/>
@@ -6023,10 +6023,10 @@
       <c r="L41" s="59">
         <v>128</v>
       </c>
-      <c r="M41" s="114">
+      <c r="M41" s="104">
         <v>615</v>
       </c>
-      <c r="N41" s="114">
+      <c r="N41" s="104">
         <v>559</v>
       </c>
       <c r="O41" s="59"/>
@@ -6048,7 +6048,7 @@
         <v>453.41796875</v>
       </c>
       <c r="U41" s="59">
-        <f t="shared" ref="N41:W41" si="83">AVERAGE(Q41:T41)</f>
+        <f t="shared" ref="U41:W41" si="83">AVERAGE(Q41:T41)</f>
         <v>427.0224609375</v>
       </c>
       <c r="V41" s="59">
@@ -6134,10 +6134,10 @@
         <v>137</v>
       </c>
       <c r="L42" s="59"/>
-      <c r="M42" s="114">
+      <c r="M42" s="104">
         <v>-901</v>
       </c>
-      <c r="N42" s="114">
+      <c r="N42" s="104">
         <v>-943</v>
       </c>
       <c r="O42" s="59"/>
@@ -6302,7 +6302,7 @@
       <c r="L44" s="59">
         <v>-443</v>
       </c>
-      <c r="M44" s="114">
+      <c r="M44" s="104">
         <v>202</v>
       </c>
       <c r="N44" s="59">
@@ -6740,7 +6740,7 @@
       <c r="L47" s="53">
         <v>4</v>
       </c>
-      <c r="M47" s="115">
+      <c r="M47" s="105">
         <v>2742</v>
       </c>
       <c r="N47" s="53">
@@ -6982,7 +6982,7 @@
         <v>201.91806600000001</v>
       </c>
       <c r="R50" s="59">
-        <f t="shared" ref="N50:W50" si="128">Q50</f>
+        <f t="shared" ref="R50:W50" si="128">Q50</f>
         <v>201.91806600000001</v>
       </c>
       <c r="S50" s="59">
@@ -7277,7 +7277,7 @@
         <v>180.83375971000001</v>
       </c>
       <c r="M52" s="59">
-        <f t="shared" ref="M52:N52" si="132">L52*(1.03)</f>
+        <f t="shared" ref="M52" si="132">L52*(1.03)</f>
         <v>186.2587725013</v>
       </c>
       <c r="N52" s="59">
@@ -8117,7 +8117,7 @@
         <v>179007</v>
       </c>
       <c r="G68" s="65">
-        <f t="shared" ref="G68:N68" si="138">G64+G65+G66+G67+G60</f>
+        <f t="shared" ref="G68" si="138">G64+G65+G66+G67+G60</f>
         <v>175045</v>
       </c>
       <c r="H68" s="65">
@@ -8129,7 +8129,7 @@
         <v>111548</v>
       </c>
       <c r="J68" s="65">
-        <f t="shared" ref="I68:N68" si="139">J64+J65+J66+J67</f>
+        <f t="shared" ref="J68:N68" si="139">J64+J65+J66+J67</f>
         <v>100054</v>
       </c>
       <c r="K68" s="65">
@@ -8264,27 +8264,27 @@
         <v>57272</v>
       </c>
       <c r="I72" s="59">
-        <f>I70+I71</f>
+        <f t="shared" ref="I72:N72" si="141">I70+I71</f>
         <v>53229</v>
       </c>
       <c r="J72" s="59">
-        <f>J70+J71</f>
+        <f t="shared" si="141"/>
         <v>39208</v>
       </c>
       <c r="K72" s="59">
-        <f>K70+K71</f>
+        <f t="shared" si="141"/>
         <v>41041</v>
       </c>
       <c r="L72" s="59">
-        <f>L70+L71</f>
+        <f t="shared" si="141"/>
         <v>49624</v>
       </c>
       <c r="M72" s="59">
-        <f>M70+M71</f>
+        <f t="shared" si="141"/>
         <v>42685</v>
       </c>
       <c r="N72" s="59">
-        <f>N70+N71</f>
+        <f t="shared" si="141"/>
         <v>38881</v>
       </c>
       <c r="O72" s="59"/>
@@ -8332,27 +8332,27 @@
         <v>28840</v>
       </c>
       <c r="R73" s="59">
-        <f t="shared" ref="R73:W73" si="141">Q73</f>
+        <f t="shared" ref="R73:W73" si="142">Q73</f>
         <v>28840</v>
       </c>
       <c r="S73" s="59">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>28840</v>
       </c>
       <c r="T73" s="59">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>28840</v>
       </c>
       <c r="U73" s="59">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>28840</v>
       </c>
       <c r="V73" s="59">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>28840</v>
       </c>
       <c r="W73" s="59">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>28840</v>
       </c>
       <c r="AD73" s="59"/>
@@ -8443,35 +8443,35 @@
         <v>56568</v>
       </c>
       <c r="G75" s="65">
-        <f t="shared" ref="G75:H75" si="142">G72+G73+G74</f>
+        <f t="shared" ref="G75:H75" si="143">G72+G73+G74</f>
         <v>66457</v>
       </c>
       <c r="H75" s="65">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>68337</v>
       </c>
       <c r="I75" s="65">
-        <f>I72+I73+I74</f>
+        <f t="shared" ref="I75:N75" si="144">I72+I73+I74</f>
         <v>63995</v>
       </c>
       <c r="J75" s="65">
-        <f>J72+J73+J74</f>
+        <f t="shared" si="144"/>
         <v>44798</v>
       </c>
       <c r="K75" s="65">
-        <f>K72+K73+K74</f>
+        <f t="shared" si="144"/>
         <v>45987</v>
       </c>
       <c r="L75" s="65">
-        <f>L72+L73+L74</f>
+        <f t="shared" si="144"/>
         <v>83077</v>
       </c>
       <c r="M75" s="65">
-        <f>M72+M73+M74</f>
+        <f t="shared" si="144"/>
         <v>75450</v>
       </c>
       <c r="N75" s="65">
-        <f>N72+N73+N74</f>
+        <f t="shared" si="144"/>
         <v>80870</v>
       </c>
       <c r="O75" s="65"/>
@@ -8619,23 +8619,23 @@
         <v>-971124</v>
       </c>
       <c r="H80" s="59">
-        <f t="shared" ref="H80:L80" si="143">G80+H48</f>
+        <f t="shared" ref="H80:L80" si="145">G80+H48</f>
         <v>-1004208</v>
       </c>
       <c r="I80" s="59">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>-1043922</v>
       </c>
       <c r="J80" s="59">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>-1059364</v>
       </c>
       <c r="K80" s="59">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>-1088412</v>
       </c>
       <c r="L80" s="59">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>-1110337</v>
       </c>
       <c r="M80" s="53">
@@ -8658,11 +8658,11 @@
         <v>122439</v>
       </c>
       <c r="G81" s="53">
-        <f t="shared" ref="G81:H81" si="144">G77+G78+G79+G80</f>
+        <f t="shared" ref="G81:H81" si="146">G77+G78+G79+G80</f>
         <v>108588</v>
       </c>
       <c r="H81" s="53">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>79464</v>
       </c>
       <c r="I81" s="53">
@@ -8701,35 +8701,35 @@
         <v>179007</v>
       </c>
       <c r="G82" s="59">
-        <f t="shared" ref="G82:H82" si="145">G81+G75</f>
+        <f t="shared" ref="G82:H82" si="147">G81+G75</f>
         <v>175045</v>
       </c>
       <c r="H82" s="59">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>147801</v>
       </c>
       <c r="I82" s="59">
-        <f>I81+I75</f>
+        <f t="shared" ref="I82:N82" si="148">I81+I75</f>
         <v>111549</v>
       </c>
       <c r="J82" s="59">
-        <f>J81+J75</f>
+        <f t="shared" si="148"/>
         <v>100055</v>
       </c>
       <c r="K82" s="59">
-        <f>K81+K75</f>
+        <f t="shared" si="148"/>
         <v>79430</v>
       </c>
       <c r="L82" s="59">
-        <f>L81+L75</f>
+        <f t="shared" si="148"/>
         <v>118930</v>
       </c>
       <c r="M82" s="59">
-        <f>M81+M75</f>
+        <f t="shared" si="148"/>
         <v>103338</v>
       </c>
       <c r="N82" s="59">
-        <f>N81+N75</f>
+        <f t="shared" si="148"/>
         <v>107675</v>
       </c>
     </row>
@@ -8749,35 +8749,35 @@
         <v>0</v>
       </c>
       <c r="G84" s="59">
-        <f t="shared" ref="G84:H84" si="146">G68-G82</f>
+        <f t="shared" ref="G84:H84" si="149">G68-G82</f>
         <v>0</v>
       </c>
       <c r="H84" s="59">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="I84" s="59">
-        <f>I68-I82</f>
+        <f t="shared" ref="I84:N84" si="150">I68-I82</f>
         <v>-1</v>
       </c>
       <c r="J84" s="59">
-        <f>J68-J82</f>
+        <f t="shared" si="150"/>
         <v>-1</v>
       </c>
       <c r="K84" s="59">
-        <f>K68-K82</f>
+        <f t="shared" si="150"/>
         <v>-1</v>
       </c>
       <c r="L84" s="59">
-        <f>L68-L82</f>
+        <f t="shared" si="150"/>
         <v>-1</v>
       </c>
       <c r="M84" s="59">
-        <f>M68-M82</f>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="N84" s="59">
-        <f>N68-N82</f>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
     </row>
@@ -8812,15 +8812,15 @@
         <v>-35697</v>
       </c>
       <c r="G89" s="59">
-        <f t="shared" ref="G89:I89" si="147">G48</f>
+        <f t="shared" ref="G89:I89" si="151">G48</f>
         <v>-50132</v>
       </c>
       <c r="H89" s="59">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>-33084</v>
       </c>
       <c r="I89" s="59">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>-39714</v>
       </c>
       <c r="J89" s="59">
@@ -8828,11 +8828,11 @@
         <v>-15442</v>
       </c>
       <c r="K89" s="59">
-        <f t="shared" ref="K89:L89" si="148">K48</f>
+        <f t="shared" ref="K89:L89" si="152">K48</f>
         <v>-29048</v>
       </c>
       <c r="L89" s="59">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>-21925</v>
       </c>
     </row>
@@ -9204,11 +9204,11 @@
         <v>-30296</v>
       </c>
       <c r="K108" s="59">
-        <f t="shared" ref="K108:L108" si="149">K89+SUM(K90:K107)</f>
+        <f t="shared" ref="K108:L108" si="153">K89+SUM(K90:K107)</f>
         <v>-23446</v>
       </c>
       <c r="L108" s="59">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>-17909</v>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
         <v>-34901</v>
       </c>
       <c r="L114" s="53">
-        <f t="shared" ref="L114" si="150">L110+L112+L111+L113</f>
+        <f t="shared" ref="L114" si="154">L110+L112+L111+L113</f>
         <v>-1768</v>
       </c>
     </row>
@@ -9393,15 +9393,15 @@
         <v>23512</v>
       </c>
       <c r="G124" s="65">
-        <f t="shared" ref="G124:I124" si="151">G120+G114+G108+G122</f>
+        <f t="shared" ref="G124:I124" si="155">G120+G114+G108+G122</f>
         <v>-23708</v>
       </c>
       <c r="H124" s="65">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="I124" s="65">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="J124" s="65">
@@ -9409,11 +9409,11 @@
         <v>-9860</v>
       </c>
       <c r="K124" s="65">
-        <f t="shared" ref="K124:L124" si="152">K120+K114+K108+K122</f>
+        <f t="shared" ref="K124:L124" si="156">K120+K114+K108+K122</f>
         <v>-53167</v>
       </c>
       <c r="L124" s="65">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>30743</v>
       </c>
     </row>
@@ -9430,11 +9430,11 @@
         <v>69521</v>
       </c>
       <c r="H125" s="53">
-        <f t="shared" ref="H125:I125" si="153">G126</f>
+        <f t="shared" ref="H125:I125" si="157">G126</f>
         <v>45813</v>
       </c>
       <c r="I125" s="53">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>45813</v>
       </c>
       <c r="J125" s="53">
@@ -9462,11 +9462,11 @@
         <v>45813</v>
       </c>
       <c r="H126" s="55">
-        <f t="shared" ref="H126:I126" si="154">H124+H125</f>
+        <f t="shared" ref="H126:I126" si="158">H124+H125</f>
         <v>45813</v>
       </c>
       <c r="I126" s="55">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>45813</v>
       </c>
       <c r="J126" s="55">

--- a/SPPI Model.xlsx
+++ b/SPPI Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A4EB9B-D215-844F-9E97-2BEB3C8A51E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C920D9-84AE-9746-AA52-5C40C18F7AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{74B7601F-A485-1747-82A0-CB99B95E4172}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="229">
   <si>
     <t>EBIT</t>
   </si>
@@ -123,39 +123,12 @@
     <t>Shares</t>
   </si>
   <si>
-    <t>FY20</t>
-  </si>
-  <si>
-    <t>FY21</t>
-  </si>
-  <si>
-    <t>FY19</t>
-  </si>
-  <si>
     <t>Total Operating Expense</t>
   </si>
   <si>
     <t>4Q22</t>
   </si>
   <si>
-    <t>3Q23</t>
-  </si>
-  <si>
-    <t>4Q23</t>
-  </si>
-  <si>
-    <t>1Q24</t>
-  </si>
-  <si>
-    <t>3Q24</t>
-  </si>
-  <si>
-    <t>4Q24</t>
-  </si>
-  <si>
-    <t>FY22</t>
-  </si>
-  <si>
     <t>FY23</t>
   </si>
   <si>
@@ -247,9 +220,6 @@
   </si>
   <si>
     <t>Previously treated atypical EGFR or HER2 mutation positive NSCLC (Exploratory)</t>
-  </si>
-  <si>
-    <t>2Q24</t>
   </si>
   <si>
     <t>Revenue Build</t>
@@ -756,6 +726,75 @@
   </si>
   <si>
     <t>4Q22A</t>
+  </si>
+  <si>
+    <t>1Q23A</t>
+  </si>
+  <si>
+    <t>1Q24E</t>
+  </si>
+  <si>
+    <t>2Q24E</t>
+  </si>
+  <si>
+    <t>3Q24E</t>
+  </si>
+  <si>
+    <t>4Q24E</t>
+  </si>
+  <si>
+    <t>FY2021A</t>
+  </si>
+  <si>
+    <t>FY2019A</t>
+  </si>
+  <si>
+    <t>FY2020A</t>
+  </si>
+  <si>
+    <t>Fy2022A</t>
+  </si>
+  <si>
+    <t>FY2023E</t>
+  </si>
+  <si>
+    <t>FY2024E</t>
+  </si>
+  <si>
+    <t>FY2025E</t>
+  </si>
+  <si>
+    <t>FY2026E</t>
+  </si>
+  <si>
+    <t>FY2027E</t>
+  </si>
+  <si>
+    <t>FY2028E</t>
+  </si>
+  <si>
+    <t>FY2029E</t>
+  </si>
+  <si>
+    <t>FY2030E</t>
+  </si>
+  <si>
+    <t>FY2034E</t>
+  </si>
+  <si>
+    <t>FY2031E</t>
+  </si>
+  <si>
+    <t>FY2032E</t>
+  </si>
+  <si>
+    <t>FY2033E</t>
+  </si>
+  <si>
+    <t>FY2035E</t>
+  </si>
+  <si>
+    <t>FY2036E</t>
   </si>
 </sst>
 </file>
@@ -1764,32 +1803,32 @@
     </row>
     <row r="6" spans="2:2" s="49" customFormat="1" ht="23">
       <c r="B6" s="48" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -1830,27 +1869,27 @@
     </row>
     <row r="2" spans="1:34" ht="18">
       <c r="A2" s="11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="W11" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1866,39 +1905,39 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="W12" s="12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="16" customHeight="1">
       <c r="C13" s="17"/>
       <c r="D13" s="46" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P13" s="6"/>
       <c r="R13" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="S13" s="106">
         <v>44820</v>
@@ -1906,48 +1945,48 @@
       <c r="T13" s="106"/>
       <c r="U13" s="107"/>
       <c r="W13" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y13" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA13" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB13" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC13" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="X13" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y13" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z13" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA13" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB13" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC13" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="AD13" s="30" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AE13" s="30" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AF13" s="30" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AG13" s="30" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="16" customHeight="1">
       <c r="C14" s="110" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D14" s="108" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -1959,19 +1998,19 @@
       <c r="L14" s="20"/>
       <c r="M14" s="21"/>
       <c r="O14" s="8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="P14" s="26">
         <v>0.45</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="U14" s="31">
         <v>0.48</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="X14" s="43"/>
       <c r="Y14" s="4"/>
@@ -2026,13 +2065,13 @@
         <v>175.566757</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X15" s="43"/>
       <c r="Y15" s="4"/>
@@ -2070,27 +2109,27 @@
     <row r="16" spans="1:34" ht="16" customHeight="1">
       <c r="C16" s="111"/>
       <c r="D16" s="108" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
       <c r="O16" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="P16" s="14">
         <f>P14*P15*1000</f>
         <v>79005.040649999995</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="U16" s="78">
         <f>'rNPV &amp; DCF Valuation'!C22</f>
         <v>0.45292845759712264</v>
       </c>
       <c r="W16" s="74" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="X16" s="75"/>
       <c r="Y16" s="76"/>
@@ -2132,20 +2171,20 @@
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="O17" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="P17" s="14">
         <f>Model!L58+Model!L59</f>
         <v>100252</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="X17" s="43">
         <f>Model!AC38</f>
@@ -2195,7 +2234,7 @@
     <row r="18" spans="3:34" ht="16" customHeight="1">
       <c r="C18" s="111"/>
       <c r="D18" s="108" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -2203,19 +2242,19 @@
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
       <c r="O18" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P18" s="14">
         <v>29000</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="U18" s="31">
         <v>2.5299999999999998</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="X18" s="43">
         <f>Model!AC37</f>
@@ -2271,14 +2310,14 @@
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
       <c r="O19" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="P19" s="15">
         <f>P16+P18-P17</f>
         <v>7753.0406499999954</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="U19" s="31">
         <v>0.3</v>
@@ -2333,10 +2372,10 @@
     </row>
     <row r="20" spans="3:34">
       <c r="C20" s="110" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D20" s="108" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -2345,14 +2384,14 @@
       <c r="I20" s="22"/>
       <c r="J20" s="23"/>
       <c r="R20" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U20" s="33">
         <f>U21-100+30</f>
         <v>14.272043359999998</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="X20" s="43">
         <f>Model!AC41+Model!AC44</f>
@@ -2409,18 +2448,18 @@
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="O21" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="P21" s="3"/>
       <c r="R21" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="U21" s="33">
         <f>U22*U14</f>
         <v>84.272043359999998</v>
       </c>
       <c r="W21" s="74" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="X21" s="75">
         <f t="shared" ref="X21:AH21" si="1">X19+X20</f>
@@ -2470,10 +2509,10 @@
     <row r="22" spans="3:34" ht="13" customHeight="1">
       <c r="C22" s="111"/>
       <c r="D22" s="108" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E22" s="114" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F22" s="115"/>
       <c r="G22" s="115"/>
@@ -2483,21 +2522,21 @@
       <c r="K22" s="115"/>
       <c r="L22" s="115"/>
       <c r="O22" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="P22" s="27">
         <f>'rNPV &amp; DCF Valuation'!C22</f>
         <v>0.45292845759712264</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="U22" s="41">
         <f>P15</f>
         <v>175.566757</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="X22" s="43">
         <f>Model!AC48</f>
@@ -2556,20 +2595,20 @@
       <c r="K23" s="115"/>
       <c r="L23" s="115"/>
       <c r="O23" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P23" s="28">
         <f>P22/P14-1</f>
         <v>6.5076835491613139E-3</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="U23" s="32">
         <v>3.79</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X23" s="43">
         <f>Model!AC50</f>
@@ -2619,7 +2658,7 @@
     <row r="24" spans="3:34">
       <c r="C24" s="111"/>
       <c r="D24" s="108" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -2628,14 +2667,14 @@
       <c r="I24" s="22"/>
       <c r="J24" s="23"/>
       <c r="O24" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="P24" s="26" t="e">
         <f>'rNPV &amp; DCF Valuation'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
@@ -2643,7 +2682,7 @@
         <v>4.05</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="X24" s="44">
         <f t="shared" ref="X24:AH24" si="2">X22/X23/1000</f>
@@ -2700,14 +2739,14 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
       <c r="O25" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P25" s="29" t="e">
         <f>P24/P14-1</f>
         <v>#REF!</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
@@ -2716,7 +2755,7 @@
     <row r="26" spans="3:34">
       <c r="C26" s="111"/>
       <c r="D26" s="113" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -2725,7 +2764,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="23"/>
       <c r="R26" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="U26" s="14">
         <f>P17/1000</f>
@@ -2742,7 +2781,7 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="R27" s="8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="U27" s="37">
         <f>P18/1000</f>
@@ -2752,7 +2791,7 @@
     <row r="28" spans="3:34">
       <c r="C28" s="111"/>
       <c r="D28" s="108" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -2760,7 +2799,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="23"/>
       <c r="R28" s="8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="U28" s="37">
         <f>U26/U22</f>
@@ -2776,7 +2815,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
       <c r="R29" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
@@ -2788,7 +2827,7 @@
     <row r="30" spans="3:34">
       <c r="C30" s="111"/>
       <c r="D30" s="108" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -2796,7 +2835,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
       <c r="R30" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S30" s="42"/>
       <c r="T30" s="42"/>
@@ -2811,21 +2850,21 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="R31" s="19" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="S31" s="30" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T31" s="30" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="U31" s="18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="3:34">
       <c r="R32" s="35" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="U32" s="14">
         <f>Model!N33/1000</f>
@@ -2834,7 +2873,7 @@
     </row>
     <row r="33" spans="18:21">
       <c r="R33" s="35" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="U33" s="14">
         <f>Model!Q33/1000</f>
@@ -2843,7 +2882,7 @@
     </row>
     <row r="34" spans="18:21">
       <c r="R34" s="35" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="U34" s="14">
         <f>Model!R33/1000</f>
@@ -2852,7 +2891,7 @@
     </row>
     <row r="35" spans="18:21">
       <c r="R35" s="35" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="T35" s="4">
         <f>Model!M33/1000</f>
@@ -2865,7 +2904,7 @@
     </row>
     <row r="36" spans="18:21">
       <c r="R36" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -2873,21 +2912,21 @@
     </row>
     <row r="37" spans="18:21">
       <c r="R37" s="19" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="S37" s="30" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T37" s="30" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="U37" s="18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="18:21">
       <c r="R38" s="35" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S38" s="38">
         <f>Model!F53</f>
@@ -2904,7 +2943,7 @@
     </row>
     <row r="39" spans="18:21">
       <c r="R39" s="35" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="S39" s="38">
         <f>Model!G53</f>
@@ -2921,7 +2960,7 @@
     </row>
     <row r="40" spans="18:21">
       <c r="R40" s="35" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="S40" s="38">
         <f>Model!H53</f>
@@ -2938,7 +2977,7 @@
     </row>
     <row r="41" spans="18:21">
       <c r="R41" s="36" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="S41" s="39">
         <f>Model!I53</f>
@@ -2981,11 +3020,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC0AE67-9409-174E-A824-8F0542D19AD8}">
   <dimension ref="A1:AR126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK26" sqref="AK26"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -3007,12 +3046,12 @@
     </row>
     <row r="2" spans="1:44" s="54" customFormat="1">
       <c r="A2" s="54" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="53" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -3020,138 +3059,138 @@
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="56" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="56" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="53" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B8" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="M8" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="N8" s="55" t="s">
         <v>206</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="N8" s="55" t="s">
-        <v>126</v>
       </c>
       <c r="O8" s="55"/>
       <c r="P8" s="55"/>
       <c r="Q8" s="55" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="R8" s="55" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="S8" s="55" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="T8" s="55" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="U8" s="55" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="V8" s="55" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="W8" s="55" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="AA8" s="55" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="AB8" s="55" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="AC8" s="55" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="AD8" s="55" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="AE8" s="55" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="AF8" s="55" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="AG8" s="55" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="AH8" s="55" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="AI8" s="55" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="AJ8" s="55" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="AK8" s="55" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="AL8" s="55" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="AM8" s="55" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="AN8" s="55" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="AO8" s="55" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="AP8" s="55" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="AQ8" s="55" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="AR8" s="55" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="53" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B9" s="57">
         <v>43921</v>
@@ -3305,7 +3344,7 @@
     </row>
     <row r="10" spans="1:44" s="70" customFormat="1">
       <c r="A10" s="70" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B10" s="73"/>
       <c r="C10" s="73"/>
@@ -3332,7 +3371,7 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="53" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -3383,7 +3422,7 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="55" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
@@ -3410,7 +3449,7 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="53" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B14" s="53">
         <v>609000</v>
@@ -3558,7 +3597,7 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="53" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K15" s="59">
         <f>K14*0.4/0.55</f>
@@ -3669,7 +3708,7 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="53" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B16" s="53">
         <f>B15+B14</f>
@@ -3828,7 +3867,7 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="53" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F17" s="100">
         <f>F16/B16-1</f>
@@ -3981,7 +4020,7 @@
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="53" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B19" s="53">
         <v>6500</v>
@@ -4117,7 +4156,7 @@
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="53" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B20" s="99">
         <f t="shared" ref="B20:W20" si="42">B14/B19</f>
@@ -4276,7 +4315,7 @@
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="53" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B21" s="99">
         <f>B16/B19</f>
@@ -4462,12 +4501,12 @@
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="55" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:44" s="60" customFormat="1">
       <c r="A24" s="60" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M24" s="102">
         <f>(M27/(1-M26))/M16</f>
@@ -4552,7 +4591,7 @@
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="53" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M25" s="53">
         <v>5800</v>
@@ -4632,7 +4671,7 @@
     </row>
     <row r="26" spans="1:44" s="60" customFormat="1">
       <c r="A26" s="60" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M26" s="61">
         <v>0.05</v>
@@ -4714,7 +4753,7 @@
     </row>
     <row r="27" spans="1:44" s="55" customFormat="1">
       <c r="A27" s="55" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M27" s="103">
         <v>10114</v>
@@ -4815,7 +4854,7 @@
     </row>
     <row r="28" spans="1:44" s="60" customFormat="1">
       <c r="A28" s="60" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N28" s="66"/>
       <c r="O28" s="66"/>
@@ -4954,7 +4993,7 @@
     </row>
     <row r="31" spans="1:44" s="70" customFormat="1">
       <c r="A31" s="70" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M31" s="71"/>
       <c r="N31" s="71"/>
@@ -4987,7 +5026,7 @@
     </row>
     <row r="33" spans="1:44" s="55" customFormat="1">
       <c r="A33" s="55" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M33" s="65">
         <f>M27</f>
@@ -5090,7 +5129,7 @@
     </row>
     <row r="34" spans="1:44">
       <c r="A34" s="53" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M34" s="104">
         <v>1792</v>
@@ -5191,7 +5230,7 @@
     </row>
     <row r="35" spans="1:44">
       <c r="A35" s="53" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M35" s="59">
         <f>M33-M34</f>
@@ -5294,7 +5333,7 @@
     </row>
     <row r="36" spans="1:44" s="60" customFormat="1">
       <c r="A36" s="60" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M36" s="61">
         <f>M35/M33</f>
@@ -5668,7 +5707,7 @@
     </row>
     <row r="39" spans="1:44">
       <c r="A39" s="53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B39" s="53">
         <f>B37+B38</f>
@@ -6131,7 +6170,7 @@
     </row>
     <row r="42" spans="1:44">
       <c r="A42" s="53" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L42" s="59"/>
       <c r="M42" s="104">
@@ -6206,7 +6245,7 @@
     </row>
     <row r="43" spans="1:44">
       <c r="A43" s="53" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L43" s="59"/>
       <c r="M43" s="68">
@@ -6410,7 +6449,7 @@
     </row>
     <row r="45" spans="1:44">
       <c r="A45" s="53" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B45" s="59">
         <f>B40+B41+B44</f>
@@ -6764,7 +6803,7 @@
     </row>
     <row r="48" spans="1:44" s="55" customFormat="1">
       <c r="A48" s="55" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B48" s="65">
         <f>B45+B46+B47</f>
@@ -6923,7 +6962,7 @@
     </row>
     <row r="50" spans="1:44">
       <c r="A50" s="53" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B50" s="59">
         <f>B52</f>
@@ -7079,7 +7118,7 @@
     </row>
     <row r="51" spans="1:44">
       <c r="A51" s="53" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B51" s="69">
         <f t="shared" ref="B51:W51" si="130">B48/B50/1000</f>
@@ -7238,7 +7277,7 @@
     </row>
     <row r="52" spans="1:44" s="59" customFormat="1">
       <c r="A52" s="53" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B52" s="59">
         <v>111.78057099999999</v>
@@ -7383,7 +7422,7 @@
     </row>
     <row r="53" spans="1:44" s="59" customFormat="1">
       <c r="A53" s="53" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B53" s="69">
         <f t="shared" ref="B53:W53" si="135">B48/B52/1000</f>
@@ -7558,7 +7597,7 @@
     </row>
     <row r="56" spans="1:44" s="70" customFormat="1">
       <c r="A56" s="70" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B56" s="71"/>
       <c r="C56" s="71"/>
@@ -7587,7 +7626,7 @@
     </row>
     <row r="58" spans="1:44">
       <c r="A58" s="53" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -7627,7 +7666,7 @@
     </row>
     <row r="59" spans="1:44">
       <c r="A59" s="53" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E59" s="53">
         <v>134016</v>
@@ -7686,7 +7725,7 @@
     </row>
     <row r="60" spans="1:44">
       <c r="A60" s="53" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E60" s="53">
         <v>67</v>
@@ -7728,7 +7767,7 @@
     </row>
     <row r="61" spans="1:44">
       <c r="A61" s="53" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E61" s="53">
         <v>2394</v>
@@ -7787,7 +7826,7 @@
     </row>
     <row r="62" spans="1:44">
       <c r="A62" s="53" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I62" s="59"/>
       <c r="L62" s="59">
@@ -7826,7 +7865,7 @@
     </row>
     <row r="63" spans="1:44">
       <c r="A63" s="53" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E63" s="53">
         <v>4161</v>
@@ -7885,7 +7924,7 @@
     </row>
     <row r="64" spans="1:44">
       <c r="A64" s="53" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E64" s="59">
         <f>E58+E59+E61+E62+E63</f>
@@ -7954,7 +7993,7 @@
     </row>
     <row r="65" spans="1:44">
       <c r="A65" s="53" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E65" s="53">
         <v>3577</v>
@@ -7989,7 +8028,7 @@
     </row>
     <row r="66" spans="1:44">
       <c r="A66" s="53" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E66" s="53">
         <v>2247</v>
@@ -8047,7 +8086,7 @@
     </row>
     <row r="67" spans="1:44">
       <c r="A67" s="53" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E67" s="53">
         <v>4327</v>
@@ -8106,7 +8145,7 @@
     </row>
     <row r="68" spans="1:44" s="55" customFormat="1">
       <c r="A68" s="55" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E68" s="65">
         <f>E64+E65+E66+E67+E60</f>
@@ -8151,7 +8190,7 @@
     </row>
     <row r="70" spans="1:44">
       <c r="A70" s="53" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E70" s="53">
         <v>43771</v>
@@ -8186,7 +8225,7 @@
     </row>
     <row r="71" spans="1:44">
       <c r="A71" s="53" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E71" s="53">
         <v>9375</v>
@@ -8245,7 +8284,7 @@
     </row>
     <row r="72" spans="1:44">
       <c r="A72" s="53" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E72" s="59">
         <f>E70+E71</f>
@@ -8314,7 +8353,7 @@
     </row>
     <row r="73" spans="1:44">
       <c r="A73" s="53" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L73" s="59">
         <v>28488</v>
@@ -8373,7 +8412,7 @@
     </row>
     <row r="74" spans="1:44">
       <c r="A74" s="53" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E74" s="53">
         <v>9409</v>
@@ -8432,7 +8471,7 @@
     </row>
     <row r="75" spans="1:44" s="55" customFormat="1">
       <c r="A75" s="55" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E75" s="65">
         <f>E72+E73+E74</f>
@@ -8501,7 +8540,7 @@
     </row>
     <row r="77" spans="1:44">
       <c r="A77" s="53" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E77" s="53">
         <v>146</v>
@@ -8536,7 +8575,7 @@
     </row>
     <row r="78" spans="1:44">
       <c r="A78" s="53" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E78" s="53">
         <v>1021221</v>
@@ -8571,7 +8610,7 @@
     </row>
     <row r="79" spans="1:44">
       <c r="A79" s="53" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E79" s="53">
         <v>-1829</v>
@@ -8606,7 +8645,7 @@
     </row>
     <row r="80" spans="1:44">
       <c r="A80" s="53" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E80" s="53">
         <v>-885295</v>
@@ -8647,7 +8686,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="53" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E81" s="53">
         <f>E77+E78+E79+E80</f>
@@ -8690,7 +8729,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="53" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E82" s="59">
         <f>E81+E75</f>
@@ -8738,7 +8777,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="53" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E84" s="59">
         <f>E68-E82</f>
@@ -8800,12 +8839,12 @@
     </row>
     <row r="87" spans="1:14" s="70" customFormat="1">
       <c r="A87" s="70" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="53" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F89" s="59">
         <f>F48</f>
@@ -8838,7 +8877,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="53" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F90" s="53">
         <v>65</v>
@@ -8865,7 +8904,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="53" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L91" s="53">
         <v>17</v>
@@ -8873,7 +8912,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="53" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F92" s="53">
         <v>4212</v>
@@ -8900,7 +8939,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="53" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H93" s="53">
         <v>3057</v>
@@ -8908,7 +8947,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="53" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F94" s="53">
         <v>401</v>
@@ -8935,7 +8974,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="53" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F95" s="53">
         <v>68</v>
@@ -8962,7 +9001,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="53" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J96" s="53">
         <v>3</v>
@@ -8978,7 +9017,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="53" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F97" s="53">
         <v>-2856</v>
@@ -9005,7 +9044,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="53" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F98" s="53">
         <v>4999</v>
@@ -9032,7 +9071,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="53" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G100" s="53">
         <v>68</v>
@@ -9043,7 +9082,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="53" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F101" s="53">
         <v>-324</v>
@@ -9066,7 +9105,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="53" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L102" s="53">
         <v>-9373</v>
@@ -9074,7 +9113,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="53" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F103" s="53">
         <v>670</v>
@@ -9097,7 +9136,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="53" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F104" s="53">
         <v>-36</v>
@@ -9120,7 +9159,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="53" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F105" s="53">
         <v>-1681</v>
@@ -9143,7 +9182,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="53" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F106" s="53">
         <v>-4408</v>
@@ -9166,7 +9205,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="53" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F107" s="53">
         <v>96</v>
@@ -9189,7 +9228,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="53" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F108" s="59">
         <f>F89+SUM(F90:F107)</f>
@@ -9214,7 +9253,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="53" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F110" s="53">
         <v>49823</v>
@@ -9233,7 +9272,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="53" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F111" s="53">
         <v>2858</v>
@@ -9252,7 +9291,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="53" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F112" s="53">
         <v>-15964</v>
@@ -9271,7 +9310,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="53" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F113" s="53">
         <v>-73</v>
@@ -9286,7 +9325,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="53" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F114" s="53">
         <f>F110+F111+F112+F113</f>
@@ -9307,7 +9346,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="53" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J116" s="53">
         <v>20000</v>
@@ -9315,7 +9354,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="53" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="L117" s="53">
         <v>28852</v>
@@ -9323,7 +9362,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="53" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F118" s="53">
         <v>21357</v>
@@ -9338,7 +9377,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="53" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K119" s="53">
         <v>257</v>
@@ -9346,7 +9385,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="53" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F120" s="53">
         <f>F116+F118+F119</f>
@@ -9367,7 +9406,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="53" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F122" s="53">
         <v>2</v>
@@ -9504,37 +9543,37 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="101" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -9563,69 +9602,69 @@
     </row>
     <row r="2" spans="1:17" ht="19">
       <c r="A2" s="81" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="80" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16">
       <c r="A5" s="51" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16">
       <c r="A6" s="51" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="G8" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="N8" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="O8" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="84" t="s">
-        <v>33</v>
-      </c>
       <c r="Q8" s="82" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9690,7 +9729,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="89" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C10" s="59">
         <f>Model!M48</f>
@@ -9808,13 +9847,13 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="90" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C17" s="91"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="92" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C18" s="93">
         <v>0.12</v>
@@ -9822,7 +9861,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="94" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C19" s="95">
         <v>-0.99</v>
@@ -9830,7 +9869,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="94" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C20" s="96">
         <f>NPV(C18,C10:Q10)+Q10/(C18-C19)</f>
@@ -9839,7 +9878,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="94" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C21" s="96">
         <f>C20+Main!P17-Main!P18</f>
@@ -9848,7 +9887,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="97" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C22" s="98">
         <f>C21/Main!P15/1000</f>

--- a/SPPI Model.xlsx
+++ b/SPPI Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C920D9-84AE-9746-AA52-5C40C18F7AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4057B3B-9241-8E4F-BD15-6071F85946C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{74B7601F-A485-1747-82A0-CB99B95E4172}"/>
   </bookViews>

--- a/SPPI Model.xlsx
+++ b/SPPI Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4057B3B-9241-8E4F-BD15-6071F85946C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E938FC-0BC9-D948-A024-B4EC357BD3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{74B7601F-A485-1747-82A0-CB99B95E4172}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{74B7601F-A485-1747-82A0-CB99B95E4172}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85281EA4-948C-4749-8743-711A14FA2FEC}">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3020,11 +3020,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC0AE67-9409-174E-A824-8F0542D19AD8}">
   <dimension ref="A1:AR126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="2"/>
